--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -567,8 +567,10 @@
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="n">
-        <v>39749</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,60 +578,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="T2" t="n">
+        <v>-13.30486111111111</v>
+      </c>
+      <c r="S2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>251164</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>156.25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 07:38:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 07:38:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 10:14:15</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,13 +641,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,60 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
+        <v>-0.4265625</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251561</v>
+        <v>251391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>89.09836065573771</v>
+        <v>91.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 10:14:15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-07 10:31:15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-07 10:31:15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-07 12:02:53</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5435</v>
+        <v>5865</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -727,64 +723,66 @@
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="N4" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.564321493622685</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-1.564321493622685</v>
-      </c>
-      <c r="T4" t="n">
-        <v>8</v>
+        <v>-0.5020073784722222</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251229</v>
+        <v>251395</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1967213114754</v>
+        <v>35.34375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-07 12:02:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-07 12:19:53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-07 12:19:53</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:49</t>
+          <t>2025-05-07 12:55:14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18739</v>
+        <v>2262</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -793,7 +791,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -802,10 +800,8 @@
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N5" t="n">
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -813,60 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
+        <v>-0.5383572048611112</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251566</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>112.9344262295082</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:49</t>
+          <t>2025-05-07 12:55:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-07 13:10:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-07 13:10:14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-07 13:45:34</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6889</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -879,69 +872,71 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
+      <c r="N6" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-2.560940346087963</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-2.560940346087963</v>
-      </c>
-      <c r="T6" t="n">
-        <v>8</v>
+        <v>-0.5733181423611111</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251846</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>186.7540983606557</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-07 13:45:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-07 14:04:34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-07 14:04:34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-08 09:31:29</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11392</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -954,69 +949,71 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
+      <c r="N7" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
+        <v>-1.396864149305556</v>
+      </c>
+      <c r="S7" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251424</v>
+        <v>251477</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3934426229508</v>
+        <v>468.734375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-08 09:31:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-08 10:03:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-08 10:03:29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-09 09:52:13</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9662</v>
+        <v>29999</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1025,20 +1022,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1046,52 +1048,49 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-14.50895947177083</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>-14.50895947177083</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4</v>
+        <v>-2.411263020833333</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>244355</v>
+        <v>251782</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>70.65573770491804</v>
+        <v>188.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-09 09:52:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-09 10:07:13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-09 10:07:13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-05-09 13:15:51</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4310</v>
+        <v>12073</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1100,73 +1099,75 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-4.571914845173612</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-4.571914845173612</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4</v>
+        <v>-0.5526801215277778</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251485</v>
+        <v>251519</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>78.81967213114754</v>
+        <v>205.859375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-05-09 13:15:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-05-09 13:47:51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-05-09 13:47:51</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-12 09:13:43</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4808</v>
+        <v>13175</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1179,7 +1180,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1192,56 +1193,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-20.31067850637731</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-20.31067850637731</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251761</v>
+        <v>235572</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>217.6885245901639</v>
+        <v>155.59375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-12 09:13:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:22</t>
+          <t>2025-05-12 09:34:43</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:22</t>
+          <t>2025-05-12 09:34:43</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:03</t>
+          <t>2025-05-12 12:10:18</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13279</v>
+        <v>9958</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1250,11 +1248,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1267,56 +1265,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2</v>
+        <v>-553.5071614583334</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251374</v>
+        <v>244204</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>448.2459016393443</v>
+        <v>54.25</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:03</t>
+          <t>2025-05-12 12:10:18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:03</t>
+          <t>2025-05-12 12:27:18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:03</t>
+          <t>2025-05-12 12:27:18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:18</t>
+          <t>2025-05-12 13:21:33</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>27343</v>
+        <v>3472</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1325,11 +1320,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1342,56 +1337,53 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
+        <v>-4.556640625</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251519</v>
+        <v>250819</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>185.5633802816901</v>
+        <v>133.234375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 13:21:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:37:00</t>
+          <t>2025-05-12 13:40:33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:37:00</t>
+          <t>2025-05-12 13:40:33</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:42:33</t>
+          <t>2025-05-13 07:53:47</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13175</v>
+        <v>8527</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1404,7 +1396,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1417,56 +1409,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>7</v>
+        <v>-25.32902560763889</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251050</v>
+        <v>251246</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>187.53125</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:42:33</t>
+          <t>2025-05-13 07:53:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:33</t>
+          <t>2025-05-13 08:08:47</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:33</t>
+          <t>2025-05-13 08:08:47</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:33</t>
+          <t>2025-05-13 11:16:19</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12002</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1475,78 +1464,70 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.595530125196759</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-1.595530125196759</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2</v>
+        <v>-4.469672309027778</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251054</v>
+        <v>251467</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>97.28125</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:17:33</t>
+          <t>2025-05-13 11:16:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:52:33</t>
+          <t>2025-05-13 11:39:19</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:52:33</t>
+          <t>2025-05-13 11:39:19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:52:33</t>
+          <t>2025-05-13 13:16:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1555,78 +1536,70 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.619835680752315</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-1.619835680752315</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2</v>
+        <v>-4.553200954861111</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251081</v>
+        <v>251562</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>42.42253521126761</v>
+        <v>127.21875</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 14:52:33</t>
+          <t>2025-05-13 13:16:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:57:33</t>
+          <t>2025-05-13 13:31:36</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:57:33</t>
+          <t>2025-05-13 13:31:36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:59</t>
+          <t>2025-05-14 07:38:49</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3012</v>
+        <v>8142</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1635,80 +1608,70 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-19.402767996875</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>-19.402767996875</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251594</v>
+        <v>251251</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>91.07042253521126</v>
+        <v>247.8125</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:59</t>
+          <t>2025-05-14 07:38:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 11:34:59</t>
+          <t>2025-05-14 08:01:49</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 11:34:59</t>
+          <t>2025-05-14 08:01:49</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 13:06:03</t>
+          <t>2025-05-14 12:09:38</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6466</v>
+        <v>15860</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1717,11 +1680,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1734,56 +1697,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-5.545872456967593</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>-5.545872456967593</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251109</v>
+        <v>251743</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D18" t="n">
-        <v>266.5915492957747</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 13:06:03</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:03</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:03</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 11:07:38</t>
+          <t>2025-05-09 10:38:39</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>18928</v>
+        <v>10776</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1792,11 +1752,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1809,56 +1769,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-25.46364436619213</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>-25.46364436619213</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251520</v>
+        <v>251247</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
-        <v>230.1408450704225</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 11:07:38</t>
+          <t>2025-05-09 10:38:39</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:27:38</t>
+          <t>2025-05-09 11:07:39</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 12:27:38</t>
+          <t>2025-05-09 11:07:39</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-14 08:17:47</t>
+          <t>2025-05-12 10:29:11</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>16340</v>
+        <v>26934</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1867,11 +1824,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1884,56 +1841,53 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-2.345686619722222</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-2.345686619722222</v>
-      </c>
-      <c r="T19" t="n">
+        <v>-3.436942167581019</v>
+      </c>
+      <c r="S19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251456</v>
+        <v>251249</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>183.6530612244898</v>
+        <v>78</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 10:29:11</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 10:54:11</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 10:54:11</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-12 12:12:11</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8999</v>
+        <v>4758</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1942,78 +1896,70 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-3.300510204085648</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>-2.446981292511574</v>
-      </c>
-      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251416</v>
+        <v>251651</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" t="n">
-        <v>229.0204081632653</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-12 12:12:11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-12 12:54:11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-12 12:54:11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:40</t>
+          <t>2025-05-14 09:41:54</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>11222</v>
+        <v>46830</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2022,14 +1968,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
         <v>39755</v>
@@ -2042,56 +1988,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2</v>
+        <v>-1.404098360659722</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251626</v>
+        <v>245090</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>255.1020408163265</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:40</t>
+          <t>2025-05-14 09:41:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:40</t>
+          <t>2025-05-14 10:06:54</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:40</t>
+          <t>2025-05-14 10:06:54</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 12:07:46</t>
+          <t>2025-06-09 07:17:41</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12500</v>
+        <v>516718</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2100,14 +2043,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2117,56 +2060,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-9.505399659861112</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-9.505399659861112</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251164</v>
+        <v>251225</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 12:07:46</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 12:57:46</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 12:57:46</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 08:21:51</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2175,17 +2115,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2193,60 +2133,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-5.348511904756944</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>-5.348511904756944</v>
-      </c>
-      <c r="T23" t="n">
-        <v>4</v>
+        <v>-0.3048611111111111</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251373</v>
+        <v>251456</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>348.8571428571428</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12 08:21:51</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 09:01:51</t>
+          <t>2025-05-08 07:51:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 09:01:51</t>
+          <t>2025-05-08 07:51:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:42</t>
+          <t>2025-05-08 09:57:44</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>17094</v>
+        <v>8999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2259,69 +2196,71 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
+      <c r="N24" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-14.61855158730324</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-14.61855158730324</v>
-      </c>
-      <c r="T24" t="n">
-        <v>4</v>
+        <v>-2.415101721435185</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250670</v>
+        <v>251547</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>31.89795918367347</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:42</t>
+          <t>2025-05-08 09:57:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:42</t>
+          <t>2025-05-08 10:14:44</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:42</t>
+          <t>2025-05-08 10:14:44</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:36</t>
+          <t>2025-05-08 13:19:39</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1563</v>
+        <v>13129</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2330,73 +2269,75 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-8.336536281180555</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>-8.336536281180555</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2</v>
+        <v>-1.555320813773148</v>
+      </c>
+      <c r="S25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251061</v>
+        <v>250759</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>489.734693877551</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:36</t>
+          <t>2025-05-08 13:19:39</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 08:51:36</t>
+          <t>2025-05-08 13:49:39</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 08:51:36</t>
+          <t>2025-05-08 13:49:39</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-14 09:01:20</t>
+          <t>2025-05-09 07:47:56</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>23997</v>
+        <v>8398</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2405,73 +2346,75 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-9.375935374155093</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>-9.375935374155093</v>
-      </c>
-      <c r="T26" t="n">
+        <v>-1.324960876365741</v>
+      </c>
+      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251225</v>
+        <v>250894</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:47:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 08:04:56</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 08:04:56</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 10:28:21</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>44262</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2480,78 +2423,73 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251227</v>
+        <v>244354</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>60.70422535211268</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 10:28:21</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 11:00:21</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 11:00:21</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 12:01:03</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4310</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2560,78 +2498,70 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1</v>
+        <v>-4.500733568078704</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251782</v>
+        <v>251485</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>170.0422535211268</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 12:01:03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 12:18:03</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 12:18:03</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-12 13:25:46</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12073</v>
+        <v>4808</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2640,78 +2570,70 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
-      </c>
-      <c r="N29" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S29" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1</v>
+        <v>-19.55956572769676</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>243569</v>
+        <v>244023</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>36.63380281690141</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-12 13:25:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:56:02</t>
+          <t>2025-05-12 13:42:46</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:56:02</t>
+          <t>2025-05-12 13:42:46</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 08:32:40</t>
+          <t>2025-05-12 13:56:49</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2601</v>
+        <v>997</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2720,14 +2642,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2737,56 +2659,53 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-235.3560250391204</v>
-      </c>
-      <c r="S30" s="1" t="n">
-        <v>-235.3560250391204</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2</v>
+        <v>-224.581122848206</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251340</v>
+        <v>251283</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>461.9718309859155</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:32:40</t>
+          <t>2025-05-12 13:56:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:49:40</t>
+          <t>2025-05-12 14:11:49</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:49:40</t>
+          <t>2025-05-12 14:11:49</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:38</t>
+          <t>2025-05-12 14:22:26</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>32800</v>
+        <v>754</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2795,14 +2714,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2812,56 +2731,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-14.3553110328588</v>
-      </c>
-      <c r="S31" s="1" t="n">
-        <v>-14.3553110328588</v>
-      </c>
-      <c r="T31" t="n">
-        <v>4</v>
+        <v>-55.59891431924768</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>245623</v>
+        <v>251455</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>372.0985915492957</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:38</t>
+          <t>2025-05-12 14:22:26</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-12 09:01:38</t>
+          <t>2025-05-12 14:41:26</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-12 09:01:38</t>
+          <t>2025-05-12 14:41:26</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:13:44</t>
+          <t>2025-05-13 07:56:02</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>26419</v>
+        <v>5297</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2870,73 +2786,75 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>152</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N32" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-108.3012128325463</v>
-      </c>
-      <c r="S32" s="1" t="n">
-        <v>-108.3012128325463</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2</v>
+        <v>-6.330584898275463</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>243335</v>
+        <v>251061</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>464.8450704225352</v>
+        <v>337.9859154929578</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 07:13:44</t>
+          <t>2025-05-13 07:56:02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:44</t>
+          <t>2025-05-13 08:15:02</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:44</t>
+          <t>2025-05-13 08:15:02</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-14 07:17:35</t>
+          <t>2025-05-13 13:53:01</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>33004</v>
+        <v>23997</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2945,14 +2863,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2962,56 +2880,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-285.3038830203473</v>
-      </c>
-      <c r="S33" s="1" t="n">
-        <v>-285.3038830203473</v>
-      </c>
-      <c r="T33" t="n">
+        <v>-8.578491784039352</v>
+      </c>
+      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251750</v>
+        <v>251260</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>54.80281690140845</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-14 07:17:35</t>
+          <t>2025-05-13 13:53:01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:35</t>
+          <t>2025-05-13 14:08:01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:35</t>
+          <t>2025-05-13 14:08:01</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-14 08:29:23</t>
+          <t>2025-05-14 08:19:59</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3891</v>
+        <v>9369</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3020,14 +2935,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3037,56 +2952,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
+      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251987</v>
+        <v>251795</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>2965.154929577465</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-14 08:29:23</t>
+          <t>2025-05-14 08:19:59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-14 09:05:23</t>
+          <t>2025-05-14 08:34:59</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-14 09:05:23</t>
+          <t>2025-05-14 08:34:59</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-22 10:30:32</t>
+          <t>2025-05-14 12:58:54</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>210526</v>
+        <v>18739</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3095,14 +3007,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
         <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3112,56 +3024,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>250759</v>
+        <v>251284</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D36" t="n">
-        <v>118.2816901408451</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:16</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>8398</v>
+        <v>16340</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3170,14 +3079,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N36" t="n">
         <v>39747</v>
@@ -3192,56 +3101,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S36" s="1" t="n">
-        <v>-0.3870011737037037</v>
-      </c>
-      <c r="T36" t="n">
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>250894</v>
+        <v>251397</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>38.5</v>
       </c>
       <c r="D37" t="n">
-        <v>623.4084507042254</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:16</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-08 09:34:16</t>
+          <t>2025-05-09 13:16:05</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-08 09:34:16</t>
+          <t>2025-05-09 13:16:05</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:41</t>
+          <t>2025-05-09 14:54:54</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>44262</v>
+        <v>5435</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3250,17 +3156,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3270,56 +3173,53 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
+        <v>-11.62146464646991</v>
+      </c>
+      <c r="S37" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251547</v>
+        <v>251505</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>34.5</v>
       </c>
       <c r="D38" t="n">
-        <v>184.9154929577465</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:41</t>
+          <t>2025-05-09 14:54:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:41</t>
+          <t>2025-05-12 07:29:24</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:41</t>
+          <t>2025-05-12 07:29:24</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:36</t>
+          <t>2025-05-12 11:48:35</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>13129</v>
+        <v>14255</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3332,74 +3232,66 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-5.315698356805556</v>
-      </c>
-      <c r="S38" s="1" t="n">
-        <v>-5.315698356805556</v>
-      </c>
-      <c r="T38" t="n">
+        <v>-7.492077020196759</v>
+      </c>
+      <c r="S38" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>235572</v>
+        <v>251475</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D39" t="n">
-        <v>140.2535211267606</v>
+        <v>157.8363636363636</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:36</t>
+          <t>2025-05-12 11:48:35</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:36</t>
+          <t>2025-05-12 12:21:05</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:36</t>
+          <t>2025-05-12 12:21:05</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 10:11:51</t>
+          <t>2025-05-12 14:58:55</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>9958</v>
+        <v>8681</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3408,11 +3300,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3425,56 +3317,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-553.4249021909259</v>
-      </c>
-      <c r="S39" s="1" t="n">
-        <v>-553.4249021909259</v>
-      </c>
-      <c r="T39" t="n">
+        <v>-12.62425505050926</v>
+      </c>
+      <c r="S39" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251475</v>
+        <v>251761</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="D40" t="n">
-        <v>122.2676056338028</v>
+        <v>241.4363636363636</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:11:51</t>
+          <t>2025-05-12 14:58:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:51</t>
+          <t>2025-05-13 07:29:25</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:51</t>
+          <t>2025-05-13 07:29:25</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 12:31:07</t>
+          <t>2025-05-13 11:30:51</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>8681</v>
+        <v>13279</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3500,56 +3389,53 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-12.52161580594907</v>
-      </c>
-      <c r="S40" s="1" t="n">
-        <v>-12.52161580594907</v>
-      </c>
-      <c r="T40" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251809</v>
+        <v>251520</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D41" t="n">
-        <v>122.2676056338028</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:31:07</t>
+          <t>2025-05-13 11:30:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:07</t>
+          <t>2025-05-13 12:07:21</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:07</t>
+          <t>2025-05-13 12:07:21</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:23</t>
+          <t>2025-05-14 09:04:27</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>8681</v>
+        <v>16340</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3558,11 +3444,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3575,56 +3461,53 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>4</v>
+        <v>-2.378093434340278</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251259</v>
+        <v>251840</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
-        <v>70.4225352112676</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:23</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-13 07:13:23</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-13 07:13:23</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 08:23:49</t>
+          <t>2025-05-08 09:08:40</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5000</v>
+        <v>5714</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3637,69 +3520,71 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
+      <c r="N42" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-7.349872848206019</v>
-      </c>
-      <c r="S42" s="1" t="n">
-        <v>-7.349872848206019</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2</v>
+        <v>-0.3810223132986111</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251466</v>
+        <v>251229</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>78.40845070422536</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-13 08:23:49</t>
+          <t>2025-05-08 09:08:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:49</t>
+          <t>2025-05-08 09:33:40</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:49</t>
+          <t>2025-05-08 09:33:40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-13 10:09:13</t>
+          <t>2025-05-08 14:40:52</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5567</v>
+        <v>18739</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3708,73 +3593,77 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-4.423073161192129</v>
-      </c>
-      <c r="S43" s="1" t="n">
-        <v>-4.423073161192129</v>
-      </c>
-      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251465</v>
+        <v>251626</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>87.69014084507042</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-13 10:09:13</t>
+          <t>2025-05-08 14:40:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-13 10:26:13</t>
+          <t>2025-05-09 07:15:52</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-13 10:26:13</t>
+          <t>2025-05-09 07:15:52</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-13 11:53:54</t>
+          <t>2025-05-09 10:40:47</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6226</v>
+        <v>12500</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3787,7 +3676,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3800,56 +3689,53 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-4.495774647881944</v>
-      </c>
-      <c r="S44" s="1" t="n">
-        <v>-4.495774647881944</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1</v>
+        <v>-9.444990892534722</v>
+      </c>
+      <c r="S44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251557</v>
+        <v>251846</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>94.43661971830986</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-13 11:53:54</t>
+          <t>2025-05-09 10:40:47</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:54</t>
+          <t>2025-05-09 11:05:47</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:54</t>
+          <t>2025-05-09 11:05:47</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-13 13:43:21</t>
+          <t>2025-05-09 14:12:32</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6705</v>
+        <v>11392</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3875,56 +3761,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1</v>
+      <c r="S45" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251062</v>
+        <v>251424</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>318.6478873239437</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-13 13:43:21</t>
+          <t>2025-05-09 14:12:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-13 14:06:21</t>
+          <t>2025-05-09 14:42:32</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-13 14:06:21</t>
+          <t>2025-05-09 14:42:32</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:00</t>
+          <t>2025-05-12 09:20:56</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>22624</v>
+        <v>9662</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3933,11 +3816,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3950,56 +3833,53 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1</v>
+        <v>-14.38953779599537</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>244204</v>
+        <v>251594</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>56.91803278688525</v>
+        <v>106</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 09:20:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 09:40:56</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 09:40:56</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:55</t>
+          <t>2025-05-12 11:26:56</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3472</v>
+        <v>6466</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4025,16 +3905,13 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.580293715844907</v>
-      </c>
-      <c r="S47" s="1" t="n">
-        <v>-1.360359744988426</v>
-      </c>
-      <c r="T47" t="n">
+        <v>-5.47703779599537</v>
+      </c>
+      <c r="S47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4044,33 +3921,33 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D48" t="n">
         <v>63.26229508196721</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:55</t>
+          <t>2025-05-12 11:26:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-09 09:11:55</t>
+          <t>2025-05-12 12:06:56</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-09 09:11:55</t>
+          <t>2025-05-12 12:06:56</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-09 10:15:10</t>
+          <t>2025-05-12 13:10:11</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4104,52 +3981,49 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-11.42720856101852</v>
-      </c>
-      <c r="S48" s="1" t="n">
-        <v>-11.42720856101852</v>
-      </c>
-      <c r="T48" t="n">
+        <v>-14.54874772313658</v>
+      </c>
+      <c r="S48" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>244023</v>
+        <v>251245</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>16.34426229508197</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-09 10:15:10</t>
+          <t>2025-05-12 13:10:11</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-09 10:44:10</t>
+          <t>2025-05-12 13:40:11</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-09 10:44:10</t>
+          <t>2025-05-12 13:40:11</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-09 11:00:31</t>
+          <t>2025-05-12 13:52:33</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>997</v>
+        <v>754</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4158,7 +4032,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -4175,56 +4049,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-221.4586976320602</v>
-      </c>
-      <c r="S49" s="1" t="n">
-        <v>-221.4586976320602</v>
-      </c>
-      <c r="T49" t="n">
+        <v>-45.57816484517361</v>
+      </c>
+      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251651</v>
+        <v>251742</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>767.7049180327868</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-09 11:00:31</t>
+          <t>2025-05-12 13:52:33</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-09 11:42:31</t>
+          <t>2025-05-12 14:22:33</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-09 11:42:31</t>
+          <t>2025-05-12 14:22:33</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:13</t>
+          <t>2025-05-13 08:37:24</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>46830</v>
+        <v>8226</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4233,76 +4104,75 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N50" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.3543260473611111</v>
-      </c>
-      <c r="S50" s="1" t="n">
-        <v>-0.3543260473611111</v>
-      </c>
-      <c r="T50" t="n">
-        <v>4</v>
+        <v>-6.359312386157408</v>
+      </c>
+      <c r="S50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251283</v>
+        <v>251466</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>12.36065573770492</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:13</t>
+          <t>2025-05-13 08:37:24</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:13</t>
+          <t>2025-05-13 09:02:24</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:13</t>
+          <t>2025-05-13 09:02:24</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:35</t>
+          <t>2025-05-13 10:33:40</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>754</v>
+        <v>5567</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4311,11 +4181,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4328,56 +4198,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-56.39207650273148</v>
-      </c>
-      <c r="S51" s="1" t="n">
-        <v>-56.39207650273148</v>
-      </c>
-      <c r="T51" t="n">
+        <v>-4.440050091076388</v>
+      </c>
+      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251464</v>
+        <v>251465</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D52" t="n">
-        <v>117.2622950819672</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:35</t>
+          <t>2025-05-13 10:33:40</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-13 09:53:35</t>
+          <t>2025-05-13 10:58:40</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-13 09:53:35</t>
+          <t>2025-05-13 10:58:40</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 11:50:51</t>
+          <t>2025-05-13 12:40:44</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>7153</v>
+        <v>6226</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4390,7 +4257,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4407,52 +4274,49 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-4.493647540983796</v>
-      </c>
-      <c r="S52" s="1" t="n">
-        <v>-4.493647540983796</v>
-      </c>
-      <c r="T52" t="n">
+        <v>-4.528290072858796</v>
+      </c>
+      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251467</v>
+        <v>251580</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>102.0655737704918</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-13 11:50:51</t>
+          <t>2025-05-13 12:40:44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:51</t>
+          <t>2025-05-13 13:10:44</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:51</t>
+          <t>2025-05-13 13:10:44</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:55</t>
+          <t>2025-05-14 07:08:00</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6226</v>
+        <v>7153</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4465,7 +4329,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4478,56 +4342,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-4.584665300543981</v>
-      </c>
-      <c r="S53" s="1" t="n">
-        <v>-4.584665300543981</v>
-      </c>
-      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251260</v>
+        <v>251062</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>153.5901639344262</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:55</t>
+          <t>2025-05-14 07:08:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:34:55</t>
+          <t>2025-05-14 07:38:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 14:34:55</t>
+          <t>2025-05-14 07:38:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-14 09:08:30</t>
+          <t>2025-05-14 13:48:53</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>9369</v>
+        <v>22624</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4536,7 +4397,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -4553,56 +4414,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
+      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251249</v>
+        <v>250923</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D55" t="n">
-        <v>78</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-14 09:08:30</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-14 09:33:30</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-14 09:33:30</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 10:51:30</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>4758</v>
+        <v>7006</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4611,73 +4469,75 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N55" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1</v>
+        <v>-1.583108372453704</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>245090</v>
+        <v>251227</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>8470.786885245901</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 10:51:30</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:30</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:30</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-09 08:44:17</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>516718</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4690,69 +4550,71 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
         <v>76</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
+      <c r="N56" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
+        <v>-2.594913928009259</v>
+      </c>
+      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250641</v>
+        <v>243569</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>74.14492753623189</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-08 14:33:40</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-08 14:33:40</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:59:08</t>
+          <t>2025-05-09 07:10:18</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5116</v>
+        <v>2601</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4761,14 +4623,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4778,56 +4640,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-15.36771336554398</v>
-      </c>
-      <c r="S57" s="1" t="n">
-        <v>-14.37440619967592</v>
-      </c>
-      <c r="T57" t="n">
+        <v>-235.2988262910764</v>
+      </c>
+      <c r="S57" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251246</v>
+        <v>251340</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>173.9420289855072</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 08:59:08</t>
+          <t>2025-05-09 07:10:18</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 09:24:08</t>
+          <t>2025-05-09 07:27:18</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 09:24:08</t>
+          <t>2025-05-09 07:27:18</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 12:18:05</t>
+          <t>2025-05-12 07:09:16</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>12002</v>
+        <v>32800</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4836,14 +4695,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4853,56 +4712,53 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-3.512560386469908</v>
-      </c>
-      <c r="S58" s="1" t="n">
-        <v>-3.512560386469908</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1</v>
+        <v>-14.29811228481481</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>245350</v>
+        <v>245623</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>405.3623188405797</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 12:18:05</t>
+          <t>2025-05-12 07:09:16</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-12 13:03:05</t>
+          <t>2025-05-12 07:39:16</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-12 13:03:05</t>
+          <t>2025-05-12 07:39:16</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 11:48:26</t>
+          <t>2025-05-12 13:51:22</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>27970</v>
+        <v>26419</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4911,14 +4767,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4928,56 +4784,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>7</v>
+        <v>-107.5773474178357</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251580</v>
+        <v>250670</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D60" t="n">
-        <v>103.6666666666667</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 11:48:26</t>
+          <t>2025-05-12 13:51:22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 12:43:26</t>
+          <t>2025-05-12 14:25:22</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 12:43:26</t>
+          <t>2025-05-12 14:25:22</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:06</t>
+          <t>2025-05-12 14:47:23</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>7153</v>
+        <v>1563</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4986,14 +4839,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>4</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -5003,56 +4856,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1</v>
+        <v>-7.616246087638889</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251252</v>
+        <v>243335</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>218.5942028985507</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:06</t>
+          <t>2025-05-12 14:47:23</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:06</t>
+          <t>2025-05-13 07:17:23</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:06</t>
+          <t>2025-05-13 07:17:23</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-14 10:40:42</t>
+          <t>2025-05-14 07:02:14</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>15083</v>
+        <v>33004</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5061,14 +4911,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5078,56 +4928,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
+        <v>-285.2932218309838</v>
+      </c>
+      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>245089</v>
+        <v>251750</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>1777.753623188406</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-14 10:40:42</t>
+          <t>2025-05-14 07:02:14</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-14 11:20:42</t>
+          <t>2025-05-14 07:19:14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-14 11:20:42</t>
+          <t>2025-05-14 07:19:14</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-20 08:58:27</t>
+          <t>2025-05-14 08:14:02</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>122665</v>
+        <v>3891</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5140,10 +4987,10 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5153,56 +5000,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" t="n">
+      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251284</v>
+        <v>251987</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40.5</v>
+        <v>36</v>
       </c>
       <c r="D63" t="n">
-        <v>297.0909090909091</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 08:14:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 08:50:02</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 08:50:02</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-22 10:15:11</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>16340</v>
+        <v>210526</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5211,78 +5055,70 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
-      </c>
-      <c r="N63" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S63" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251397</v>
+        <v>251416</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>38.5</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>98.81818181818181</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:16:05</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 13:16:05</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:54</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5435</v>
+        <v>11222</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5295,11 +5131,14 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
+      <c r="N64" t="n">
+        <v>39755</v>
+      </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
@@ -5308,56 +5147,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-11.62146464646991</v>
-      </c>
-      <c r="S64" s="1" t="n">
-        <v>-11.62146464646991</v>
-      </c>
-      <c r="T64" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251505</v>
+        <v>251564</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>259.1818181818182</v>
+        <v>55.44897959183673</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:54</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:24</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:24</t>
+          <t>2025-05-08 12:04:01</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:35</t>
+          <t>2025-05-08 12:59:28</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>14255</v>
+        <v>2717</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5370,7 +5206,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5383,56 +5219,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-7.492077020196759</v>
-      </c>
-      <c r="S65" s="1" t="n">
-        <v>-7.492077020196759</v>
-      </c>
-      <c r="T65" t="n">
-        <v>7</v>
+        <v>-1.5412981859375</v>
+      </c>
+      <c r="S65" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>244354</v>
+        <v>251561</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>78.36363636363636</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:35</t>
+          <t>2025-05-08 12:59:28</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:05</t>
+          <t>2025-05-08 13:44:28</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:05</t>
+          <t>2025-05-08 13:44:28</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:39:27</t>
+          <t>2025-05-09 07:35:23</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>4310</v>
+        <v>5435</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5445,7 +5278,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5458,56 +5291,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.5690656565625</v>
-      </c>
-      <c r="S66" s="1" t="n">
-        <v>-4.5690656565625</v>
-      </c>
-      <c r="T66" t="n">
-        <v>4</v>
+        <v>-2.316241496597222</v>
+      </c>
+      <c r="S66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>250819</v>
+        <v>251566</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="D67" t="n">
-        <v>155.0363636363636</v>
+        <v>140.5918367346939</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 13:39:27</t>
+          <t>2025-05-09 07:35:23</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:57</t>
+          <t>2025-05-09 08:15:23</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:57</t>
+          <t>2025-05-09 08:15:23</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:59</t>
+          <t>2025-05-09 10:35:58</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>8527</v>
+        <v>6889</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5520,7 +5350,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5533,56 +5363,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-25.36735479797454</v>
-      </c>
-      <c r="S67" s="1" t="n">
-        <v>-25.36735479797454</v>
-      </c>
-      <c r="T67" t="n">
-        <v>2</v>
+        <v>-2.441652494328704</v>
+      </c>
+      <c r="S67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251247</v>
+        <v>251546</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
-        <v>489.7090909090909</v>
+        <v>131.9591836734694</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:59</t>
+          <t>2025-05-09 10:35:58</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:19:29</t>
+          <t>2025-05-09 11:15:58</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:19:29</t>
+          <t>2025-05-09 11:15:58</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 09:29:12</t>
+          <t>2025-05-09 13:27:56</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>26934</v>
+        <v>6466</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5591,11 +5418,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5608,56 +5435,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-5.395277777777777</v>
-      </c>
-      <c r="S68" s="1" t="n">
-        <v>-5.395277777777777</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1</v>
+        <v>-9.561068594108797</v>
+      </c>
+      <c r="S68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251795</v>
+        <v>251373</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>340.7090909090909</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:29:12</t>
+          <t>2025-05-09 13:27:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:59:42</t>
+          <t>2025-05-09 14:02:56</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:59:42</t>
+          <t>2025-05-09 14:02:56</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-15 07:40:24</t>
+          <t>2025-05-12 11:51:47</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>18739</v>
+        <v>17094</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5666,11 +5490,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5683,56 +5507,53 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1</v>
+        <v>-14.49430272108796</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251391</v>
+        <v>244355</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>91.640625</v>
+        <v>87.95918367346938</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-12 11:51:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-12 12:31:47</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-12 12:31:47</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-07 08:52:38</t>
+          <t>2025-05-12 13:59:45</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5865</v>
+        <v>4310</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5745,74 +5566,66 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="N70" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-0.4377821180555556</v>
-      </c>
-      <c r="S70" s="1" t="n">
-        <v>-0.3698893229166667</v>
-      </c>
-      <c r="T70" t="n">
-        <v>7</v>
+        <v>-4.583163265300926</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251395</v>
+        <v>250641</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D71" t="n">
-        <v>35.34375</v>
+        <v>104.4081632653061</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-07 08:52:38</t>
+          <t>2025-05-12 13:59:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-07 09:09:38</t>
+          <t>2025-05-12 14:44:45</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-07 09:09:38</t>
+          <t>2025-05-12 14:44:45</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:59</t>
+          <t>2025-05-13 08:29:09</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2262</v>
+        <v>5116</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5830,69 +5643,61 @@
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-0.4062391493055555</v>
-      </c>
-      <c r="S71" s="1" t="n">
-        <v>-0.4062391493055555</v>
-      </c>
-      <c r="T71" t="n">
-        <v>7</v>
+        <v>-15.35358560090278</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251371</v>
+        <v>251464</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-07 09:44:59</t>
+          <t>2025-05-13 08:29:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-05-13 09:14:09</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-05-13 09:14:09</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-05-13 11:40:08</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>7153</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5910,71 +5715,61 @@
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-13.41943359375</v>
-      </c>
-      <c r="S72" s="1" t="n">
-        <v>-13.41943359375</v>
-      </c>
-      <c r="T72" t="n">
-        <v>7</v>
+        <v>-4.486210317465278</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251455</v>
+        <v>251374</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D73" t="n">
-        <v>82.765625</v>
+        <v>558.0204081632653</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-07 10:03:59</t>
+          <t>2025-05-13 11:40:08</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:59</t>
+          <t>2025-05-13 12:30:08</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:59</t>
+          <t>2025-05-13 12:30:08</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-14 13:48:09</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5297</v>
+        <v>27343</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5983,78 +5778,70 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="N73" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-0.4873263888888889</v>
-      </c>
-      <c r="S73" s="1" t="n">
-        <v>-0.4873263888888889</v>
-      </c>
-      <c r="T73" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251396</v>
+        <v>251809</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D74" t="n">
-        <v>35.34375</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 09:49:16</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2262</v>
+        <v>8681</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6067,74 +5854,66 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="N74" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S74" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="T74" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251548</v>
+        <v>251050</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="D75" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 09:49:16</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 13:14:16</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 13:14:16</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 13:14:16</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6143,17 +5922,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
       <c r="N75" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6161,60 +5940,57 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S75" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="T75" t="n">
-        <v>7</v>
+        <v>-1.551574726134259</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>250923</v>
+        <v>251054</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 13:14:16</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 13:49:16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-09 13:49:16</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 13:49:16</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6223,17 +5999,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M76" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N76" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6241,60 +6017,57 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="S76" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="T76" t="n">
+        <v>-1.575880281689815</v>
+      </c>
+      <c r="S76" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251477</v>
+        <v>251081</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D77" t="n">
-        <v>468.734375</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 13:49:16</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-12 07:54:16</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-12 07:54:16</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-12 08:36:41</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>29999</v>
+        <v>3012</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6303,17 +6076,19 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M77" t="n">
-        <v>76</v>
-      </c>
-      <c r="N77" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6321,60 +6096,57 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>39760</v>
+        <v>39750</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="S77" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1</v>
+        <v>-19.3588125978125</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251564</v>
+        <v>245275</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D78" t="n">
-        <v>42.453125</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-12 08:36:41</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-12 09:41:41</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-12 09:41:41</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-13 07:23:51</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2717</v>
+        <v>24294</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6383,11 +6155,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6400,56 +6172,53 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-2.5025390625</v>
-      </c>
-      <c r="S78" s="1" t="n">
-        <v>-2.5025390625</v>
-      </c>
-      <c r="T78" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251546</v>
+        <v>251109</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
-        <v>101.03125</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-13 07:23:51</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-13 08:08:51</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-13 08:08:51</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-13 12:35:27</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>6466</v>
+        <v>18928</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6458,11 +6227,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6475,56 +6244,53 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-9.585894097222223</v>
-      </c>
-      <c r="S79" s="1" t="n">
-        <v>-9.585894097222223</v>
-      </c>
-      <c r="T79" t="n">
-        <v>7</v>
+        <v>-25.52461854460648</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>245275</v>
+        <v>251252</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D80" t="n">
-        <v>379.59375</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:41</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 14:36:41</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:16</t>
+          <t>2025-05-12 11:23:35</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>24294</v>
+        <v>15083</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6533,11 +6299,11 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
@@ -6550,56 +6316,53 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S80" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T80" t="n">
-        <v>7</v>
+      <c r="S80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251743</v>
+        <v>245350</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>168.375</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:16</t>
+          <t>2025-05-12 11:23:35</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:16</t>
+          <t>2025-05-12 12:08:35</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-12 13:31:16</t>
+          <t>2025-05-12 12:08:35</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:39</t>
+          <t>2025-05-13 10:53:57</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>10776</v>
+        <v>27970</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6608,11 +6371,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6625,56 +6388,53 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T81" t="n">
-        <v>4</v>
+      <c r="S81" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251245</v>
+        <v>251259</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
-        <v>11.78125</v>
+        <v>72.46376811594203</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:39</t>
+          <t>2025-05-13 10:53:57</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:39</t>
+          <t>2025-05-13 11:23:57</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-13 08:38:39</t>
+          <t>2025-05-13 11:23:57</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:26</t>
+          <t>2025-05-13 12:36:25</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>754</v>
+        <v>5000</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6683,11 +6443,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6700,17 +6460,14 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-46.368359375</v>
-      </c>
-      <c r="S82" s="1" t="n">
-        <v>-46.368359375</v>
-      </c>
-      <c r="T82" t="n">
-        <v>1</v>
+        <v>-7.525291867951389</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -6719,33 +6476,33 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
-        <v>108.859375</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-13 08:50:26</t>
+          <t>2025-05-13 12:36:25</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-13 09:09:26</t>
+          <t>2025-05-13 13:26:25</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-13 09:09:26</t>
+          <t>2025-05-13 13:26:25</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:17</t>
+          <t>2025-05-14 07:07:23</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6779,12 +6536,9 @@
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-4.457150607638889</v>
-      </c>
-      <c r="S83" s="1" t="n">
-        <v>-4.457150607638889</v>
-      </c>
-      <c r="T83" t="n">
+        <v>-5.296799516909722</v>
+      </c>
+      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6794,33 +6548,33 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D84" t="n">
-        <v>97.28125</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:17</t>
+          <t>2025-05-14 07:07:23</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:17</t>
+          <t>2025-05-14 07:42:23</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-13 11:17:17</t>
+          <t>2025-05-14 07:42:23</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:34</t>
+          <t>2025-05-14 09:12:37</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -6854,52 +6608,49 @@
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-4.537901475694444</v>
-      </c>
-      <c r="S84" s="1" t="n">
-        <v>-4.537901475694444</v>
-      </c>
-      <c r="T84" t="n">
+        <v>-5.383766103055556</v>
+      </c>
+      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251562</v>
+        <v>251557</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D85" t="n">
-        <v>127.21875</v>
+        <v>97.17391304347827</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-13 12:54:34</t>
+          <t>2025-05-14 09:12:37</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:34</t>
+          <t>2025-05-14 09:37:37</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-13 13:09:34</t>
+          <t>2025-05-14 09:37:37</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:47</t>
+          <t>2025-05-14 11:14:47</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>8142</v>
+        <v>6705</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6931,50 +6682,47 @@
       <c r="R85" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" t="n">
+      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251251</v>
+        <v>245089</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D86" t="n">
-        <v>247.8125</v>
+        <v>1777.753623188406</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:16:47</t>
+          <t>2025-05-14 11:14:47</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:39:47</t>
+          <t>2025-05-14 11:54:47</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:39:47</t>
+          <t>2025-05-14 11:54:47</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:47:36</t>
+          <t>2025-05-20 09:32:33</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>15860</v>
+        <v>122665</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6983,14 +6731,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7000,16 +6748,13 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
+      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251391</v>
+        <v>251395</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>91.640625</v>
+        <v>35.34375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:31:15</t>
+          <t>2025-05-07 10:29:15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:31:15</t>
+          <t>2025-05-07 10:29:15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:02:53</t>
+          <t>2025-05-07 11:04:35</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5865</v>
+        <v>2262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5020073784722222</v>
+        <v>-0.4615234375</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251395</v>
+        <v>251396</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,29 +756,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>35.34375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:02:53</t>
+          <t>2025-05-07 11:04:35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:19:53</t>
+          <t>2025-05-07 11:19:35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:19:53</t>
+          <t>2025-05-07 11:19:35</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:14</t>
+          <t>2025-05-07 11:54:56</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -813,11 +813,11 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5383572048611112</v>
+        <v>-0.496484375</v>
       </c>
       <c r="S5" t="n">
         <v>7</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251396</v>
+        <v>251391</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>91.640625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:14</t>
+          <t>2025-05-07 11:54:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:10:14</t>
+          <t>2025-05-07 12:11:56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:10:14</t>
+          <t>2025-05-07 12:11:56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:45:34</t>
+          <t>2025-05-07 13:43:34</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>5865</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -890,11 +890,11 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5733181423611111</v>
+        <v>-0.5719292534722222</v>
       </c>
       <c r="S6" t="n">
         <v>7</v>
@@ -910,29 +910,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
         <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:45:34</t>
+          <t>2025-05-07 13:43:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:04:34</t>
+          <t>2025-05-07 14:00:34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:04:34</t>
+          <t>2025-05-07 14:00:34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:31:29</t>
+          <t>2025-05-08 09:27:29</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.396864149305556</v>
+        <v>-1.394086371527778</v>
       </c>
       <c r="S7" t="n">
         <v>7</v>
@@ -994,22 +994,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:31:29</t>
+          <t>2025-05-08 09:27:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:03:29</t>
+          <t>2025-05-08 09:59:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:03:29</t>
+          <t>2025-05-08 09:59:29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:52:13</t>
+          <t>2025-05-09 09:48:13</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.411263020833333</v>
+        <v>-2.408485243055555</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1071,22 +1071,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 09:52:13</t>
+          <t>2025-05-09 09:48:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:07:13</t>
+          <t>2025-05-09 10:03:13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:07:13</t>
+          <t>2025-05-09 10:03:13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:15:51</t>
+          <t>2025-05-09 13:11:51</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5526801215277778</v>
+        <v>-0.54990234375</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1148,22 +1148,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:15:51</t>
+          <t>2025-05-09 13:11:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:47:51</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:47:51</t>
+          <t>2025-05-09 13:43:51</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 09:13:43</t>
+          <t>2025-05-12 09:09:43</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1220,22 +1220,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 09:13:43</t>
+          <t>2025-05-12 09:09:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:43</t>
+          <t>2025-05-12 09:30:43</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:43</t>
+          <t>2025-05-12 09:30:43</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:18</t>
+          <t>2025-05-12 12:06:18</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-553.5071614583334</v>
+        <v>-553.5043836805555</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1292,22 +1292,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:18</t>
+          <t>2025-05-12 12:06:18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:18</t>
+          <t>2025-05-12 12:23:18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:18</t>
+          <t>2025-05-12 12:23:18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:21:33</t>
+          <t>2025-05-12 13:17:33</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-4.556640625</v>
+        <v>-4.553862847222222</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -1364,22 +1364,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 13:21:33</t>
+          <t>2025-05-12 13:17:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:33</t>
+          <t>2025-05-12 13:36:33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:33</t>
+          <t>2025-05-12 13:36:33</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 07:53:47</t>
+          <t>2025-05-13 07:49:47</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-25.32902560763889</v>
+        <v>-25.32624782986111</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251246</v>
+        <v>251761</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1429,14 +1429,14 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>187.53125</v>
+        <v>207.484375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 07:53:47</t>
+          <t>2025-05-13 07:49:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1451,11 +1451,11 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:19</t>
+          <t>2025-05-13 11:36:16</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>12002</v>
+        <v>13279</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1464,11 +1464,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1481,14 +1481,14 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-4.469672309027778</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1501,29 +1501,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
         <v>97.28125</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-13 11:16:19</t>
+          <t>2025-05-13 11:36:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 11:39:19</t>
+          <t>2025-05-13 11:55:16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 11:39:19</t>
+          <t>2025-05-13 11:55:16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 13:16:36</t>
+          <t>2025-05-13 13:32:33</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-4.553200954861111</v>
+        <v>-4.564279513888889</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1580,22 +1580,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 13:16:36</t>
+          <t>2025-05-13 13:32:33</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 13:31:36</t>
+          <t>2025-05-13 13:47:33</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 13:31:36</t>
+          <t>2025-05-13 13:47:33</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:49</t>
+          <t>2025-05-14 07:54:46</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1652,22 +1652,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:49</t>
+          <t>2025-05-14 07:54:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-14 08:01:49</t>
+          <t>2025-05-14 08:17:46</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-14 08:01:49</t>
+          <t>2025-05-14 08:17:46</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:38</t>
+          <t>2025-05-14 12:25:35</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1709,41 +1709,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251743</v>
+        <v>245089</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>176.655737704918</v>
+        <v>1916.640625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 12:25:35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-14 12:59:35</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-14 12:59:35</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:38:39</t>
+          <t>2025-05-20 12:56:14</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>10776</v>
+        <v>122665</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1752,14 +1752,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1769,19 +1769,19 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251247</v>
+        <v>251743</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1789,33 +1789,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
-        <v>441.5409836065574</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:42:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:42:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>2025-05-09 10:38:39</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:07:39</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:07:39</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-05-12 10:29:11</t>
-        </is>
-      </c>
       <c r="I19" t="n">
-        <v>26934</v>
+        <v>10776</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1824,11 +1824,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1841,19 +1841,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-3.436942167581019</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251249</v>
+        <v>244023</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1861,33 +1861,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12 10:29:11</t>
+          <t>2025-05-09 10:38:39</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:11</t>
+          <t>2025-05-09 11:07:39</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:11</t>
+          <t>2025-05-09 11:07:39</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:11</t>
+          <t>2025-05-09 11:24:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4758</v>
+        <v>997</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1913,11 +1913,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-221.475</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -1940,22 +1940,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:11</t>
+          <t>2025-05-09 11:24:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:11</t>
+          <t>2025-05-09 12:06:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:11</t>
+          <t>2025-05-09 12:06:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 09:41:54</t>
+          <t>2025-05-13 08:53:42</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.404098360659722</v>
+        <v>-0.3706284153009259</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>245090</v>
+        <v>251246</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2008,33 +2008,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>8470.786885245901</v>
+        <v>196.7540983606557</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 09:41:54</t>
+          <t>2025-05-13 08:53:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 10:06:54</t>
+          <t>2025-05-13 09:35:42</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 10:06:54</t>
+          <t>2025-05-13 09:35:42</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:17:41</t>
+          <t>2025-05-13 12:52:27</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>516718</v>
+        <v>12002</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2043,14 +2043,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2060,11 +2060,11 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-4.5364298725</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2072,41 +2072,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251225</v>
+        <v>251374</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 12:52:27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-13 13:19:27</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-13 13:19:27</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-14 12:47:42</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>27343</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2115,33 +2115,28 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.3048611111111111</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -2149,41 +2144,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251456</v>
+        <v>245090</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D24" t="n">
-        <v>126.7464788732394</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-14 12:47:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:51:00</t>
+          <t>2025-05-14 13:31:42</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:51:00</t>
+          <t>2025-05-14 13:31:42</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:57:44</t>
+          <t>2025-06-09 10:42:29</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8999</v>
+        <v>516718</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2192,33 +2187,28 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-2.415101721435185</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -2226,7 +2216,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251547</v>
+        <v>251225</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2234,33 +2224,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:57:44</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:44</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:44</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 13:19:39</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2269,17 +2259,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2287,18 +2277,18 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.555320813773148</v>
+        <v>-0.3048611111111111</v>
       </c>
       <c r="S25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2311,29 +2301,29 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
         <v>118.2816901408451</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:19:39</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:49:39</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:49:39</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:56</t>
+          <t>2025-05-08 09:32:16</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2372,7 +2362,7 @@
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.324960876365741</v>
+        <v>-0.3974178403703704</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -2395,22 +2385,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:56</t>
+          <t>2025-05-08 09:32:16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 08:04:56</t>
+          <t>2025-05-08 09:49:16</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 08:04:56</t>
+          <t>2025-05-08 09:49:16</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:21</t>
+          <t>2025-05-09 12:12:41</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2455,7 +2445,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>244354</v>
+        <v>251456</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2463,33 +2453,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>60.70422535211268</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:21</t>
+          <t>2025-05-09 12:12:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:21</t>
+          <t>2025-05-09 12:46:41</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-12 11:00:21</t>
+          <t>2025-05-09 12:46:41</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 12:01:03</t>
+          <t>2025-05-09 14:53:26</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4310</v>
+        <v>8999</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2502,32 +2492,37 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="N28" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-4.500733568078704</v>
+        <v>-3.620442097025463</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251485</v>
+        <v>251455</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2538,30 +2533,30 @@
         <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>67.71830985915493</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-12 12:01:03</t>
+          <t>2025-05-09 14:53:26</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 12:18:03</t>
+          <t>2025-05-12 07:10:26</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 12:18:03</t>
+          <t>2025-05-12 07:10:26</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:46</t>
+          <t>2025-05-12 08:25:02</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4808</v>
+        <v>5297</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2574,32 +2569,37 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-19.55956572769676</v>
+        <v>-5.350723787164352</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>244023</v>
+        <v>251547</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2607,33 +2607,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>14.04225352112676</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 13:25:46</t>
+          <t>2025-05-12 08:25:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 13:42:46</t>
+          <t>2025-05-12 08:40:02</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 13:42:46</t>
+          <t>2025-05-12 08:40:02</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 13:56:49</t>
+          <t>2025-05-12 11:44:57</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>997</v>
+        <v>13129</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2646,32 +2646,37 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
+      <c r="N30" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-224.581122848206</v>
+        <v>-5.489553990613426</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251283</v>
+        <v>244354</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2682,30 +2687,30 @@
         <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>10.61971830985915</v>
+        <v>60.70422535211268</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 13:56:49</t>
+          <t>2025-05-12 11:44:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:11:49</t>
+          <t>2025-05-12 11:59:57</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:11:49</t>
+          <t>2025-05-12 11:59:57</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:26</t>
+          <t>2025-05-12 13:00:39</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>754</v>
+        <v>4310</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2714,11 +2719,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2731,19 +2736,19 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-55.59891431924768</v>
+        <v>-4.542126369328704</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251455</v>
+        <v>251485</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2751,33 +2756,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>74.6056338028169</v>
+        <v>67.71830985915493</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:26</t>
+          <t>2025-05-12 13:00:39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:26</t>
+          <t>2025-05-12 13:17:39</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:41:26</t>
+          <t>2025-05-12 13:17:39</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:56:02</t>
+          <t>2025-05-12 14:25:22</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5297</v>
+        <v>4808</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2790,37 +2795,32 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="N32" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-6.330584898275463</v>
+        <v>-19.60095852894676</v>
       </c>
       <c r="S32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251061</v>
+        <v>251259</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2828,33 +2828,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>337.9859154929578</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 07:56:02</t>
+          <t>2025-05-12 14:25:22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:02</t>
+          <t>2025-05-12 14:48:22</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:02</t>
+          <t>2025-05-12 14:48:22</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:01</t>
+          <t>2025-05-13 07:58:48</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>23997</v>
+        <v>5000</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2863,11 +2863,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2880,19 +2880,19 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-8.578491784039352</v>
+        <v>-7.332501956180556</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251260</v>
+        <v>251061</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2900,33 +2900,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D34" t="n">
-        <v>131.9577464788732</v>
+        <v>337.9859154929578</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-13 13:53:01</t>
+          <t>2025-05-13 07:58:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:01</t>
+          <t>2025-05-13 08:19:48</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:01</t>
+          <t>2025-05-13 08:19:48</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:59</t>
+          <t>2025-05-13 13:57:47</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>9369</v>
+        <v>23997</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -2952,11 +2952,11 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-8.581797730833333</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251795</v>
+        <v>251260</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2975,30 +2975,30 @@
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>263.9295774647887</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:59</t>
+          <t>2025-05-13 13:57:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:59</t>
+          <t>2025-05-13 14:12:47</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:59</t>
+          <t>2025-05-13 14:12:47</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-14 12:58:54</t>
+          <t>2025-05-14 08:24:44</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>18739</v>
+        <v>9369</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3036,41 +3036,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251284</v>
+        <v>251795</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>297.0909090909091</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 08:24:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 08:39:44</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 08:39:44</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-14 13:03:40</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>16340</v>
+        <v>18739</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3079,33 +3079,28 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="N36" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -3113,7 +3108,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251397</v>
+        <v>251284</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3121,33 +3116,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="D37" t="n">
-        <v>98.81818181818181</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:40:30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:40:30</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>2025-05-09 12:37:35</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:16:05</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:16:05</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-05-09 14:54:54</t>
-        </is>
-      </c>
       <c r="I37" t="n">
-        <v>5435</v>
+        <v>16340</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3156,36 +3151,41 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
+      <c r="N37" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-11.62146464646991</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251505</v>
+        <v>245275</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3193,33 +3193,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34.5</v>
+        <v>44.5</v>
       </c>
       <c r="D38" t="n">
-        <v>259.1818181818182</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:54</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:24</t>
+          <t>2025-05-09 13:22:05</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:24</t>
+          <t>2025-05-09 13:22:05</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:35</t>
+          <t>2025-05-12 12:43:48</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>14255</v>
+        <v>24294</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3228,11 +3228,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3245,11 +3245,11 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-7.492077020196759</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>7</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251475</v>
+        <v>251846</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3265,33 +3265,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>32.5</v>
+        <v>54.5</v>
       </c>
       <c r="D39" t="n">
-        <v>157.8363636363636</v>
+        <v>207.1272727272727</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:35</t>
+          <t>2025-05-12 12:43:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:05</t>
+          <t>2025-05-12 13:38:18</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:05</t>
+          <t>2025-05-12 13:38:18</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:55</t>
+          <t>2025-05-13 09:05:25</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>8681</v>
+        <v>11392</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3317,19 +3317,19 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-12.62425505050926</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251761</v>
+        <v>251463</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3337,33 +3337,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30.5</v>
+        <v>34.5</v>
       </c>
       <c r="D40" t="n">
-        <v>241.4363636363636</v>
+        <v>126.6727272727273</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 14:58:55</t>
+          <t>2025-05-13 09:05:25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:29:25</t>
+          <t>2025-05-13 09:39:55</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:29:25</t>
+          <t>2025-05-13 09:39:55</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:51</t>
+          <t>2025-05-13 11:46:36</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>13279</v>
+        <v>6967</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3389,14 +3389,14 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-4.490694444444444</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3416,22 +3416,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:51</t>
+          <t>2025-05-13 11:46:36</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:07:21</t>
+          <t>2025-05-13 12:23:06</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:07:21</t>
+          <t>2025-05-13 12:23:06</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-14 09:04:27</t>
+          <t>2025-05-14 09:20:11</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-2.378093434340278</v>
+        <v>-2.389021464641203</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251840</v>
+        <v>251742</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3481,10 +3481,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>93.67213114754098</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3493,21 +3493,21 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-08 09:08:40</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5714</v>
+        <v>8226</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3520,13 +3520,13 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
       <c r="N42" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3534,23 +3534,23 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-0.3810223132986111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251229</v>
+        <v>251840</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3561,30 +3561,30 @@
         <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>307.1967213114754</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-08 09:08:40</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-08 09:33:40</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-08 09:33:40</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-08 14:40:52</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>18739</v>
+        <v>5714</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3593,19 +3593,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N43" t="n">
+        <v>39758</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3613,15 +3611,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>39723</v>
+        <v>39758</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -3637,29 +3635,29 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
         <v>204.9180327868852</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-08 14:40:52</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:15:52</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:15:52</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-09 10:40:47</t>
+          <t>2025-05-09 07:38:26</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3693,7 +3691,7 @@
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-9.444990892534722</v>
+        <v>-9.318362932604167</v>
       </c>
       <c r="S44" t="n">
         <v>7</v>
@@ -3701,7 +3699,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251846</v>
+        <v>251229</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3709,33 +3707,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
-        <v>186.7540983606557</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:40:47</t>
+          <t>2025-05-09 07:38:26</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:05:47</t>
+          <t>2025-05-09 08:13:26</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:05:47</t>
+          <t>2025-05-09 08:13:26</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 14:12:32</t>
+          <t>2025-05-09 13:20:38</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>11392</v>
+        <v>18739</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3744,36 +3742,43 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251424</v>
+        <v>251373</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3781,33 +3786,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>158.3934426229508</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 14:12:32</t>
+          <t>2025-05-09 13:20:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:32</t>
+          <t>2025-05-09 13:45:38</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:32</t>
+          <t>2025-05-09 13:45:38</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 09:20:56</t>
+          <t>2025-05-12 10:25:52</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>9662</v>
+        <v>17094</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3820,7 +3825,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3837,7 +3842,7 @@
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-14.38953779599537</v>
+        <v>-14.4346311475463</v>
       </c>
       <c r="S46" t="n">
         <v>4</v>
@@ -3845,7 +3850,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251594</v>
+        <v>251475</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3853,33 +3858,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>106</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 09:20:56</t>
+          <t>2025-05-12 10:25:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 09:40:56</t>
+          <t>2025-05-12 10:50:52</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 09:40:56</t>
+          <t>2025-05-12 10:50:52</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:26:56</t>
+          <t>2025-05-12 13:13:10</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>6466</v>
+        <v>8681</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3905,11 +3910,11 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-5.47703779599537</v>
+        <v>-12.55081967212963</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -3917,7 +3922,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251346</v>
+        <v>251809</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3925,33 +3930,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>63.26229508196721</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:26:56</t>
+          <t>2025-05-12 13:13:10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:56</t>
+          <t>2025-05-12 13:33:10</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:56</t>
+          <t>2025-05-12 13:33:10</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:11</t>
+          <t>2025-05-13 07:55:29</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3859</v>
+        <v>8681</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3964,7 +3969,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -3977,19 +3982,19 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-14.54874772313658</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251245</v>
+        <v>251283</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4004,22 +4009,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:10:11</t>
+          <t>2025-05-13 07:55:29</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:11</t>
+          <t>2025-05-13 08:25:29</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:11</t>
+          <t>2025-05-13 08:25:29</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:33</t>
+          <t>2025-05-13 08:37:51</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4049,11 +4054,11 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-45.57816484517361</v>
+        <v>-56.35961976320601</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4061,7 +4066,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251742</v>
+        <v>251247</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4069,33 +4074,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>134.8524590163935</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:33</t>
+          <t>2025-05-13 08:37:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:33</t>
+          <t>2025-05-13 08:57:51</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:33</t>
+          <t>2025-05-13 08:57:51</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:24</t>
+          <t>2025-05-14 08:19:23</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>8226</v>
+        <v>26934</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4104,41 +4109,36 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-6.359312386157408</v>
+        <v>-5.34680100181713</v>
       </c>
       <c r="S50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251466</v>
+        <v>251249</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4146,33 +4146,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>91.26229508196721</v>
+        <v>78</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:24</t>
+          <t>2025-05-14 08:19:23</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:24</t>
+          <t>2025-05-14 08:39:23</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:02:24</t>
+          <t>2025-05-14 08:39:23</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:33:40</t>
+          <t>2025-05-14 09:57:23</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>5567</v>
+        <v>4758</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4181,11 +4181,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4198,11 +4198,11 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-4.440050091076388</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
         <v>1</v>
@@ -4210,41 +4210,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251465</v>
+        <v>251227</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D52" t="n">
-        <v>102.0655737704918</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-13 10:33:40</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:40</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:40</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 12:40:44</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4253,28 +4253,33 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N52" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-4.528290072858796</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="S52" t="n">
         <v>1</v>
@@ -4282,41 +4287,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251580</v>
+        <v>250923</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>117.2622950819672</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-13 12:40:44</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:44</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:44</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-14 07:08:00</t>
+          <t>2025-05-08 14:14:40</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>7153</v>
+        <v>7006</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4325,70 +4330,75 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-1.59352503912037</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251062</v>
+        <v>243569</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>370.8852459016393</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-14 07:08:00</t>
+          <t>2025-05-08 14:14:40</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:00</t>
+          <t>2025-05-08 14:33:40</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:00</t>
+          <t>2025-05-08 14:33:40</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-14 13:48:53</t>
+          <t>2025-05-09 07:10:18</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>22624</v>
+        <v>2601</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4397,14 +4407,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4414,19 +4424,19 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-235.2988262910764</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>250923</v>
+        <v>251340</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4434,33 +4444,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>98.67605633802818</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:10:18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-09 07:27:18</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-05-09 07:27:18</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:40</t>
+          <t>2025-05-12 07:09:16</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>7006</v>
+        <v>32800</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4469,41 +4479,36 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>76</v>
       </c>
-      <c r="N55" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-1.583108372453704</v>
+        <v>-14.29811228481481</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251227</v>
+        <v>245623</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4511,33 +4516,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:40</t>
+          <t>2025-05-12 07:09:16</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-05-12 07:39:16</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-05-12 07:39:16</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-05-12 13:51:22</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>26419</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4550,37 +4555,32 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
-      </c>
-      <c r="N56" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-2.594913928009259</v>
+        <v>-107.5773474178357</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>243569</v>
+        <v>250670</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4588,33 +4588,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
-        <v>36.63380281690141</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-05-12 13:51:22</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-08 14:33:40</t>
+          <t>2025-05-12 14:25:22</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-08 14:33:40</t>
+          <t>2025-05-12 14:25:22</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:18</t>
+          <t>2025-05-12 14:47:23</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2601</v>
+        <v>1563</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>76</v>
@@ -4640,11 +4640,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-235.2988262910764</v>
+        <v>-7.616246087638889</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251340</v>
+        <v>243335</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4660,33 +4660,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
-        <v>461.9718309859155</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:18</t>
+          <t>2025-05-12 14:47:23</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:18</t>
+          <t>2025-05-13 07:17:23</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:18</t>
+          <t>2025-05-13 07:17:23</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:09:16</t>
+          <t>2025-05-14 07:02:14</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>32800</v>
+        <v>33004</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4695,14 +4695,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4712,19 +4712,19 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-14.29811228481481</v>
+        <v>-285.2932218309838</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>245623</v>
+        <v>251750</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4732,33 +4732,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>372.0985915492957</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 07:09:16</t>
+          <t>2025-05-14 07:02:14</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-12 07:39:16</t>
+          <t>2025-05-14 07:19:14</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-12 07:39:16</t>
+          <t>2025-05-14 07:19:14</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:22</t>
+          <t>2025-05-14 08:14:02</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>26419</v>
+        <v>3891</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
         <v>152</v>
@@ -4784,19 +4784,19 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-107.5773474178357</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>250670</v>
+        <v>251987</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4804,33 +4804,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D60" t="n">
-        <v>22.01408450704225</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:22</t>
+          <t>2025-05-14 08:14:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:22</t>
+          <t>2025-05-14 08:50:02</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:22</t>
+          <t>2025-05-14 08:50:02</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:23</t>
+          <t>2025-05-22 10:15:11</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1563</v>
+        <v>210526</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
         <v>76</v>
@@ -4856,53 +4856,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-7.616246087638889</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>243335</v>
+        <v>251561</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>464.8450704225352</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:23</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:23</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:23</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:14</t>
+          <t>2025-05-08 09:40:55</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>33004</v>
+        <v>5435</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4911,14 +4911,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4928,53 +4928,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-285.2932218309838</v>
+        <v>-1.403415532881944</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251750</v>
+        <v>251564</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>54.80281690140845</v>
+        <v>55.44897959183673</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:14</t>
+          <t>2025-05-08 09:40:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-14 07:19:14</t>
+          <t>2025-05-08 10:25:55</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-14 07:19:14</t>
+          <t>2025-05-08 10:25:55</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-14 08:14:02</t>
+          <t>2025-05-08 11:21:22</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3891</v>
+        <v>2717</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4983,14 +4983,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5000,53 +5000,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-1.473171768703704</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251987</v>
+        <v>251566</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>2965.154929577465</v>
+        <v>140.5918367346939</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-14 08:14:02</t>
+          <t>2025-05-08 11:21:22</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-14 08:50:02</t>
+          <t>2025-05-08 12:01:22</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-14 08:50:02</t>
+          <t>2025-05-08 12:01:22</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-22 10:15:11</t>
+          <t>2025-05-08 14:21:57</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>210526</v>
+        <v>6889</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5055,14 +5055,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5072,19 +5072,19 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-1.598582766435185</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251416</v>
+        <v>251546</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5092,33 +5092,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>229.0204081632653</v>
+        <v>131.9591836734694</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 14:21:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:01:57</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:01:57</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-09 09:13:55</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>11222</v>
+        <v>6466</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5131,14 +5131,11 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="N64" t="n">
-        <v>39755</v>
-      </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
@@ -5147,19 +5144,19 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-9.384665532881945</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251564</v>
+        <v>251424</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5170,30 +5167,30 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>55.44897959183673</v>
+        <v>197.1836734693877</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-09 09:13:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-09 09:53:55</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-08 12:04:01</t>
+          <t>2025-05-09 09:53:55</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-08 12:59:28</t>
+          <t>2025-05-09 13:11:06</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2717</v>
+        <v>9662</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5206,7 +5203,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5219,19 +5216,19 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-1.5412981859375</v>
+        <v>-11.5493764172338</v>
       </c>
       <c r="S65" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251561</v>
+        <v>251397</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5239,29 +5236,29 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D66" t="n">
         <v>110.9183673469388</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-08 12:59:28</t>
+          <t>2025-05-09 13:11:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:28</t>
+          <t>2025-05-09 13:51:06</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:28</t>
+          <t>2025-05-09 13:51:06</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-09 07:35:23</t>
+          <t>2025-05-12 07:42:01</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5278,7 +5275,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5291,19 +5288,19 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-2.316241496597222</v>
+        <v>-14.3208475056713</v>
       </c>
       <c r="S66" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251566</v>
+        <v>251416</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5314,30 +5311,30 @@
         <v>40</v>
       </c>
       <c r="D67" t="n">
-        <v>140.5918367346939</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-09 07:35:23</t>
+          <t>2025-05-12 07:42:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-09 08:15:23</t>
+          <t>2025-05-12 08:22:01</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-09 08:15:23</t>
+          <t>2025-05-12 08:22:01</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-09 10:35:58</t>
+          <t>2025-05-12 12:11:02</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>6889</v>
+        <v>11222</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5350,11 +5347,14 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
+      <c r="N67" t="n">
+        <v>39755</v>
+      </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
@@ -5363,19 +5363,19 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-2.441652494328704</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251546</v>
+        <v>244355</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5383,33 +5383,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>131.9591836734694</v>
+        <v>87.95918367346938</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-09 10:35:58</t>
+          <t>2025-05-12 12:11:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-09 11:15:58</t>
+          <t>2025-05-12 12:56:02</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-09 11:15:58</t>
+          <t>2025-05-12 12:56:02</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:56</t>
+          <t>2025-05-12 14:24:00</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6466</v>
+        <v>4310</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5435,19 +5435,19 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-9.561068594108797</v>
+        <v>-4.6</v>
       </c>
       <c r="S68" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251373</v>
+        <v>251346</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5455,33 +5455,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D69" t="n">
-        <v>348.8571428571428</v>
+        <v>78.75510204081633</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:56</t>
+          <t>2025-05-12 14:24:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-09 14:02:56</t>
+          <t>2025-05-13 07:19:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-09 14:02:56</t>
+          <t>2025-05-13 07:19:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-12 11:51:47</t>
+          <t>2025-05-13 08:37:45</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>17094</v>
+        <v>3859</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5511,15 +5511,15 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-14.49430272108796</v>
+        <v>-15.35955215418982</v>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>244355</v>
+        <v>251245</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5527,33 +5527,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>87.95918367346938</v>
+        <v>15.38775510204082</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-12 11:51:47</t>
+          <t>2025-05-13 08:37:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:31:47</t>
+          <t>2025-05-13 09:22:45</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:31:47</t>
+          <t>2025-05-13 09:22:45</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:45</t>
+          <t>2025-05-13 09:38:08</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>4310</v>
+        <v>754</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5562,11 +5562,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5579,19 +5579,19 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-4.583163265300926</v>
+        <v>-46.40148809524305</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250641</v>
+        <v>251464</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5602,30 +5602,30 @@
         <v>45</v>
       </c>
       <c r="D71" t="n">
-        <v>104.4081632653061</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:45</t>
+          <t>2025-05-13 09:38:08</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:45</t>
+          <t>2025-05-13 10:23:08</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:45</t>
+          <t>2025-05-13 10:23:08</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:09</t>
+          <t>2025-05-13 12:49:07</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>5116</v>
+        <v>7153</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5651,19 +5651,19 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-15.35358560090278</v>
+        <v>-4.534112811793982</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251464</v>
+        <v>251580</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5671,29 +5671,29 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
         <v>145.9795918367347</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:09</t>
+          <t>2025-05-13 12:49:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:09</t>
+          <t>2025-05-13 13:24:07</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 09:14:09</t>
+          <t>2025-05-13 13:24:07</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:08</t>
+          <t>2025-05-14 07:50:06</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5723,11 +5723,11 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-4.486210317465278</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251374</v>
+        <v>251252</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5743,33 +5743,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D73" t="n">
-        <v>558.0204081632653</v>
+        <v>307.8163265306122</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:08</t>
+          <t>2025-05-14 07:50:06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:08</t>
+          <t>2025-05-14 08:35:06</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:08</t>
+          <t>2025-05-14 08:35:06</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 13:48:09</t>
+          <t>2025-05-14 13:42:55</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>27343</v>
+        <v>15083</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5807,7 +5807,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251809</v>
+        <v>251081</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5815,10 +5815,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D74" t="n">
-        <v>122.2676056338028</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -5827,21 +5827,21 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:16</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>8681</v>
+        <v>3012</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5850,31 +5850,38 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
+        <v>-16.40932120501157</v>
       </c>
       <c r="S74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -5887,29 +5894,29 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:16</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:16</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:16</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:16</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -5948,7 +5955,7 @@
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-1.551574726134259</v>
+        <v>-1.49612676056713</v>
       </c>
       <c r="S75" t="n">
         <v>2</v>
@@ -5971,22 +5978,22 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:16</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 13:49:16</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 13:49:16</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-09 13:49:16</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6025,7 +6032,7 @@
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-1.575880281689815</v>
+        <v>-1.520432316122685</v>
       </c>
       <c r="S76" t="n">
         <v>2</v>
@@ -6033,7 +6040,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251081</v>
+        <v>251594</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6041,33 +6048,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="D77" t="n">
-        <v>42.42253521126761</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-09 13:49:16</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 07:54:16</t>
+          <t>2025-05-12 07:54:25</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 07:54:16</t>
+          <t>2025-05-12 07:54:25</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:41</t>
+          <t>2025-05-12 09:25:29</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3012</v>
+        <v>6466</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6076,43 +6083,36 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-19.3588125978125</v>
+        <v>-5.392703442881944</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>245275</v>
+        <v>251505</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6120,33 +6120,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D78" t="n">
-        <v>342.1690140845071</v>
+        <v>200.7746478873239</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:41</t>
+          <t>2025-05-12 09:25:29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 09:41:41</t>
+          <t>2025-05-12 10:05:29</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 09:41:41</t>
+          <t>2025-05-12 10:05:29</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:51</t>
+          <t>2025-05-12 13:26:16</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>24294</v>
+        <v>14255</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6155,11 +6155,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6172,11 +6172,11 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>0</v>
+        <v>-7.559908059467593</v>
       </c>
       <c r="S78" t="n">
         <v>7</v>
@@ -6192,29 +6192,29 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D79" t="n">
         <v>266.5915492957747</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 07:23:51</t>
+          <t>2025-05-12 13:26:16</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:08:51</t>
+          <t>2025-05-12 14:56:16</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:08:51</t>
+          <t>2025-05-12 14:56:16</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 12:35:27</t>
+          <t>2025-05-13 11:22:51</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-25.52461854460648</v>
+        <v>-25.47420774648148</v>
       </c>
       <c r="S79" t="n">
         <v>2</v>
@@ -6256,41 +6256,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251252</v>
+        <v>251462</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D80" t="n">
-        <v>218.5942028985507</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 11:22:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-13 13:07:51</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-13 13:07:51</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:35</t>
+          <t>2025-05-13 14:35:32</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>15083</v>
+        <v>6226</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6299,11 +6299,11 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
@@ -6316,11 +6316,11 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
+        <v>-4.608020344282407</v>
       </c>
       <c r="S80" t="n">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>245350</v>
+        <v>250641</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6339,30 +6339,30 @@
         <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>405.3623188405797</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:35</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-12 12:08:35</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-12 12:08:35</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-13 10:53:57</t>
+          <t>2025-05-12 08:59:08</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>27970</v>
+        <v>5116</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6371,11 +6371,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6388,19 +6388,19 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
+        <v>-14.37440619967592</v>
       </c>
       <c r="S81" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251259</v>
+        <v>251466</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6408,33 +6408,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>72.46376811594203</v>
+        <v>80.68115942028986</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-13 10:53:57</t>
+          <t>2025-05-12 08:59:08</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-13 11:23:57</t>
+          <t>2025-05-12 09:39:08</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-13 11:23:57</t>
+          <t>2025-05-12 09:39:08</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-13 12:36:25</t>
+          <t>2025-05-12 10:59:49</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>5000</v>
+        <v>5567</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6460,19 +6460,19 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-7.525291867951389</v>
+        <v>-3.458212560381945</v>
       </c>
       <c r="S82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251463</v>
+        <v>251465</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6480,33 +6480,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
-        <v>100.9710144927536</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-13 12:36:25</t>
+          <t>2025-05-12 10:59:49</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-13 13:26:25</t>
+          <t>2025-05-12 11:29:49</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-13 13:26:25</t>
+          <t>2025-05-12 11:29:49</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-14 07:07:23</t>
+          <t>2025-05-12 13:00:03</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>6967</v>
+        <v>6226</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-5.296799516909722</v>
+        <v>-3.54170692431713</v>
       </c>
       <c r="S83" t="n">
         <v>1</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251462</v>
+        <v>251557</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6552,33 +6552,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>90.23188405797102</v>
+        <v>97.17391304347827</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-14 07:07:23</t>
+          <t>2025-05-12 13:00:03</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-14 07:42:23</t>
+          <t>2025-05-12 13:25:03</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-14 07:42:23</t>
+          <t>2025-05-12 13:25:03</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-14 09:12:37</t>
+          <t>2025-05-13 07:02:13</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>6226</v>
+        <v>6705</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6604,11 +6604,11 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-5.383766103055556</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
         <v>1</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251557</v>
+        <v>245350</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6624,33 +6624,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D85" t="n">
-        <v>97.17391304347827</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:12:37</t>
+          <t>2025-05-13 07:02:13</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:37:37</t>
+          <t>2025-05-13 08:07:13</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-14 09:37:37</t>
+          <t>2025-05-13 08:07:13</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-14 11:14:47</t>
+          <t>2025-05-13 14:52:35</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>6705</v>
+        <v>27970</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6659,11 +6659,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6676,19 +6676,19 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>245089</v>
+        <v>251062</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6696,33 +6696,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
-        <v>1777.753623188406</v>
+        <v>327.8840579710145</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:14:47</t>
+          <t>2025-05-13 14:52:35</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:47</t>
+          <t>2025-05-14 07:37:35</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:47</t>
+          <t>2025-05-14 07:37:35</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-20 09:32:33</t>
+          <t>2025-05-14 13:05:28</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>122665</v>
+        <v>22624</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6731,14 +6731,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251371</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,19 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,23 +576,23 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39666</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-13.30486111111111</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251164</v>
+        <v>251943</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -602,33 +600,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>156.25</v>
+        <v>92.234375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:38:00</t>
+          <t>2025-06-05 14:57:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:38:00</t>
+          <t>2025-06-05 14:57:30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:14:15</t>
+          <t>2025-06-06 08:29:44</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>5903</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -641,37 +639,32 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4265625</v>
+        <v>-7.353982204861111</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251395</v>
+        <v>251935</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -682,30 +675,30 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>35.34375</v>
+        <v>104.515625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:14:15</t>
+          <t>2025-06-06 08:29:44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:29:15</t>
+          <t>2025-06-06 08:44:44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:29:15</t>
+          <t>2025-06-06 08:44:44</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 11:04:35</t>
+          <t>2025-06-06 10:29:15</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2262</v>
+        <v>6689</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,37 +711,32 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4615234375</v>
+        <v>-1.436979166666667</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251396</v>
+        <v>251519</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,33 +744,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>35.34375</v>
+        <v>205.859375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:04:35</t>
+          <t>2025-06-06 10:29:15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:19:35</t>
+          <t>2025-06-06 10:48:15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:19:35</t>
+          <t>2025-06-06 10:48:15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:54:56</t>
+          <t>2025-06-06 14:14:06</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2262</v>
+        <v>13175</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -795,29 +783,24 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.496484375</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>7</v>
@@ -825,7 +808,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251391</v>
+        <v>251993</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +816,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>91.640625</v>
+        <v>189.890625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:54:56</t>
+          <t>2025-06-06 14:14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:11:56</t>
+          <t>2025-06-06 14:33:06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:11:56</t>
+          <t>2025-06-06 14:33:06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:43:34</t>
+          <t>2025-06-09 09:43:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5865</v>
+        <v>12153</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,37 +855,32 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5719292534722222</v>
+        <v>-0.4048611111111111</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>251905</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +888,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>216.265625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:43:34</t>
+          <t>2025-06-09 09:43:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:00:34</t>
+          <t>2025-06-09 10:17:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:00:34</t>
+          <t>2025-06-09 10:17:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:27:29</t>
+          <t>2025-06-09 13:53:15</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>13841</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,41 +923,36 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.394086371527778</v>
+        <v>-12.57865668402778</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251477</v>
+        <v>252337</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -987,33 +960,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>468.734375</v>
+        <v>1488.09375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:27:29</t>
+          <t>2025-06-09 13:53:15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:29</t>
+          <t>2025-06-09 14:23:15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:29</t>
+          <t>2025-06-09 14:23:15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:48:13</t>
+          <t>2025-06-13 07:11:21</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>29999</v>
+        <v>95238</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,75 +995,70 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-07-02 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.408485243055555</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251782</v>
+        <v>251879</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>188.640625</v>
+        <v>98.47540983606558</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 09:48:13</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:03:13</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:03:13</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:51</t>
+          <t>2025-06-05 09:18:28</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12073</v>
+        <v>6007</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,75 +1067,70 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
-      </c>
-      <c r="N9" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.54990234375</v>
+        <v>-6.387830145717593</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251519</v>
+        <v>251445</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>205.859375</v>
+        <v>445.4754098360656</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:51</t>
+          <t>2025-06-05 09:18:28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:43:51</t>
+          <t>2025-06-05 09:43:28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 13:43:51</t>
+          <t>2025-06-05 09:43:28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:43</t>
+          <t>2025-06-06 09:08:57</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13175</v>
+        <v>27174</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1180,7 +1143,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1193,11 +1156,11 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-2.381215846990741</v>
       </c>
       <c r="S10" t="n">
         <v>7</v>
@@ -1205,41 +1168,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>235572</v>
+        <v>251897</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>155.59375</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:43</t>
+          <t>2025-06-06 09:08:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 09:30:43</t>
+          <t>2025-06-06 09:47:57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 09:30:43</t>
+          <t>2025-06-06 09:47:57</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:18</t>
+          <t>2025-06-06 14:52:59</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>9958</v>
+        <v>18607</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1252,24 +1215,31 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-553.5043836805555</v>
+        <v>-11.62012750454861</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1277,41 +1247,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>244204</v>
+        <v>251747</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>54.25</v>
+        <v>255.016393442623</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:18</t>
+          <t>2025-06-06 14:52:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:23:18</t>
+          <t>2025-06-09 07:31:59</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:23:18</t>
+          <t>2025-06-09 07:31:59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:33</t>
+          <t>2025-06-09 11:47:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3472</v>
+        <v>15556</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1324,7 +1294,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1337,11 +1307,11 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-4.553862847222222</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -1349,41 +1319,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250819</v>
+        <v>252042</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>133.234375</v>
+        <v>125.9672131147541</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:33</t>
+          <t>2025-06-09 11:47:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:33</t>
+          <t>2025-06-09 12:14:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 13:36:33</t>
+          <t>2025-06-09 12:14:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:47</t>
+          <t>2025-06-09 14:19:58</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8527</v>
+        <v>7684</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1396,7 +1366,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1409,11 +1379,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-25.32624782986111</v>
+        <v>-10.59719945355324</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
@@ -1421,41 +1391,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251761</v>
+        <v>243335</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>207.484375</v>
+        <v>541.0491803278688</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:47</t>
+          <t>2025-06-09 14:19:58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 08:08:47</t>
+          <t>2025-06-10 07:03:58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 08:08:47</t>
+          <t>2025-06-10 07:03:58</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:36:16</t>
+          <t>2025-06-11 08:05:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>13279</v>
+        <v>33004</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1464,14 +1434,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1481,53 +1451,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-313.3368169398959</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251467</v>
+        <v>252110</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D15" t="n">
-        <v>97.28125</v>
+        <v>105.0819672131148</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-13 11:36:16</t>
+          <t>2025-06-11 08:05:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 11:55:16</t>
+          <t>2025-06-11 08:47:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 11:55:16</t>
+          <t>2025-06-11 08:47:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:33</t>
+          <t>2025-06-11 10:32:05</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6226</v>
+        <v>6410</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1540,7 +1510,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1553,11 +1523,11 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-4.564279513888889</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1565,41 +1535,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251562</v>
+        <v>252121</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>127.21875</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 13:32:33</t>
+          <t>2025-06-11 10:32:05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 13:47:33</t>
+          <t>2025-06-11 10:59:05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 13:47:33</t>
+          <t>2025-06-11 10:59:05</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-14 07:54:46</t>
+          <t>2025-06-11 14:23:14</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8142</v>
+        <v>12453</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1625,7 +1595,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1637,41 +1607,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251251</v>
+        <v>252325</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>247.8125</v>
+        <v>296.7213114754098</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-14 07:54:46</t>
+          <t>2025-06-11 14:23:14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-14 08:17:46</t>
+          <t>2025-06-11 14:56:14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-14 08:17:46</t>
+          <t>2025-06-11 14:56:14</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-14 12:25:35</t>
+          <t>2025-06-12 11:52:58</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>15860</v>
+        <v>18100</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1697,7 +1667,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1709,41 +1679,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>245089</v>
+        <v>251752</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>1916.640625</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-14 12:25:35</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-14 12:59:35</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-14 12:59:35</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-20 12:56:14</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1752,28 +1722,33 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>76</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="n">
+        <v>39846</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39846</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1781,41 +1756,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251743</v>
+        <v>251218</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>176.655737704918</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 10:38:39</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>10776</v>
+        <v>6880</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1824,70 +1799,75 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>244023</v>
+        <v>251565</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D20" t="n">
-        <v>16.34426229508197</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-09 10:38:39</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-09 11:07:39</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-09 11:07:39</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 11:24:00</t>
+          <t>2025-06-05 09:49:38</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>997</v>
+        <v>12549</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1900,24 +1880,29 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="N20" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-221.475</v>
+        <v>-0.409477699525463</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -1925,41 +1910,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251651</v>
+        <v>251500</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>767.7049180327868</v>
+        <v>139.3802816901408</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-09 11:24:00</t>
+          <t>2025-06-05 09:49:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 12:06:00</t>
+          <t>2025-06-05 10:08:38</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 12:06:00</t>
+          <t>2025-06-05 10:08:38</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-13 08:53:42</t>
+          <t>2025-06-05 12:28:01</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>46830</v>
+        <v>9896</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1968,73 +1953,75 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.3706284153009259</v>
+        <v>-0.5194640062615741</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251246</v>
+        <v>251910</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>196.7540983606557</v>
+        <v>186.5070422535211</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-13 08:53:42</t>
+          <t>2025-06-05 12:28:01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-13 09:35:42</t>
+          <t>2025-06-05 12:43:01</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-13 09:35:42</t>
+          <t>2025-06-05 12:43:01</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:27</t>
+          <t>2025-06-06 07:49:32</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12002</v>
+        <v>13242</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2043,11 +2030,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2060,53 +2047,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-4.5364298725</v>
+        <v>-9.326066118935184</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251374</v>
+        <v>251390</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>448.2459016393443</v>
+        <v>30.35211267605634</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:27</t>
+          <t>2025-06-06 07:49:32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-13 13:19:27</t>
+          <t>2025-06-06 08:04:32</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-13 13:19:27</t>
+          <t>2025-06-06 08:04:32</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-14 12:47:42</t>
+          <t>2025-06-06 08:34:53</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>27343</v>
+        <v>2155</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2115,11 +2102,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2132,53 +2119,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>245090</v>
+        <v>252058</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>8470.786885245901</v>
+        <v>74.64788732394366</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-14 12:47:42</t>
+          <t>2025-06-06 08:34:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-14 13:31:42</t>
+          <t>2025-06-06 08:51:53</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-14 13:31:42</t>
+          <t>2025-06-06 08:51:53</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-09 10:42:29</t>
+          <t>2025-06-06 10:06:32</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>516718</v>
+        <v>5300</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2187,14 +2174,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2204,19 +2191,19 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251225</v>
+        <v>252156</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2224,33 +2211,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>723.5211267605633</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-06 10:06:32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-06 10:21:32</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-06 10:21:32</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-09 14:25:03</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>51370</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2259,41 +2246,36 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.3048611111111111</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>250759</v>
+        <v>244023</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2301,33 +2283,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>118.2816901408451</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-09 14:25:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-09 14:42:03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-09 14:42:03</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 09:32:16</t>
+          <t>2025-06-09 14:56:05</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8398</v>
+        <v>997</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2336,33 +2318,28 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.3974178403703704</v>
+        <v>-252.6222906885764</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -2370,7 +2347,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>250894</v>
+        <v>251186</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2378,33 +2355,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>623.4084507042254</v>
+        <v>359.3239436619718</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 09:32:16</t>
+          <t>2025-06-09 14:56:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:16</t>
+          <t>2025-06-10 07:15:05</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:16</t>
+          <t>2025-06-10 07:15:05</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:12:41</t>
+          <t>2025-06-10 13:14:25</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>44262</v>
+        <v>25512</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2413,17 +2390,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2433,19 +2407,19 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-11.55168231612268</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251456</v>
+        <v>251916</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2453,33 +2427,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>126.7464788732394</v>
+        <v>660.2112676056338</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 12:12:41</t>
+          <t>2025-06-10 13:14:25</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 12:46:41</t>
+          <t>2025-06-10 13:29:25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 12:46:41</t>
+          <t>2025-06-10 13:29:25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-09 14:53:26</t>
+          <t>2025-06-12 08:29:38</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8999</v>
+        <v>46875</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2492,29 +2466,24 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="N28" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-3.620442097025463</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -2522,7 +2491,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251455</v>
+        <v>251681</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2533,30 +2502,30 @@
         <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>74.6056338028169</v>
+        <v>56.12676056338028</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 14:53:26</t>
+          <t>2025-06-12 08:29:38</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:26</t>
+          <t>2025-06-12 08:46:38</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:10:26</t>
+          <t>2025-06-12 08:46:38</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 08:25:02</t>
+          <t>2025-06-12 09:42:45</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5297</v>
+        <v>3985</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2569,37 +2538,32 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-5.350723787164352</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251547</v>
+        <v>252293</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2610,30 +2574,30 @@
         <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>184.9154929577465</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 08:25:02</t>
+          <t>2025-06-12 09:42:45</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 08:40:02</t>
+          <t>2025-06-12 09:57:45</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 08:40:02</t>
+          <t>2025-06-12 09:57:45</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:57</t>
+          <t>2025-06-12 10:30:01</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>13129</v>
+        <v>2291</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2646,71 +2610,66 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-5.489553990613426</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>244354</v>
+        <v>251070</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D31" t="n">
-        <v>60.70422535211268</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:57</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 11:59:57</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 11:59:57</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 13:00:39</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4310</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2719,70 +2678,75 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
+      <c r="N31" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-4.542126369328704</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251485</v>
+        <v>251773</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D32" t="n">
-        <v>67.71830985915493</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 13:00:39</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:39</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-12 13:17:39</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:22</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4808</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2791,70 +2755,75 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
+      <c r="N32" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-19.60095852894676</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251259</v>
+        <v>251180</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>36.5</v>
       </c>
       <c r="D33" t="n">
-        <v>70.4225352112676</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:22</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:22</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-12 14:48:22</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:48</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2867,66 +2836,73 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-7.332501956180556</v>
+        <v>-16.36493055555556</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251061</v>
+        <v>251895</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>21</v>
+        <v>42.5</v>
       </c>
       <c r="D34" t="n">
-        <v>337.9859154929578</v>
+        <v>321.7090909090909</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:48</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:48</t>
+          <t>2025-06-05 09:28:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:48</t>
+          <t>2025-06-05 09:28:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-13 13:57:47</t>
+          <t>2025-06-05 14:49:42</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>23997</v>
+        <v>17694</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2935,70 +2911,77 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-8.581797730833333</v>
+        <v>-10.6178535353588</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251260</v>
+        <v>251979</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>46.5</v>
       </c>
       <c r="D35" t="n">
-        <v>131.9577464788732</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-13 13:57:47</t>
+          <t>2025-06-05 14:49:42</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-13 14:12:47</t>
+          <t>2025-06-06 07:36:12</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-13 14:12:47</t>
+          <t>2025-06-06 07:36:12</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-14 08:24:44</t>
+          <t>2025-06-06 13:50:19</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>9369</v>
+        <v>20576</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3007,11 +2990,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3024,53 +3007,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-1.576609848483796</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251795</v>
+        <v>251780</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D36" t="n">
-        <v>263.9295774647887</v>
+        <v>441.8</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-14 08:24:44</t>
+          <t>2025-06-06 13:50:19</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-14 08:39:44</t>
+          <t>2025-06-06 14:22:49</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-14 08:39:44</t>
+          <t>2025-06-06 14:22:49</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-14 13:03:40</t>
+          <t>2025-06-09 13:44:37</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>18739</v>
+        <v>24299</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3079,36 +3062,43 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251284</v>
+        <v>252082</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3116,33 +3106,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>40.5</v>
+        <v>32.5</v>
       </c>
       <c r="D37" t="n">
-        <v>297.0909090909091</v>
+        <v>816.1454545454545</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-09 13:44:37</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-09 14:17:07</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-09 14:17:07</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-11 11:53:15</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>16340</v>
+        <v>44888</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3151,41 +3141,36 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.495321969699074</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>245275</v>
+        <v>252410</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3193,33 +3178,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>44.5</v>
+        <v>38.5</v>
       </c>
       <c r="D38" t="n">
-        <v>441.7090909090909</v>
+        <v>137.1090909090909</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-11 11:53:15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:22:05</t>
+          <t>2025-06-11 12:31:45</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:22:05</t>
+          <t>2025-06-11 12:31:45</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 12:43:48</t>
+          <t>2025-06-11 14:48:52</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>24294</v>
+        <v>7541</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3228,11 +3213,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3245,19 +3230,19 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251846</v>
+        <v>251679</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3265,33 +3250,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>54.5</v>
+        <v>30.5</v>
       </c>
       <c r="D39" t="n">
-        <v>207.1272727272727</v>
+        <v>288.3636363636364</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 12:43:48</t>
+          <t>2025-06-11 14:48:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 13:38:18</t>
+          <t>2025-06-12 07:19:22</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 13:38:18</t>
+          <t>2025-06-12 07:19:22</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:25</t>
+          <t>2025-06-12 12:07:44</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>11392</v>
+        <v>15860</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3300,11 +3285,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3317,53 +3302,53 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251463</v>
+        <v>252112</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>34.5</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>126.6727272727273</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:25</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-13 09:39:55</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-13 09:39:55</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:36</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>6967</v>
+        <v>12453</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3376,24 +3361,29 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
+      <c r="N40" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-4.490694444444444</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -3401,41 +3391,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251520</v>
+        <v>252282</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>36.5</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
-        <v>297.0909090909091</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 11:46:36</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:23:06</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:23:06</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-14 09:20:11</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>16340</v>
+        <v>2738</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3444,28 +3434,33 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-2.389021464641203</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -3473,7 +3468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251742</v>
+        <v>251762</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3484,30 +3479,30 @@
         <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>134.8524590163935</v>
+        <v>85.37704918032787</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-04 13:59:24</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8226</v>
+        <v>5208</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3520,29 +3515,24 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-14.58292349726852</v>
       </c>
       <c r="S42" t="n">
         <v>7</v>
@@ -3550,7 +3540,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251840</v>
+        <v>251984</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3558,33 +3548,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>93.67213114754098</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-04 13:59:24</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-04 14:19:24</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-04 14:19:24</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 11:57:44</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5714</v>
+        <v>20638</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3597,13 +3587,13 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
       <c r="N43" t="n">
-        <v>39758</v>
+        <v>39874</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3611,15 +3601,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>39758</v>
+        <v>39874</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.4984289617476852</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -3627,7 +3617,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251626</v>
+        <v>251911</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3635,33 +3625,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>204.9180327868852</v>
+        <v>153.6885245901639</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 11:57:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-06-05 12:22:44</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-06-05 12:22:44</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:38:26</t>
+          <t>2025-06-05 14:56:25</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>12500</v>
+        <v>9375</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3674,7 +3664,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3687,11 +3677,11 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-9.318362932604167</v>
+        <v>-8.622518214930556</v>
       </c>
       <c r="S44" t="n">
         <v>7</v>
@@ -3699,7 +3689,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251229</v>
+        <v>251978</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3707,33 +3697,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>307.1967213114754</v>
+        <v>512.2950819672132</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 07:38:26</t>
+          <t>2025-06-05 14:56:25</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 08:13:26</t>
+          <t>2025-06-06 07:21:25</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 08:13:26</t>
+          <t>2025-06-06 07:21:25</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 13:20:38</t>
+          <t>2025-06-09 07:53:43</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>18739</v>
+        <v>31250</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3742,43 +3732,36 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-6.328973132974538</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251373</v>
+        <v>251944</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3786,33 +3769,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>280.2295081967213</v>
+        <v>668.327868852459</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:20:38</t>
+          <t>2025-06-09 07:53:43</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:45:38</t>
+          <t>2025-06-09 08:23:43</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:45:38</t>
+          <t>2025-06-09 08:23:43</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:25:52</t>
+          <t>2025-06-10 11:32:02</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>17094</v>
+        <v>40768</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3838,19 +3821,19 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-14.4346311475463</v>
+        <v>-15.48058970856481</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251475</v>
+        <v>252108</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3858,33 +3841,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>142.3114754098361</v>
+        <v>234.4426229508197</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:25:52</t>
+          <t>2025-06-10 11:32:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:52</t>
+          <t>2025-06-10 12:02:02</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:50:52</t>
+          <t>2025-06-10 12:02:02</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:10</t>
+          <t>2025-06-11 07:56:29</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8681</v>
+        <v>14301</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3897,7 +3880,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3910,19 +3893,19 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-12.55081967212963</v>
+        <v>-5.330897085613426</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251809</v>
+        <v>252195</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3933,30 +3916,30 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>142.3114754098361</v>
+        <v>586.1147540983607</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:13:10</t>
+          <t>2025-06-11 07:56:29</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:10</t>
+          <t>2025-06-11 08:16:29</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:10</t>
+          <t>2025-06-11 08:16:29</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:29</t>
+          <t>2025-06-12 10:02:36</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>8681</v>
+        <v>35753</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3969,7 +3952,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -3982,19 +3965,19 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251283</v>
+        <v>251684</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4002,33 +3985,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
-        <v>12.36065573770492</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:29</t>
+          <t>2025-06-12 10:02:36</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:29</t>
+          <t>2025-06-12 10:37:36</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:29</t>
+          <t>2025-06-12 10:37:36</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:51</t>
+          <t>2025-06-12 14:44:52</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>754</v>
+        <v>15083</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4054,11 +4037,11 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-56.35961976320601</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
@@ -4066,41 +4049,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251247</v>
+        <v>251362</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>441.5409836065574</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:51</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:51</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:51</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:23</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>26934</v>
+        <v>2505</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4109,70 +4092,75 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N50" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-5.34680100181713</v>
+        <v>-0.3279733959259259</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251249</v>
+        <v>251631</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>78</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:23</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-14 08:39:23</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-14 08:39:23</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-14 09:57:23</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4758</v>
+        <v>10370</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4181,36 +4169,41 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N51" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-0.4398180751157408</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251227</v>
+        <v>251958</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4218,33 +4211,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 10:50:20</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 10:50:20</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 12:52:36</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4253,7 +4246,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -4262,32 +4255,27 @@
       <c r="M52" t="n">
         <v>76</v>
       </c>
-      <c r="N52" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>250923</v>
+        <v>243569</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4298,30 +4286,30 @@
         <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>98.67605633802818</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 12:52:36</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-06-05 13:09:36</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-06-05 13:09:36</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-08 14:14:40</t>
+          <t>2025-06-05 13:46:14</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>7006</v>
+        <v>2601</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4334,29 +4322,24 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
         <v>76</v>
       </c>
-      <c r="N53" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-1.59352503912037</v>
+        <v>-262.5737773865393</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4364,7 +4347,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>243569</v>
+        <v>251792</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4372,33 +4355,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>36.63380281690141</v>
+        <v>129.6338028169014</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-08 14:14:40</t>
+          <t>2025-06-05 13:46:14</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-08 14:33:40</t>
+          <t>2025-06-05 14:01:14</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-08 14:33:40</t>
+          <t>2025-06-05 14:01:14</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:18</t>
+          <t>2025-06-06 08:10:52</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2601</v>
+        <v>9204</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4424,11 +4407,11 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-235.2988262910764</v>
+        <v>-11.34088419405093</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
@@ -4436,7 +4419,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251340</v>
+        <v>251237</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4444,33 +4427,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
-        <v>461.9718309859155</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:10:18</t>
+          <t>2025-06-06 08:10:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:18</t>
+          <t>2025-06-06 08:46:52</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:27:18</t>
+          <t>2025-06-06 08:46:52</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:09:16</t>
+          <t>2025-06-09 10:12:13</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>32800</v>
+        <v>40140</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4479,36 +4462,41 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N55" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-14.29811228481481</v>
+        <v>-4.425156494525463</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>245623</v>
+        <v>251898</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4516,33 +4504,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
-        <v>372.0985915492957</v>
+        <v>93.02816901408451</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:09:16</t>
+          <t>2025-06-09 10:12:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:39:16</t>
+          <t>2025-06-09 10:46:13</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:39:16</t>
+          <t>2025-06-09 10:46:13</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:22</t>
+          <t>2025-06-09 12:19:15</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>26419</v>
+        <v>6605</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4551,14 +4539,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4568,11 +4556,11 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-107.5773474178357</v>
+        <v>-3.513370500787037</v>
       </c>
       <c r="S56" t="n">
         <v>2</v>
@@ -4580,7 +4568,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250670</v>
+        <v>251798</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4588,33 +4576,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>22.01408450704225</v>
+        <v>318.943661971831</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 13:51:22</t>
+          <t>2025-06-09 12:19:15</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:22</t>
+          <t>2025-06-09 12:34:15</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:22</t>
+          <t>2025-06-09 12:34:15</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:23</t>
+          <t>2025-06-10 09:53:11</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1563</v>
+        <v>22645</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4640,11 +4628,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-7.616246087638889</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
         <v>2</v>
@@ -4652,7 +4640,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>243335</v>
+        <v>245089</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4660,33 +4648,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>464.8450704225352</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:23</t>
+          <t>2025-06-10 09:53:11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:23</t>
+          <t>2025-06-10 10:08:11</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:23</t>
+          <t>2025-06-10 10:08:11</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:14</t>
+          <t>2025-06-13 14:55:52</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>33004</v>
+        <v>122665</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4702,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4712,11 +4700,11 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-285.2932218309838</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -4724,41 +4712,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251750</v>
+        <v>251741</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>54.80281690140845</v>
+        <v>110.9183673469388</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:02:14</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:19:14</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:19:14</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:14:02</t>
+          <t>2025-06-04 09:30:55</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3891</v>
+        <v>5435</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4767,14 +4755,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4784,53 +4772,53 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-7.3964710884375</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251987</v>
+        <v>251992</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D60" t="n">
-        <v>2965.154929577465</v>
+        <v>92.34693877551021</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:14:02</t>
+          <t>2025-06-04 09:30:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:50:02</t>
+          <t>2025-06-04 10:15:55</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:50:02</t>
+          <t>2025-06-04 10:15:55</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-22 10:15:11</t>
+          <t>2025-06-04 11:48:15</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>210526</v>
+        <v>4525</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4839,14 +4827,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4856,19 +4844,19 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-0.491850907025463</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251561</v>
+        <v>252084</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4876,33 +4864,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D61" t="n">
-        <v>110.9183673469388</v>
+        <v>797.9795918367347</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 11:48:15</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-06-04 12:43:15</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-06-04 12:43:15</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 09:40:55</t>
+          <t>2025-06-06 10:01:14</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>5435</v>
+        <v>39101</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4915,32 +4903,37 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="O61" t="n">
-        <v>0</v>
+      <c r="N61" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-1.403415532881944</v>
+        <v>-1.417531179143519</v>
       </c>
       <c r="S61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251564</v>
+        <v>252395</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4948,33 +4941,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D62" t="n">
-        <v>55.44897959183673</v>
+        <v>1832.387755102041</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 09:40:55</t>
+          <t>2025-06-06 10:01:14</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:25:55</t>
+          <t>2025-06-06 10:38:14</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:25:55</t>
+          <t>2025-06-06 10:38:14</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 11:21:22</t>
+          <t>2025-06-12 09:10:37</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2717</v>
+        <v>89787</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4983,14 +4976,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5000,19 +4993,19 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-1.473171768703704</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251566</v>
+        <v>251917</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5020,33 +5013,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D63" t="n">
-        <v>140.5918367346939</v>
+        <v>46.75510204081633</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 11:21:22</t>
+          <t>2025-06-12 09:10:37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 12:01:22</t>
+          <t>2025-06-12 10:02:37</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 12:01:22</t>
+          <t>2025-06-12 10:02:37</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:21:57</t>
+          <t>2025-06-12 10:49:23</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6889</v>
+        <v>2291</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5059,7 +5052,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5072,53 +5065,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-1.598582766435185</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251546</v>
+        <v>251655</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>131.9591836734694</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-08 14:21:57</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:01:57</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:01:57</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 09:13:55</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6466</v>
+        <v>114822</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5127,7 +5120,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -5136,61 +5129,66 @@
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
+      <c r="N64" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-9.384665532881945</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251424</v>
+        <v>251772</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>197.1836734693877</v>
+        <v>637.2112676056338</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 09:13:55</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-09 09:53:55</t>
+          <t>2025-06-10 11:17:12</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-09 09:53:55</t>
+          <t>2025-06-10 11:17:12</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:06</t>
+          <t>2025-06-11 13:54:25</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9662</v>
+        <v>45242</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5216,53 +5214,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-11.5493764172338</v>
+        <v>-6.579460093900463</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251397</v>
+        <v>251680</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>110.9183673469388</v>
+        <v>238.112676056338</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:11:06</t>
+          <t>2025-06-11 13:54:25</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:51:06</t>
+          <t>2025-06-11 14:39:25</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-09 13:51:06</t>
+          <t>2025-06-11 14:39:25</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:01</t>
+          <t>2025-06-12 10:37:32</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5435</v>
+        <v>16906</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5275,7 +5273,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5288,53 +5286,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-14.3208475056713</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251416</v>
+        <v>251573</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>229.0204081632653</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:01</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 08:22:01</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 08:22:01</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:11:02</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>11222</v>
+        <v>6203</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5343,73 +5341,75 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>244355</v>
+        <v>245623</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
-        <v>87.95918367346938</v>
+        <v>382.8840579710145</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 12:11:02</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:02</t>
+          <t>2025-06-06 09:44:53</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-12 12:56:02</t>
+          <t>2025-06-06 09:44:53</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-12 14:24:00</t>
+          <t>2025-06-09 08:07:46</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>4310</v>
+        <v>26419</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5418,14 +5418,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5435,53 +5435,53 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-4.6</v>
+        <v>-135.3387379227083</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251346</v>
+        <v>252235</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D69" t="n">
-        <v>78.75510204081633</v>
+        <v>351.5652173913044</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-12 14:24:00</t>
+          <t>2025-06-09 08:07:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 07:19:00</t>
+          <t>2025-06-09 09:07:46</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 07:19:00</t>
+          <t>2025-06-09 09:07:46</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:45</t>
+          <t>2025-06-09 14:59:20</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3859</v>
+        <v>24258</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5490,14 +5490,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
         <v>8</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5507,53 +5507,53 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-15.35955215418982</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251245</v>
+        <v>251972</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>15.38775510204082</v>
+        <v>70.26086956521739</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:45</t>
+          <t>2025-06-09 14:59:20</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:45</t>
+          <t>2025-06-10 07:44:20</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:22:45</t>
+          <t>2025-06-10 07:44:20</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 09:38:08</t>
+          <t>2025-06-10 08:54:36</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>754</v>
+        <v>4848</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5562,14 +5562,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5579,11 +5579,11 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-46.40148809524305</v>
+        <v>-11.37125603864583</v>
       </c>
       <c r="S70" t="n">
         <v>1</v>
@@ -5591,41 +5591,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251464</v>
+        <v>252111</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>145.9795918367347</v>
+        <v>263.5797101449276</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 09:38:08</t>
+          <t>2025-06-10 08:54:36</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:08</t>
+          <t>2025-06-10 09:29:36</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:08</t>
+          <t>2025-06-10 09:29:36</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 12:49:07</t>
+          <t>2025-06-10 13:53:11</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7153</v>
+        <v>18187</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5651,11 +5651,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-4.534112811793982</v>
+        <v>-5.578603059583333</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5663,41 +5663,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251580</v>
+        <v>252196</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>145.9795918367347</v>
+        <v>682.4492753623189</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 12:49:07</t>
+          <t>2025-06-10 13:53:11</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:07</t>
+          <t>2025-06-10 14:28:11</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:07</t>
+          <t>2025-06-10 14:28:11</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-14 07:50:06</t>
+          <t>2025-06-12 09:50:38</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7153</v>
+        <v>47089</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5735,41 +5735,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251252</v>
+        <v>252326</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>307.8163265306122</v>
+        <v>371.6086956521739</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-14 07:50:06</t>
+          <t>2025-06-12 09:50:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-14 08:35:06</t>
+          <t>2025-06-12 10:20:38</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-14 08:35:06</t>
+          <t>2025-06-12 10:20:38</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 13:42:55</t>
+          <t>2025-06-13 08:32:14</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>15083</v>
+        <v>25641</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5807,62 +5807,60 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251081</v>
+        <v>251082</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>39885</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5870,15 +5868,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>39750</v>
+        <v>39885</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-16.40932120501157</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S74" t="n">
         <v>2</v>
@@ -5886,955 +5884,74 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251050</v>
+        <v>252375</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>99.2063492063492</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-06-05 08:39:12</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>6250</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>70</v>
-      </c>
-      <c r="N75" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-07-04 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-1.49612676056713</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>251054</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>35</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:54:25</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:29:25</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:29:25</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:29:25</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>38</v>
-      </c>
-      <c r="M76" t="n">
-        <v>70</v>
-      </c>
-      <c r="N76" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R76" s="1" t="n">
-        <v>-1.520432316122685</v>
-      </c>
-      <c r="S76" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>251594</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>205</v>
-      </c>
-      <c r="D77" t="n">
-        <v>91.07042253521126</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:29:25</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:54:25</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:54:25</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:25:29</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>6466</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>4</v>
-      </c>
-      <c r="M77" t="n">
-        <v>70</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>2025-05-07 00:00:00</t>
-        </is>
-      </c>
-      <c r="R77" s="1" t="n">
-        <v>-5.392703442881944</v>
-      </c>
-      <c r="S77" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>251505</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>40</v>
-      </c>
-      <c r="D78" t="n">
-        <v>200.7746478873239</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:25:29</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2025-05-12 10:05:29</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2025-05-12 10:05:29</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:26:16</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>14255</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>5</v>
-      </c>
-      <c r="M78" t="n">
-        <v>70</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R78" s="1" t="n">
-        <v>-7.559908059467593</v>
-      </c>
-      <c r="S78" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>251109</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>90</v>
-      </c>
-      <c r="D79" t="n">
-        <v>266.5915492957747</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:26:16</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2025-05-12 14:56:16</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2025-05-12 14:56:16</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2025-05-13 11:22:51</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>18928</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>16</v>
-      </c>
-      <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>2025-04-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="R79" s="1" t="n">
-        <v>-25.47420774648148</v>
-      </c>
-      <c r="S79" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>251462</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>105</v>
-      </c>
-      <c r="D80" t="n">
-        <v>87.69014084507042</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2025-05-13 11:22:51</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:07:51</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:07:51</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:35:32</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>6226</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>2</v>
-      </c>
-      <c r="M80" t="n">
-        <v>70</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R80" s="1" t="n">
-        <v>-4.608020344282407</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>250641</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>45</v>
-      </c>
-      <c r="D81" t="n">
-        <v>74.14492753623189</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:45:00</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:45:00</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2025-05-12 08:59:08</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>5116</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>6</v>
-      </c>
-      <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="R81" s="1" t="n">
-        <v>-14.37440619967592</v>
-      </c>
-      <c r="S81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>251466</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>40</v>
-      </c>
-      <c r="D82" t="n">
-        <v>80.68115942028986</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2025-05-12 08:59:08</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:39:08</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:39:08</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2025-05-12 10:59:49</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>5567</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>3</v>
-      </c>
-      <c r="M82" t="n">
-        <v>70</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R82" s="1" t="n">
-        <v>-3.458212560381945</v>
-      </c>
-      <c r="S82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>251465</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>30</v>
-      </c>
-      <c r="D83" t="n">
-        <v>90.23188405797102</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2025-05-12 10:59:49</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:29:49</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:29:49</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:00:03</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>6226</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>2</v>
-      </c>
-      <c r="M83" t="n">
-        <v>70</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R83" s="1" t="n">
-        <v>-3.54170692431713</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>251557</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>25</v>
-      </c>
-      <c r="D84" t="n">
-        <v>97.17391304347827</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:00:03</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:25:03</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:25:03</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:02:13</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>6705</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>2</v>
-      </c>
-      <c r="M84" t="n">
-        <v>70</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>245350</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>65</v>
-      </c>
-      <c r="D85" t="n">
-        <v>405.3623188405797</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:02:13</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:07:13</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2025-05-13 08:07:13</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:52:35</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>27970</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>10</v>
-      </c>
-      <c r="M85" t="n">
-        <v>70</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="R85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>251062</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>45</v>
-      </c>
-      <c r="D86" t="n">
-        <v>327.8840579710145</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:52:35</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:37:35</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:37:35</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2025-05-14 13:05:28</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>22624</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>6</v>
-      </c>
-      <c r="M86" t="n">
-        <v>70</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251219</v>
+        <v>251879</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5</v>
+        <v>93.859375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-06-05 12:15:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-06-05 12:15:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-06-05 13:48:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6880</v>
+        <v>6007</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,41 +558,36 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-6.575596788194445</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251943</v>
+        <v>251445</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -600,33 +595,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>92.234375</v>
+        <v>424.59375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-06-05 13:48:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 14:57:30</t>
+          <t>2025-06-05 14:03:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 14:57:30</t>
+          <t>2025-06-05 14:03:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:44</t>
+          <t>2025-06-06 13:08:27</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5903</v>
+        <v>27174</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -639,7 +634,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -652,11 +647,11 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-7.353982204861111</v>
+        <v>-2.547536892361111</v>
       </c>
       <c r="S3" t="n">
         <v>7</v>
@@ -664,7 +659,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251935</v>
+        <v>251219</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -672,33 +667,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>104.515625</v>
+        <v>107.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:44</t>
+          <t>2025-06-06 13:08:27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-06 08:44:44</t>
+          <t>2025-06-06 13:44:27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-06 08:44:44</t>
+          <t>2025-06-06 13:44:27</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-06 10:29:15</t>
+          <t>2025-06-09 07:31:57</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6689</v>
+        <v>6880</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -707,36 +702,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.436979166666667</v>
+        <v>-4.313856336805555</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251519</v>
+        <v>251792</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,33 +744,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>205.859375</v>
+        <v>143.8125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-06 10:29:15</t>
+          <t>2025-06-09 07:31:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-06 10:48:15</t>
+          <t>2025-06-09 07:52:57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-06 10:48:15</t>
+          <t>2025-06-09 07:52:57</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-06 14:14:06</t>
+          <t>2025-06-09 10:16:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13175</v>
+        <v>9204</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -779,36 +779,36 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>76</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>-14.42830946180556</v>
+      </c>
+      <c r="S5" t="n">
         <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2025-06-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251993</v>
+        <v>251898</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -816,33 +816,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>189.890625</v>
+        <v>103.203125</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-06 14:14:06</t>
+          <t>2025-06-09 10:16:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-06 14:33:06</t>
+          <t>2025-06-09 10:33:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-06 14:33:06</t>
+          <t>2025-06-09 10:33:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-09 09:43:00</t>
+          <t>2025-06-09 12:16:58</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12153</v>
+        <v>6605</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -851,14 +851,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4048611111111111</v>
+        <v>-3.511783854166667</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251905</v>
+        <v>251798</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -888,33 +888,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>216.265625</v>
+        <v>353.828125</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-09 09:43:00</t>
+          <t>2025-06-09 12:16:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-09 10:17:00</t>
+          <t>2025-06-09 12:31:58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-09 10:17:00</t>
+          <t>2025-06-09 12:31:58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-09 13:53:15</t>
+          <t>2025-06-10 10:25:47</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13841</v>
+        <v>22645</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>76</v>
@@ -940,11 +940,11 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-12.57865668402778</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>2</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252337</v>
+        <v>251972</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -960,33 +960,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>1488.09375</v>
+        <v>75.75</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-09 13:53:15</t>
+          <t>2025-06-10 10:25:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-09 14:23:15</t>
+          <t>2025-06-10 10:40:47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-09 14:23:15</t>
+          <t>2025-06-10 10:40:47</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-13 07:11:21</t>
+          <t>2025-06-10 11:56:32</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>95238</v>
+        <v>4848</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -995,14 +995,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1012,53 +1012,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-07-02 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-11.49760199652778</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251879</v>
+        <v>251916</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>98.47540983606558</v>
+        <v>732.421875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-10 11:56:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-06-10 12:26:32</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-06-10 12:26:32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 09:18:28</t>
+          <t>2025-06-12 08:38:58</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6007</v>
+        <v>46875</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1084,53 +1084,53 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-6.387830145717593</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251445</v>
+        <v>252326</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>445.4754098360656</v>
+        <v>400.640625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 09:18:28</t>
+          <t>2025-06-12 08:38:58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:28</t>
+          <t>2025-06-12 08:57:58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:28</t>
+          <t>2025-06-12 08:57:58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-06 09:08:57</t>
+          <t>2025-06-13 07:38:36</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>27174</v>
+        <v>25641</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1139,11 +1139,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1156,19 +1156,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-2.381215846990741</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251897</v>
+        <v>251910</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1176,33 +1176,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>305.0327868852459</v>
+        <v>217.0819672131148</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-06 09:08:57</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-06 09:47:57</t>
+          <t>2025-06-05 07:42:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-06 09:47:57</t>
+          <t>2025-06-05 07:42:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-06 14:52:59</t>
+          <t>2025-06-05 11:19:04</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>18607</v>
+        <v>13242</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1211,43 +1211,36 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-11.62012750454861</v>
+        <v>-8.471584699456018</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251747</v>
+        <v>251519</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1255,33 +1248,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>255.016393442623</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-06 14:52:59</t>
+          <t>2025-06-05 11:19:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:59</t>
+          <t>2025-06-05 11:48:04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:59</t>
+          <t>2025-06-05 11:48:04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-09 11:47:00</t>
+          <t>2025-06-06 07:24:03</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>15556</v>
+        <v>13175</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1294,7 +1287,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1307,19 +1300,19 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252042</v>
+        <v>251747</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1330,30 +1323,30 @@
         <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>125.9672131147541</v>
+        <v>255.016393442623</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-09 11:47:00</t>
+          <t>2025-06-06 07:24:03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-09 12:14:00</t>
+          <t>2025-06-06 07:51:03</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-09 12:14:00</t>
+          <t>2025-06-06 07:51:03</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-09 14:19:58</t>
+          <t>2025-06-06 12:06:04</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>7684</v>
+        <v>15556</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1366,7 +1359,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1379,19 +1372,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-10.59719945355324</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>243335</v>
+        <v>252042</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1399,33 +1392,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>541.0491803278688</v>
+        <v>125.9672131147541</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-09 14:19:58</t>
+          <t>2025-06-06 12:06:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-10 07:03:58</t>
+          <t>2025-06-06 12:33:04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-10 07:03:58</t>
+          <t>2025-06-06 12:33:04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-11 08:05:00</t>
+          <t>2025-06-06 14:39:02</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>33004</v>
+        <v>7684</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1434,14 +1427,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1451,19 +1444,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-313.3368169398959</v>
+        <v>-7.610450819675926</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252110</v>
+        <v>251897</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1471,33 +1464,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="n">
-        <v>105.0819672131148</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-11 08:05:00</t>
+          <t>2025-06-06 14:39:02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-11 08:47:00</t>
+          <t>2025-06-09 07:20:02</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-11 08:47:00</t>
+          <t>2025-06-09 07:20:02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-11 10:32:05</t>
+          <t>2025-06-09 12:25:04</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6410</v>
+        <v>18607</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1506,36 +1499,43 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-17 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-14.51741803278935</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252121</v>
+        <v>252058</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1543,33 +1543,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>204.1475409836065</v>
+        <v>86.88524590163935</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-11 10:32:05</t>
+          <t>2025-06-09 12:25:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-11 10:59:05</t>
+          <t>2025-06-09 13:00:04</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-11 10:59:05</t>
+          <t>2025-06-09 13:00:04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-11 14:23:14</t>
+          <t>2025-06-09 14:26:58</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>12453</v>
+        <v>5300</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1595,19 +1595,19 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.6020605646643518</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>252325</v>
+        <v>244023</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1615,33 +1615,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>296.7213114754098</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-11 14:23:14</t>
+          <t>2025-06-09 14:26:58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-11 14:56:14</t>
+          <t>2025-06-09 14:53:58</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-11 14:56:14</t>
+          <t>2025-06-09 14:53:58</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-12 11:52:58</t>
+          <t>2025-06-10 07:10:18</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18100</v>
+        <v>997</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1667,11 +1667,11 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-253.2988274134838</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1679,41 +1679,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251752</v>
+        <v>251186</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>418.2295081967213</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-06-10 07:10:18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-10 07:39:18</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-10 07:39:18</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-10 14:37:32</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>25512</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1722,33 +1722,28 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39846</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39846</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>-11.60940346083333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1756,41 +1751,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251218</v>
+        <v>252196</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>96.90140845070422</v>
+        <v>771.9508196721312</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-10 14:37:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-06-11 07:04:32</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-04 12:38:00</t>
+          <t>2025-06-11 07:04:32</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-06-12 11:56:29</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6880</v>
+        <v>47089</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1799,29 +1794,24 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
@@ -1833,7 +1823,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251565</v>
+        <v>251752</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1841,33 +1831,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>176.7464788732394</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-04 14:14:54</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-05 09:49:38</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12549</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1876,17 +1866,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1894,15 +1884,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.409477699525463</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -1910,7 +1900,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251500</v>
+        <v>251362</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1918,33 +1908,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>139.3802816901408</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-05 09:49:38</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-05 10:08:38</t>
+          <t>2025-06-04 12:32:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-05 10:08:38</t>
+          <t>2025-06-04 12:32:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:01</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>9896</v>
+        <v>2505</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1953,17 +1943,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1971,23 +1961,23 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5194640062615741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251910</v>
+        <v>251218</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1995,33 +1985,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>186.5070422535211</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:01</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-05 12:43:01</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-05 12:43:01</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:32</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13242</v>
+        <v>6880</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2030,36 +2020,41 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-9.326066118935184</v>
+        <v>-0.2952660406828704</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251390</v>
+        <v>251895</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2067,33 +2062,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D23" t="n">
-        <v>30.35211267605634</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-06 07:49:32</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:32</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:32</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:53</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2155</v>
+        <v>17694</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2102,36 +2097,43 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-10.49471830986111</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>252058</v>
+        <v>251762</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2139,33 +2141,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>74.64788732394366</v>
+        <v>73.35211267605634</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:53</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-06 08:51:53</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-06 08:51:53</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-06 10:06:32</t>
+          <t>2025-06-05 13:34:44</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5300</v>
+        <v>5208</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2178,7 +2180,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2191,19 +2193,19 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-15.56579616587963</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>252156</v>
+        <v>251741</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2211,33 +2213,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>723.5211267605633</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-06 10:06:32</t>
+          <t>2025-06-05 13:34:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-06 10:21:32</t>
+          <t>2025-06-05 13:51:44</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-06 10:21:32</t>
+          <t>2025-06-05 13:51:44</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-09 14:25:03</t>
+          <t>2025-06-06 07:08:17</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>51370</v>
+        <v>5435</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2250,7 +2252,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2263,11 +2265,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-9.297427621284722</v>
       </c>
       <c r="S25" t="n">
         <v>7</v>
@@ -2275,7 +2277,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>244023</v>
+        <v>251943</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2283,33 +2285,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>14.04225352112676</v>
+        <v>83.14084507042253</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-09 14:25:03</t>
+          <t>2025-06-06 07:08:17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-09 14:42:03</t>
+          <t>2025-06-06 07:23:17</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-09 14:42:03</t>
+          <t>2025-06-06 07:23:17</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-09 14:56:05</t>
+          <t>2025-06-06 08:46:26</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>997</v>
+        <v>5903</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2322,7 +2324,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2335,19 +2337,19 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-252.6222906885764</v>
+        <v>-7.365580985914352</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251186</v>
+        <v>252156</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2355,33 +2357,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>359.3239436619718</v>
+        <v>723.5211267605633</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-09 14:56:05</t>
+          <t>2025-06-06 08:46:26</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-10 07:15:05</t>
+          <t>2025-06-06 09:03:26</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-10 07:15:05</t>
+          <t>2025-06-06 09:03:26</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-10 13:14:25</t>
+          <t>2025-06-09 13:06:57</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>25512</v>
+        <v>51370</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2407,19 +2409,19 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-11.55168231612268</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251916</v>
+        <v>252337</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2427,33 +2429,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
-        <v>660.2112676056338</v>
+        <v>1341.380281690141</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-10 13:14:25</t>
+          <t>2025-06-09 13:06:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-10 13:29:25</t>
+          <t>2025-06-09 13:23:57</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-10 13:29:25</t>
+          <t>2025-06-09 13:23:57</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-12 08:29:38</t>
+          <t>2025-06-12 11:45:20</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>46875</v>
+        <v>95238</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2462,11 +2464,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2479,53 +2481,53 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-07-02 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251681</v>
+        <v>251500</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D29" t="n">
-        <v>56.12676056338028</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-12 08:29:38</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-12 08:46:38</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-12 08:46:38</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-12 09:42:45</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3985</v>
+        <v>9896</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2534,70 +2536,75 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>252293</v>
+        <v>251070</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D30" t="n">
-        <v>32.26760563380282</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-12 09:42:45</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-12 09:57:45</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-12 09:57:45</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-12 10:30:01</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2291</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2606,36 +2613,41 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
+      <c r="N30" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-0.4631439393981481</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251070</v>
+        <v>251773</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2643,29 +2655,29 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2678,17 +2690,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
       <c r="N31" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2696,23 +2708,23 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-0.4857133838425925</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251773</v>
+        <v>251978</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2720,33 +2732,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32.5</v>
+        <v>38.5</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>568.1818181818181</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 11:39:25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 12:17:55</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 12:17:55</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 13:46:06</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>31250</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2755,41 +2767,36 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="N32" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>-3.57368686869213</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251180</v>
+        <v>251565</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2797,33 +2804,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>228.1636363636364</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-06 13:46:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-06 14:18:36</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-06 14:18:36</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-09 10:06:46</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2836,15 +2843,13 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N33" t="n">
+        <v>39885</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2852,23 +2857,23 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-16.36493055555556</v>
+        <v>-4.421369949490741</v>
       </c>
       <c r="S33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251895</v>
+        <v>251979</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2876,33 +2881,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>42.5</v>
+        <v>30.5</v>
       </c>
       <c r="D34" t="n">
-        <v>321.7090909090909</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-09 10:06:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-05 09:28:00</t>
+          <t>2025-06-09 10:37:16</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-05 09:28:00</t>
+          <t>2025-06-09 10:37:16</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-05 14:49:42</t>
+          <t>2025-06-10 08:51:22</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>17694</v>
+        <v>20576</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2911,43 +2916,36 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-10.6178535353588</v>
+        <v>-5.369015151516203</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251979</v>
+        <v>252111</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2955,33 +2953,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>46.5</v>
+        <v>32.5</v>
       </c>
       <c r="D35" t="n">
-        <v>374.1090909090909</v>
+        <v>330.6727272727273</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-05 14:49:42</t>
+          <t>2025-06-10 08:51:22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-06 07:36:12</t>
+          <t>2025-06-10 09:23:52</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-06 07:36:12</t>
+          <t>2025-06-10 09:23:52</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-06 13:50:19</t>
+          <t>2025-06-10 14:54:33</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>20576</v>
+        <v>18187</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2990,11 +2988,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3011,15 +3009,15 @@
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-1.576609848483796</v>
+        <v>-5.621218434340278</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251780</v>
+        <v>252195</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3027,33 +3025,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="D36" t="n">
-        <v>441.8</v>
+        <v>650.0545454545454</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-06 13:50:19</t>
+          <t>2025-06-10 14:54:33</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-06 14:22:49</t>
+          <t>2025-06-11 07:25:03</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-06 14:22:49</t>
+          <t>2025-06-11 07:25:03</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-09 13:44:37</t>
+          <t>2025-06-12 10:15:06</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>24299</v>
+        <v>35753</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3071,68 +3069,61 @@
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252082</v>
+        <v>252084</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32.5</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>816.1454545454545</v>
+        <v>641</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-09 13:44:37</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-09 14:17:07</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-09 14:17:07</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-11 11:53:15</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>44888</v>
+        <v>39101</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3150,61 +3141,66 @@
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
+      <c r="N37" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-1.495321969699074</v>
+        <v>-0.4173611111111111</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252410</v>
+        <v>251180</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>38.5</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>137.1090909090909</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-11 11:53:15</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-11 12:31:45</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-11 12:31:45</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-11 14:48:52</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>7541</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3213,70 +3209,77 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-16.43819444444444</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251679</v>
+        <v>251984</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>288.3636363636364</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-11 14:48:52</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-12 07:19:22</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-12 07:19:22</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-12 12:07:44</t>
+          <t>2025-06-06 08:34:19</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>15860</v>
+        <v>20638</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3285,28 +3288,33 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
+      <c r="N39" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-1.357172131145833</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -3314,7 +3322,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252112</v>
+        <v>251935</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3322,33 +3330,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>204.1475409836065</v>
+        <v>109.655737704918</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-06 08:34:19</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-06 08:59:19</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-06 08:59:19</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-06 10:48:59</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>12453</v>
+        <v>6689</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3361,37 +3369,32 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-1.450683060104167</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252282</v>
+        <v>251993</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3399,33 +3402,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>44.88524590163934</v>
+        <v>199.2295081967213</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-06 10:48:59</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-06 11:08:59</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-06 11:08:59</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-06 14:28:12</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2738</v>
+        <v>12153</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3438,21 +3441,16 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3463,12 +3461,12 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251762</v>
+        <v>252282</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3476,33 +3474,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>85.37704918032787</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-06 14:28:12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-06 14:53:12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-06 14:53:12</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:24</t>
+          <t>2025-06-09 07:38:05</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5208</v>
+        <v>2738</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3515,32 +3513,37 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
+      <c r="N42" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-14.58292349726852</v>
+        <v>-4.318123861562499</v>
       </c>
       <c r="S42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251984</v>
+        <v>251944</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3551,30 +3554,30 @@
         <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>338.327868852459</v>
+        <v>668.327868852459</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:24</t>
+          <t>2025-06-09 07:38:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-04 14:19:24</t>
+          <t>2025-06-09 07:58:05</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-04 14:19:24</t>
+          <t>2025-06-09 07:58:05</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-05 11:57:44</t>
+          <t>2025-06-10 11:06:25</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>20638</v>
+        <v>40768</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3587,37 +3590,32 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-0.4984289617476852</v>
+        <v>-15.46279599270833</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251911</v>
+        <v>252108</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3625,33 +3623,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>153.6885245901639</v>
+        <v>234.4426229508197</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-05 11:57:44</t>
+          <t>2025-06-10 11:06:25</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-05 12:22:44</t>
+          <t>2025-06-10 11:36:25</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-05 12:22:44</t>
+          <t>2025-06-10 11:36:25</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-05 14:56:25</t>
+          <t>2025-06-11 07:30:52</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>9375</v>
+        <v>14301</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3664,7 +3662,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3677,19 +3675,19 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-8.622518214930556</v>
+        <v>-5.313103369768519</v>
       </c>
       <c r="S44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251978</v>
+        <v>252110</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3697,33 +3695,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>512.2950819672132</v>
+        <v>105.0819672131148</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-05 14:56:25</t>
+          <t>2025-06-11 07:30:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-06 07:21:25</t>
+          <t>2025-06-11 07:50:52</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-06 07:21:25</t>
+          <t>2025-06-11 07:50:52</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-09 07:53:43</t>
+          <t>2025-06-11 09:35:57</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>31250</v>
+        <v>6410</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3749,19 +3747,19 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-6.328973132974538</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251944</v>
+        <v>252410</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3769,33 +3767,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>668.327868852459</v>
+        <v>123.6229508196721</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-09 07:53:43</t>
+          <t>2025-06-11 09:35:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-09 08:23:43</t>
+          <t>2025-06-11 10:10:57</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-09 08:23:43</t>
+          <t>2025-06-11 10:10:57</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-10 11:32:02</t>
+          <t>2025-06-11 12:14:34</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>40768</v>
+        <v>7541</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3804,11 +3802,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3821,19 +3819,19 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-15.48058970856481</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252108</v>
+        <v>251680</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3841,33 +3839,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>234.4426229508197</v>
+        <v>277.1475409836066</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-10 11:32:02</t>
+          <t>2025-06-11 12:14:34</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-10 12:02:02</t>
+          <t>2025-06-11 12:34:34</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-10 12:02:02</t>
+          <t>2025-06-11 12:34:34</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-11 07:56:29</t>
+          <t>2025-06-12 09:11:43</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>14301</v>
+        <v>16906</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3880,7 +3878,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3893,11 +3891,11 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-5.330897085613426</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>
@@ -3905,7 +3903,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>252195</v>
+        <v>251684</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3916,30 +3914,30 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>586.1147540983607</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-11 07:56:29</t>
+          <t>2025-06-12 09:11:43</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-11 08:16:29</t>
+          <t>2025-06-12 09:31:43</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-11 08:16:29</t>
+          <t>2025-06-12 09:31:43</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-12 10:02:36</t>
+          <t>2025-06-12 13:38:59</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>35753</v>
+        <v>15083</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3948,11 +3946,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -3965,7 +3963,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3977,41 +3975,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251684</v>
+        <v>251631</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>247.2622950819672</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-12 10:02:36</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-12 10:37:36</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-12 10:37:36</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-12 14:44:52</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>15083</v>
+        <v>10370</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4020,36 +4018,41 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N49" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251362</v>
+        <v>251958</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4060,30 +4063,30 @@
         <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>35.28169014084507</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 10:00:03</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 10:00:03</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-05 12:02:19</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2505</v>
+        <v>8681</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4092,41 +4095,36 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>76</v>
       </c>
-      <c r="N50" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.3279733959259259</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251631</v>
+        <v>243569</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4134,33 +4132,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>146.056338028169</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-05 12:02:19</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 12:19:19</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 12:19:19</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 12:55:57</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>10370</v>
+        <v>2601</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4169,7 +4167,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -4178,24 +4176,19 @@
       <c r="M51" t="n">
         <v>76</v>
       </c>
-      <c r="N51" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.4398180751157408</v>
+        <v>-262.538859546169</v>
       </c>
       <c r="S51" t="n">
         <v>2</v>
@@ -4203,7 +4196,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251958</v>
+        <v>251237</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4211,33 +4204,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D52" t="n">
-        <v>122.2676056338028</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 12:55:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-05 10:50:20</t>
+          <t>2025-06-05 13:31:57</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-05 10:50:20</t>
+          <t>2025-06-05 13:31:57</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-05 12:52:36</t>
+          <t>2025-06-06 14:57:18</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>8681</v>
+        <v>40140</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4246,36 +4239,41 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N52" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-1.623131846631944</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>243569</v>
+        <v>245623</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4283,33 +4281,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D53" t="n">
-        <v>36.63380281690141</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-05 12:52:36</t>
+          <t>2025-06-06 14:57:18</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-05 13:09:36</t>
+          <t>2025-06-09 07:35:18</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-05 13:09:36</t>
+          <t>2025-06-09 07:35:18</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-05 13:46:14</t>
+          <t>2025-06-09 13:47:24</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2601</v>
+        <v>26419</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4322,10 +4320,10 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4335,11 +4333,11 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-262.5737773865393</v>
+        <v>-135.574589201875</v>
       </c>
       <c r="S53" t="n">
         <v>2</v>
@@ -4347,7 +4345,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251792</v>
+        <v>243335</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4355,33 +4353,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>129.6338028169014</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-05 13:46:14</t>
+          <t>2025-06-09 13:47:24</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-05 14:01:14</t>
+          <t>2025-06-09 14:06:24</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-05 14:01:14</t>
+          <t>2025-06-09 14:06:24</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-06 08:10:52</t>
+          <t>2025-06-10 13:51:15</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>9204</v>
+        <v>33004</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4394,10 +4392,10 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4407,19 +4405,19 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-11.34088419405093</v>
+        <v>-312.5772593896759</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251237</v>
+        <v>245089</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4427,33 +4425,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
-        <v>565.3521126760563</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-06 08:10:52</t>
+          <t>2025-06-10 13:51:15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-06 08:46:52</t>
+          <t>2025-06-10 14:21:15</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-06 08:46:52</t>
+          <t>2025-06-10 14:21:15</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-09 10:12:13</t>
+          <t>2025-06-16 11:08:55</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>40140</v>
+        <v>122665</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4462,33 +4460,28 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
-      </c>
-      <c r="N55" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-4.425156494525463</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -4496,41 +4489,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251898</v>
+        <v>251780</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
-        <v>93.02816901408451</v>
+        <v>495.8979591836735</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-09 10:12:13</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-09 10:46:13</t>
+          <t>2025-06-04 07:35:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-09 10:46:13</t>
+          <t>2025-06-04 07:35:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-09 12:19:15</t>
+          <t>2025-06-05 07:50:53</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>6605</v>
+        <v>24299</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4539,70 +4532,77 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-3.513370500787037</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251798</v>
+        <v>251911</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>318.943661971831</v>
+        <v>191.3265306122449</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:19:15</t>
+          <t>2025-06-05 07:50:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:34:15</t>
+          <t>2025-06-05 08:30:53</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:34:15</t>
+          <t>2025-06-05 08:30:53</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-10 09:53:11</t>
+          <t>2025-06-05 11:42:13</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>22645</v>
+        <v>9375</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4611,14 +4611,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4628,53 +4628,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-8.487655895694443</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>245089</v>
+        <v>251992</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D58" t="n">
-        <v>1727.676056338028</v>
+        <v>92.34693877551021</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-10 09:53:11</t>
+          <t>2025-06-05 11:42:13</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-10 10:08:11</t>
+          <t>2025-06-05 12:27:13</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-10 10:08:11</t>
+          <t>2025-06-05 12:27:13</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-13 14:55:52</t>
+          <t>2025-06-05 13:59:34</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>122665</v>
+        <v>4525</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4683,14 +4683,14 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -4700,19 +4700,19 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-1.583035714282407</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251741</v>
+        <v>252112</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4720,33 +4720,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D59" t="n">
-        <v>110.9183673469388</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-05 13:59:34</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-06-05 14:54:34</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-06-05 14:54:34</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-04 09:30:55</t>
+          <t>2025-06-06 11:08:42</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5435</v>
+        <v>12453</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4759,32 +4759,37 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
+      <c r="N59" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-7.3964710884375</v>
+        <v>-1.464384920636574</v>
       </c>
       <c r="S59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251992</v>
+        <v>252395</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4792,33 +4797,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D60" t="n">
-        <v>92.34693877551021</v>
+        <v>1832.387755102041</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-04 09:30:55</t>
+          <t>2025-06-06 11:08:42</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-04 10:15:55</t>
+          <t>2025-06-06 11:45:42</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-04 10:15:55</t>
+          <t>2025-06-06 11:45:42</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-04 11:48:15</t>
+          <t>2025-06-12 10:18:06</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>4525</v>
+        <v>89787</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4827,14 +4832,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4844,11 +4849,11 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.491850907025463</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
         <v>7</v>
@@ -4856,41 +4861,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252084</v>
+        <v>251772</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>797.9795918367347</v>
+        <v>637.2112676056338</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-04 11:48:15</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-04 12:43:15</t>
+          <t>2025-06-05 07:35:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-04 12:43:15</t>
+          <t>2025-06-05 07:35:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-06 10:01:14</t>
+          <t>2025-06-06 10:12:12</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>39101</v>
+        <v>45242</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4903,71 +4908,66 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="N61" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-1.417531179143519</v>
+        <v>-1.425146713611111</v>
       </c>
       <c r="S61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252395</v>
+        <v>251655</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>1832.387755102041</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-06 10:01:14</t>
+          <t>2025-06-06 10:12:12</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-06 10:38:14</t>
+          <t>2025-06-06 10:52:12</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-06 10:38:14</t>
+          <t>2025-06-06 10:52:12</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-12 09:10:37</t>
+          <t>2025-06-11 13:49:25</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>89787</v>
+        <v>114822</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4976,70 +4976,75 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
+        <v>5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>70</v>
+      </c>
+      <c r="N62" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>39885</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2025-04-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>-6.575987871678241</v>
+      </c>
+      <c r="S62" t="n">
         <v>2</v>
-      </c>
-      <c r="M62" t="n">
-        <v>76</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>2025-08-04 00:00:00</t>
-        </is>
-      </c>
-      <c r="R62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251917</v>
+        <v>251681</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>46.75510204081633</v>
+        <v>56.12676056338028</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-06-12 09:10:37</t>
+          <t>2025-06-11 13:49:25</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-12 10:02:37</t>
+          <t>2025-06-11 14:24:25</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-12 10:02:37</t>
+          <t>2025-06-11 14:24:25</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-12 10:49:23</t>
+          <t>2025-06-12 07:20:32</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2291</v>
+        <v>3985</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5065,7 +5070,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5077,7 +5082,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251655</v>
+        <v>251917</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5085,33 +5090,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>1617.211267605634</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-12 07:20:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-06-12 07:55:32</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-06-12 07:55:32</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-06-12 08:27:49</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>114822</v>
+        <v>2291</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5120,7 +5125,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -5129,32 +5134,27 @@
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="N64" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251772</v>
+        <v>252293</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5162,33 +5162,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>637.2112676056338</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-06-12 08:27:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-10 11:17:12</t>
+          <t>2025-06-12 09:02:49</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-10 11:17:12</t>
+          <t>2025-06-12 09:02:49</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-11 13:54:25</t>
+          <t>2025-06-12 09:35:05</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>45242</v>
+        <v>2291</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5214,11 +5214,11 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-6.579460093900463</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>1</v>
@@ -5226,41 +5226,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251680</v>
+        <v>251573</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>238.112676056338</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-11 13:54:25</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-11 14:39:25</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-11 14:39:25</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-12 10:37:32</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>16906</v>
+        <v>6203</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5269,28 +5269,33 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N66" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5298,7 +5303,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251573</v>
+        <v>252235</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5306,33 +5311,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D67" t="n">
-        <v>89.89855072463769</v>
+        <v>351.5652173913044</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-06-06 09:54:53</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-06-06 09:54:53</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-06-09 07:46:27</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>6203</v>
+        <v>24258</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5341,41 +5346,36 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
-      </c>
-      <c r="N67" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-1.378401771331018</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>245623</v>
+        <v>251905</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5383,33 +5383,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
-        <v>382.8840579710145</v>
+        <v>200.5942028985507</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-06-09 07:46:27</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:53</t>
+          <t>2025-06-09 08:21:27</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:53</t>
+          <t>2025-06-09 08:21:27</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-09 08:07:46</t>
+          <t>2025-06-09 11:42:03</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>26419</v>
+        <v>13841</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5418,14 +5418,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5435,11 +5435,11 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-135.3387379227083</v>
+        <v>-12.48754025765046</v>
       </c>
       <c r="S68" t="n">
         <v>2</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>252235</v>
+        <v>251390</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5455,33 +5455,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D69" t="n">
-        <v>351.5652173913044</v>
+        <v>31.23188405797102</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-09 08:07:46</t>
+          <t>2025-06-09 11:42:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-09 09:07:46</t>
+          <t>2025-06-09 12:22:03</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-09 09:07:46</t>
+          <t>2025-06-09 12:22:03</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-09 14:59:20</t>
+          <t>2025-06-09 12:53:17</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>24258</v>
+        <v>2155</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5490,14 +5490,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -5507,11 +5507,11 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-0.5370068437962963</v>
       </c>
       <c r="S69" t="n">
         <v>7</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251972</v>
+        <v>252082</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5527,33 +5527,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
-        <v>70.26086956521739</v>
+        <v>650.5507246376811</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-09 14:59:20</t>
+          <t>2025-06-09 12:53:17</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-10 07:44:20</t>
+          <t>2025-06-09 13:28:17</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-10 07:44:20</t>
+          <t>2025-06-09 13:28:17</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-10 08:54:36</t>
+          <t>2025-06-11 08:18:50</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>4848</v>
+        <v>44888</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5562,14 +5562,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5579,19 +5579,19 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-11.37125603864583</v>
+        <v>-1.346417069247685</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252111</v>
+        <v>252121</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5599,33 +5599,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>263.5797101449276</v>
+        <v>180.4782608695652</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-10 08:54:36</t>
+          <t>2025-06-11 08:18:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-10 09:29:36</t>
+          <t>2025-06-11 08:43:50</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-10 09:29:36</t>
+          <t>2025-06-11 08:43:50</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-10 13:53:11</t>
+          <t>2025-06-11 11:44:19</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>18187</v>
+        <v>12453</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5651,11 +5651,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-5.578603059583333</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252196</v>
+        <v>252325</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5671,33 +5671,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
-        <v>682.4492753623189</v>
+        <v>262.3188405797101</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-10 13:53:11</t>
+          <t>2025-06-11 11:44:19</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-10 14:28:11</t>
+          <t>2025-06-11 12:29:19</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-10 14:28:11</t>
+          <t>2025-06-11 12:29:19</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-12 09:50:38</t>
+          <t>2025-06-12 08:51:38</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>47089</v>
+        <v>18100</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5706,11 +5706,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5735,7 +5735,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252326</v>
+        <v>251679</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5743,33 +5743,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>371.6086956521739</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-12 09:50:38</t>
+          <t>2025-06-12 08:51:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-12 10:20:38</t>
+          <t>2025-06-12 09:16:38</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-12 10:20:38</t>
+          <t>2025-06-12 09:16:38</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-13 08:32:14</t>
+          <t>2025-06-12 13:06:29</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>25641</v>
+        <v>15860</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251879</v>
+        <v>251943</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>93.859375</v>
+        <v>92.234375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:00</t>
+          <t>2025-06-05 12:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:00</t>
+          <t>2025-06-05 12:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 13:48:51</t>
+          <t>2025-06-05 13:49:14</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6007</v>
+        <v>5903</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-6.575596788194445</v>
+        <v>-6.575857204861111</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251445</v>
+        <v>251390</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -598,30 +598,30 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>424.59375</v>
+        <v>33.671875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 13:48:51</t>
+          <t>2025-06-05 13:49:14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 14:03:51</t>
+          <t>2025-06-05 14:04:14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 14:03:51</t>
+          <t>2025-06-05 14:04:14</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-06 13:08:27</t>
+          <t>2025-06-05 14:37:54</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>27174</v>
+        <v>2155</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -647,11 +647,11 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-2.547536892361111</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>7</v>
@@ -667,29 +667,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>107.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-06 13:08:27</t>
+          <t>2025-06-05 14:37:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-06 13:44:27</t>
+          <t>2025-06-06 07:11:54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-06 13:44:27</t>
+          <t>2025-06-06 07:11:54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:57</t>
+          <t>2025-06-06 08:59:24</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-4.313856336805555</v>
+        <v>-1.374587673611111</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251792</v>
+        <v>252156</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,33 +744,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>143.8125</v>
+        <v>802.65625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-09 07:31:57</t>
+          <t>2025-06-06 08:59:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-09 07:52:57</t>
+          <t>2025-06-06 09:31:24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-09 07:52:57</t>
+          <t>2025-06-06 09:31:24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-09 10:16:45</t>
+          <t>2025-06-09 14:54:03</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>9204</v>
+        <v>51370</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -779,14 +779,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -796,19 +796,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-14.42830946180556</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251898</v>
+        <v>243335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -816,33 +816,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>103.203125</v>
+        <v>515.6875</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:16:45</t>
+          <t>2025-06-09 14:54:03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:33:45</t>
+          <t>2025-06-10 07:26:03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:33:45</t>
+          <t>2025-06-10 07:26:03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:58</t>
+          <t>2025-06-11 08:01:45</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6605</v>
+        <v>33004</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -851,14 +851,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-3.511783854166667</v>
+        <v>-313.3345486111111</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251798</v>
+        <v>252110</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -888,33 +888,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>353.828125</v>
+        <v>100.15625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:58</t>
+          <t>2025-06-11 08:01:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-09 12:31:58</t>
+          <t>2025-06-11 08:33:45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-09 12:31:58</t>
+          <t>2025-06-11 08:33:45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-10 10:25:47</t>
+          <t>2025-06-11 10:13:54</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>22645</v>
+        <v>6410</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -923,14 +923,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251972</v>
+        <v>252325</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -960,33 +960,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>75.75</v>
+        <v>282.8125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-10 10:25:47</t>
+          <t>2025-06-11 10:13:54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-10 10:40:47</t>
+          <t>2025-06-11 10:34:54</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-10 10:40:47</t>
+          <t>2025-06-11 10:34:54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-10 11:56:32</t>
+          <t>2025-06-12 07:17:43</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4848</v>
+        <v>18100</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -995,14 +995,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1012,11 +1012,11 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-11.49760199652778</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251916</v>
+        <v>251917</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1032,33 +1032,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>732.421875</v>
+        <v>35.796875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-10 11:56:32</t>
+          <t>2025-06-12 07:17:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-10 12:26:32</t>
+          <t>2025-06-12 07:34:43</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-10 12:26:32</t>
+          <t>2025-06-12 07:34:43</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-12 08:38:58</t>
+          <t>2025-06-12 08:10:30</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>46875</v>
+        <v>2291</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1104,29 +1104,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>400.640625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-12 08:38:58</t>
+          <t>2025-06-12 08:10:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-12 08:57:58</t>
+          <t>2025-06-12 08:27:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-12 08:57:58</t>
+          <t>2025-06-12 08:27:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-13 07:38:36</t>
+          <t>2025-06-13 07:08:09</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1168,7 +1168,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251910</v>
+        <v>251978</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>217.0819672131148</v>
+        <v>512.2950819672132</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1188,21 +1188,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 07:42:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 07:42:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:19:04</t>
+          <t>2025-06-06 08:12:17</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13242</v>
+        <v>31250</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1228,11 +1228,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-8.471584699456018</v>
+        <v>-3.341871584699074</v>
       </c>
       <c r="S11" t="n">
         <v>7</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251519</v>
+        <v>251897</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1248,33 +1248,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>215.983606557377</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:19:04</t>
+          <t>2025-06-06 08:12:17</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:48:04</t>
+          <t>2025-06-06 08:51:17</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:48:04</t>
+          <t>2025-06-06 08:51:17</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:24:03</t>
+          <t>2025-06-06 13:56:19</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>13175</v>
+        <v>18607</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1283,36 +1283,43 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-11.58078324225694</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251747</v>
+        <v>251741</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1320,33 +1327,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>255.016393442623</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-06 07:24:03</t>
+          <t>2025-06-06 13:56:19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-06 07:51:03</t>
+          <t>2025-06-06 14:33:19</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-06 07:51:03</t>
+          <t>2025-06-06 14:33:19</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-06 12:06:04</t>
+          <t>2025-06-09 08:02:25</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>15556</v>
+        <v>5435</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1359,7 +1366,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1372,19 +1379,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-12.33501821493055</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252042</v>
+        <v>251958</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1392,33 +1399,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>125.9672131147541</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-06 12:06:04</t>
+          <t>2025-06-09 08:02:25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-06 12:33:04</t>
+          <t>2025-06-09 08:42:25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-06 12:33:04</t>
+          <t>2025-06-09 08:42:25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-06 14:39:02</t>
+          <t>2025-06-09 11:04:44</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7684</v>
+        <v>8681</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1427,14 +1434,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1444,19 +1451,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-7.610450819675926</v>
+        <v>-0.4616234061921297</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251897</v>
+        <v>251898</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1464,33 +1471,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>305.0327868852459</v>
+        <v>108.2786885245902</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-06 14:39:02</t>
+          <t>2025-06-09 11:04:44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-09 07:20:02</t>
+          <t>2025-06-09 11:29:44</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-09 07:20:02</t>
+          <t>2025-06-09 11:29:44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-09 12:25:04</t>
+          <t>2025-06-09 13:18:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>18607</v>
+        <v>6605</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1499,43 +1506,36 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-14.51741803278935</v>
+        <v>-3.554178051006944</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>252058</v>
+        <v>251798</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1543,33 +1543,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>86.88524590163935</v>
+        <v>371.2295081967213</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-09 12:25:04</t>
+          <t>2025-06-09 13:18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-09 13:00:04</t>
+          <t>2025-06-09 13:43:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-09 13:00:04</t>
+          <t>2025-06-09 13:43:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-09 14:26:58</t>
+          <t>2025-06-10 11:54:14</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5300</v>
+        <v>22645</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1578,14 +1578,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1595,11 +1595,11 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.6020605646643518</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>244023</v>
+        <v>251972</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1615,33 +1615,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>16.34426229508197</v>
+        <v>79.47540983606558</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-09 14:26:58</t>
+          <t>2025-06-10 11:54:14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-09 14:53:58</t>
+          <t>2025-06-10 12:19:14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-09 14:53:58</t>
+          <t>2025-06-10 12:19:14</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-10 07:10:18</t>
+          <t>2025-06-10 13:38:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>997</v>
+        <v>4848</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1650,14 +1650,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-253.2988274134838</v>
+        <v>-11.56855646630787</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251186</v>
+        <v>251916</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1687,33 +1687,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>418.2295081967213</v>
+        <v>768.4426229508197</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-10 07:10:18</t>
+          <t>2025-06-10 13:38:43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-10 07:39:18</t>
+          <t>2025-06-10 14:18:43</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-10 07:39:18</t>
+          <t>2025-06-10 14:18:43</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-10 14:37:32</t>
+          <t>2025-06-12 11:07:09</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>25512</v>
+        <v>46875</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1739,11 +1739,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-11.60940346083333</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1751,41 +1751,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252196</v>
+        <v>251362</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>771.9508196721312</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-10 14:37:32</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-11 07:04:32</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-11 07:04:32</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-12 11:56:29</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>47089</v>
+        <v>2505</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1794,36 +1794,41 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251752</v>
+        <v>251180</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1831,29 +1836,29 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 13:24:16</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 13:24:16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 13:24:16</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1866,17 +1871,19 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
-      </c>
-      <c r="N20" t="n">
-        <v>39846</v>
+        <v>70</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1884,7 +1891,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39846</v>
+        <v>39887</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1892,15 +1899,15 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>-15.55852895148148</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251362</v>
+        <v>251780</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1908,33 +1915,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>35.28169014084507</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 13:24:16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-04 12:32:00</t>
+          <t>2025-06-04 13:41:16</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-04 12:32:00</t>
+          <t>2025-06-04 13:41:16</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-05 11:23:31</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2505</v>
+        <v>24299</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1943,17 +1950,19 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39874</v>
+        <v>70</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1961,11 +1970,11 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39874</v>
+        <v>39887</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
@@ -1977,7 +1986,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251218</v>
+        <v>251895</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1985,33 +1994,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>96.90140845070422</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-05 11:23:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 11:52:31</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 11:52:31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-06 08:01:43</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6880</v>
+        <v>17694</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2020,17 +2029,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2038,23 +2049,23 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.2952660406828704</v>
+        <v>-11.33453638497685</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251895</v>
+        <v>252235</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2062,33 +2073,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>249.2112676056338</v>
+        <v>341.6619718309859</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-06 08:01:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-06 08:35:43</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-06 08:35:43</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-06 14:17:23</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>17694</v>
+        <v>24258</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2097,43 +2108,36 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-10.49471830986111</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251762</v>
+        <v>251218</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2141,33 +2145,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>73.35211267605634</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-06 14:17:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-06 14:36:23</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-06 14:36:23</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-05 13:34:44</t>
+          <t>2025-06-09 08:13:17</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5208</v>
+        <v>6880</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2176,36 +2180,41 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-15.56579616587963</v>
+        <v>-4.342566510173612</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251741</v>
+        <v>243569</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2213,33 +2222,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>76.54929577464789</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-05 13:34:44</t>
+          <t>2025-06-09 08:13:17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-05 13:51:44</t>
+          <t>2025-06-09 08:34:17</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-05 13:51:44</t>
+          <t>2025-06-09 08:34:17</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-06 07:08:17</t>
+          <t>2025-06-09 09:10:55</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5435</v>
+        <v>2601</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2248,14 +2257,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2265,19 +2274,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-9.297427621284722</v>
+        <v>-266.3825899843519</v>
       </c>
       <c r="S25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251943</v>
+        <v>251792</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2288,30 +2297,30 @@
         <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>83.14084507042253</v>
+        <v>129.6338028169014</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-06 07:08:17</t>
+          <t>2025-06-09 09:10:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-06 07:23:17</t>
+          <t>2025-06-09 09:25:55</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-06 07:23:17</t>
+          <t>2025-06-09 09:25:55</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-06 08:46:26</t>
+          <t>2025-06-09 11:35:33</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5903</v>
+        <v>9204</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2320,14 +2329,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2337,19 +2346,19 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-7.365580985914352</v>
+        <v>-14.48303012519676</v>
       </c>
       <c r="S26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252156</v>
+        <v>252058</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2357,33 +2366,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>723.5211267605633</v>
+        <v>74.64788732394366</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-06 08:46:26</t>
+          <t>2025-06-09 11:35:33</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-06 09:03:26</t>
+          <t>2025-06-09 12:09:33</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-06 09:03:26</t>
+          <t>2025-06-09 12:09:33</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-09 13:06:57</t>
+          <t>2025-06-09 13:24:12</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>51370</v>
+        <v>5300</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2409,14 +2418,14 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-0.5584800469444444</v>
       </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2436,22 +2445,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-09 13:06:57</t>
+          <t>2025-06-09 13:24:12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-09 13:23:57</t>
+          <t>2025-06-09 13:41:12</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-09 13:23:57</t>
+          <t>2025-06-09 13:41:12</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-12 11:45:20</t>
+          <t>2025-06-12 12:02:35</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2493,7 +2502,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251500</v>
+        <v>251879</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2501,10 +2510,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="D29" t="n">
-        <v>179.9272727272727</v>
+        <v>109.2181818181818</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2513,21 +2522,21 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:30:30</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:30:30</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 09:19:43</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>9896</v>
+        <v>6007</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2536,41 +2545,36 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-6.38869318181713</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251070</v>
+        <v>251500</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2578,33 +2582,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 09:19:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 09:52:13</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 09:52:13</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 12:52:08</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2617,7 +2621,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2635,11 +2639,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.4631439393981481</v>
+        <v>-0.5362121212152777</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -2647,7 +2651,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251773</v>
+        <v>252282</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2658,30 +2662,30 @@
         <v>32.5</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>49.78181818181818</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 12:52:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 13:24:38</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 13:24:38</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 14:14:25</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2738</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2690,17 +2694,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
       <c r="N31" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2708,15 +2712,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.4857133838425925</v>
+        <v>-0.5933522727314815</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -2724,7 +2728,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251978</v>
+        <v>251070</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2732,33 +2736,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>38.5</v>
+        <v>32.5</v>
       </c>
       <c r="D32" t="n">
-        <v>568.1818181818181</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:25</t>
+          <t>2025-06-05 14:14:25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-05 12:17:55</t>
+          <t>2025-06-05 14:46:55</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-05 12:17:55</t>
+          <t>2025-06-05 14:46:55</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-06 13:46:06</t>
+          <t>2025-06-05 14:46:55</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>31250</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2767,36 +2771,41 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
+      <c r="N32" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-3.57368686869213</v>
+        <v>-0.6159217171759259</v>
       </c>
       <c r="S32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251565</v>
+        <v>251773</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2807,30 +2816,30 @@
         <v>32.5</v>
       </c>
       <c r="D33" t="n">
-        <v>228.1636363636364</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-06 13:46:06</t>
+          <t>2025-06-05 14:46:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-06 14:18:36</t>
+          <t>2025-06-06 07:19:25</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-06 14:18:36</t>
+          <t>2025-06-06 07:19:25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-09 10:06:46</t>
+          <t>2025-06-06 07:19:25</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>12549</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2839,17 +2848,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
       <c r="N33" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2857,15 +2866,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-4.421369949490741</v>
+        <v>-1.305157828287037</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -2873,7 +2882,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251979</v>
+        <v>251992</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2881,33 +2890,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D34" t="n">
-        <v>374.1090909090909</v>
+        <v>82.27272727272727</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-09 10:06:46</t>
+          <t>2025-06-06 07:19:25</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-09 10:37:16</t>
+          <t>2025-06-06 07:51:55</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-09 10:37:16</t>
+          <t>2025-06-06 07:51:55</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-10 08:51:22</t>
+          <t>2025-06-06 09:14:12</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>20576</v>
+        <v>4525</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2916,11 +2925,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-5.369015151516203</v>
+        <v>-2.384861111111111</v>
       </c>
       <c r="S34" t="n">
         <v>7</v>
@@ -2945,7 +2954,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252111</v>
+        <v>251979</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2953,33 +2962,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32.5</v>
+        <v>38.5</v>
       </c>
       <c r="D35" t="n">
-        <v>330.6727272727273</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-10 08:51:22</t>
+          <t>2025-06-06 09:14:12</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-10 09:23:52</t>
+          <t>2025-06-06 09:52:42</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-10 09:23:52</t>
+          <t>2025-06-06 09:52:42</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-10 14:54:33</t>
+          <t>2025-06-09 08:06:48</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>18187</v>
+        <v>20576</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2988,11 +2997,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3009,15 +3018,15 @@
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-5.621218434340278</v>
+        <v>-4.33806186869213</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252195</v>
+        <v>251944</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3025,33 +3034,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="D36" t="n">
-        <v>650.0545454545454</v>
+        <v>741.2363636363636</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-10 14:54:33</t>
+          <t>2025-06-09 08:06:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-11 07:25:03</t>
+          <t>2025-06-09 08:43:18</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-11 07:25:03</t>
+          <t>2025-06-09 08:43:18</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-12 10:15:06</t>
+          <t>2025-06-10 13:04:32</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>35753</v>
+        <v>40768</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3064,7 +3073,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3077,53 +3086,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-15.54482323232639</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252084</v>
+        <v>252108</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>34.5</v>
       </c>
       <c r="D37" t="n">
-        <v>641</v>
+        <v>260.0181818181818</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-10 13:04:32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-10 13:39:02</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-10 13:39:02</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-11 09:59:03</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>39101</v>
+        <v>14301</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3136,71 +3145,66 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>-5.416016414143519</v>
       </c>
       <c r="S37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251180</v>
+        <v>252410</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>137.1090909090909</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-11 09:59:03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-11 10:35:33</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-11 10:35:33</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-11 12:52:40</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7541</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3209,77 +3213,70 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-16.43819444444444</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251984</v>
+        <v>251680</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D39" t="n">
-        <v>338.327868852459</v>
+        <v>307.3818181818182</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-11 12:52:40</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-11 13:23:10</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-11 13:23:10</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-12 10:30:33</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>20638</v>
+        <v>16906</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3292,29 +3289,24 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-1.357172131145833</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -3322,7 +3314,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251935</v>
+        <v>251565</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3330,33 +3322,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>109.655737704918</v>
+        <v>205.7213114754098</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-06 08:59:19</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-06 08:59:19</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-06 10:48:59</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>6689</v>
+        <v>12549</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3369,32 +3361,37 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
+      <c r="N40" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.450683060104167</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251993</v>
+        <v>252084</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3405,30 +3402,30 @@
         <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2295081967213</v>
+        <v>641</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-06 10:48:59</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-06 11:08:59</t>
+          <t>2025-06-04 11:05:43</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-06 11:08:59</t>
+          <t>2025-06-04 11:05:43</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-06 14:28:12</t>
+          <t>2025-06-05 13:46:43</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>12153</v>
+        <v>39101</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3441,32 +3438,37 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-0.5741120218634259</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252282</v>
+        <v>251984</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3477,30 +3479,30 @@
         <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>44.88524590163934</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-06 14:28:12</t>
+          <t>2025-06-05 13:46:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-06 14:53:12</t>
+          <t>2025-06-05 14:11:43</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-06 14:53:12</t>
+          <t>2025-06-05 14:11:43</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-09 07:38:05</t>
+          <t>2025-06-06 11:50:02</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2738</v>
+        <v>20638</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3513,13 +3515,13 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
       <c r="N42" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3527,15 +3529,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-4.318123861562499</v>
+        <v>-1.493089708564815</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3543,7 +3545,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251944</v>
+        <v>251747</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3554,30 +3556,30 @@
         <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>668.327868852459</v>
+        <v>255.016393442623</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-09 07:38:05</t>
+          <t>2025-06-06 11:50:02</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-09 07:58:05</t>
+          <t>2025-06-06 12:10:02</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-09 07:58:05</t>
+          <t>2025-06-06 12:10:02</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-10 11:06:25</t>
+          <t>2025-06-09 08:25:03</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>40768</v>
+        <v>15556</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3590,7 +3592,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3603,19 +3605,19 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-15.46279599270833</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252108</v>
+        <v>252042</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3623,33 +3625,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>234.4426229508197</v>
+        <v>125.9672131147541</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-10 11:06:25</t>
+          <t>2025-06-09 08:25:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-10 11:36:25</t>
+          <t>2025-06-09 08:50:03</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-10 11:36:25</t>
+          <t>2025-06-09 08:50:03</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-11 07:30:52</t>
+          <t>2025-06-09 10:56:01</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>14301</v>
+        <v>7684</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3662,7 +3664,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3675,19 +3677,19 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-5.313103369768519</v>
+        <v>-10.45557832422454</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252110</v>
+        <v>252082</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3698,30 +3700,30 @@
         <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>105.0819672131148</v>
+        <v>735.8688524590164</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-11 07:30:52</t>
+          <t>2025-06-09 10:56:01</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-11 07:50:52</t>
+          <t>2025-06-09 11:16:01</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-11 07:50:52</t>
+          <t>2025-06-09 11:16:01</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-11 09:35:57</t>
+          <t>2025-06-11 07:31:54</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6410</v>
+        <v>44888</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3734,7 +3736,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3747,19 +3749,19 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-06-17 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-1.313820582881944</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252410</v>
+        <v>252121</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3767,33 +3769,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
-        <v>123.6229508196721</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-11 09:35:57</t>
+          <t>2025-06-11 07:31:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-11 10:10:57</t>
+          <t>2025-06-11 07:51:54</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-11 10:10:57</t>
+          <t>2025-06-11 07:51:54</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-11 12:14:34</t>
+          <t>2025-06-11 11:16:02</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>7541</v>
+        <v>12453</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3802,11 +3804,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3831,7 +3833,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251680</v>
+        <v>251935</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3839,33 +3841,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>277.1475409836066</v>
+        <v>109.655737704918</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-11 12:14:34</t>
+          <t>2025-06-11 11:16:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-11 12:34:34</t>
+          <t>2025-06-11 11:46:02</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-11 12:34:34</t>
+          <t>2025-06-11 11:46:02</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-12 09:11:43</t>
+          <t>2025-06-11 13:35:42</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>16906</v>
+        <v>6689</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3878,7 +3880,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3891,19 +3893,19 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-6.566461748634259</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251684</v>
+        <v>251679</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3911,33 +3913,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>247.2622950819672</v>
+        <v>260</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-12 09:11:43</t>
+          <t>2025-06-11 13:35:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-12 09:31:43</t>
+          <t>2025-06-11 14:05:42</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-12 09:31:43</t>
+          <t>2025-06-11 14:05:42</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-12 13:38:59</t>
+          <t>2025-06-12 10:25:42</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>15083</v>
+        <v>15860</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3963,7 +3965,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3975,7 +3977,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251631</v>
+        <v>251752</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3986,7 +3988,7 @@
         <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>146.056338028169</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4005,11 +4007,11 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>10370</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4028,7 +4030,7 @@
         <v>76</v>
       </c>
       <c r="N49" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4036,23 +4038,23 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-1.303472222222222</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251958</v>
+        <v>251631</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4060,33 +4062,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>122.2676056338028</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:03</t>
+          <t>2025-06-05 07:32:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:03</t>
+          <t>2025-06-05 07:32:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-05 12:02:19</t>
+          <t>2025-06-05 09:58:03</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>8681</v>
+        <v>10370</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4095,36 +4097,41 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>76</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-0.415316901412037</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>243569</v>
+        <v>252395</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4135,30 +4142,30 @@
         <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>36.63380281690141</v>
+        <v>1264.605633802817</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-05 12:02:19</t>
+          <t>2025-06-05 09:58:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-05 12:19:19</t>
+          <t>2025-06-05 10:15:03</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-05 12:19:19</t>
+          <t>2025-06-05 10:15:03</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-05 12:55:57</t>
+          <t>2025-06-10 07:19:39</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2601</v>
+        <v>89787</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4167,11 +4174,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>76</v>
@@ -4184,14 +4191,14 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-262.538859546169</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -4204,29 +4211,29 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D52" t="n">
         <v>565.3521126760563</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-05 12:55:57</t>
+          <t>2025-06-10 07:19:39</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-05 13:31:57</t>
+          <t>2025-06-10 07:57:39</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-05 13:31:57</t>
+          <t>2025-06-10 07:57:39</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-06 14:57:18</t>
+          <t>2025-06-11 09:23:00</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4265,7 +4272,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-1.623131846631944</v>
+        <v>-6.390982003125001</v>
       </c>
       <c r="S52" t="n">
         <v>1</v>
@@ -4273,7 +4280,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>245623</v>
+        <v>245089</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4281,33 +4288,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
-        <v>372.0985915492957</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-06 14:57:18</t>
+          <t>2025-06-11 09:23:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:35:18</t>
+          <t>2025-06-11 09:57:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-09 07:35:18</t>
+          <t>2025-06-11 09:57:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-09 13:47:24</t>
+          <t>2025-06-16 14:44:41</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>26419</v>
+        <v>122665</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4320,10 +4327,10 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4333,53 +4340,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-135.574589201875</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>243335</v>
+        <v>251445</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
-        <v>464.8450704225352</v>
+        <v>554.5714285714286</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-09 13:47:24</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-09 14:06:24</t>
+          <t>2025-06-04 07:35:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-09 14:06:24</t>
+          <t>2025-06-04 07:35:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-10 13:51:15</t>
+          <t>2025-06-05 08:49:34</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>33004</v>
+        <v>27174</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4388,14 +4395,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4405,53 +4412,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-312.5772593896759</v>
+        <v>-1.36775793650463</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>245089</v>
+        <v>252112</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>1727.676056338028</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-10 13:51:15</t>
+          <t>2025-06-05 08:49:34</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-10 14:21:15</t>
+          <t>2025-06-05 09:29:34</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-10 14:21:15</t>
+          <t>2025-06-05 09:29:34</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-16 11:08:55</t>
+          <t>2025-06-05 13:43:42</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>122665</v>
+        <v>12453</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4460,28 +4467,33 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N55" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-0.5720238095254629</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -4489,7 +4501,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251780</v>
+        <v>251762</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4497,33 +4509,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D56" t="n">
-        <v>495.8979591836735</v>
+        <v>106.2857142857143</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-05 13:43:42</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-06-05 14:23:42</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-06-05 14:23:42</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:53</t>
+          <t>2025-06-06 08:10:00</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>24299</v>
+        <v>5208</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4541,26 +4553,19 @@
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-16.34027777777778</v>
       </c>
       <c r="S56" t="n">
         <v>7</v>
@@ -4583,22 +4588,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:53</t>
+          <t>2025-06-06 08:10:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-05 08:30:53</t>
+          <t>2025-06-06 08:50:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-05 08:30:53</t>
+          <t>2025-06-06 08:50:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-05 11:42:13</t>
+          <t>2025-06-06 12:01:19</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4632,7 +4637,7 @@
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-8.487655895694443</v>
+        <v>-9.50092120181713</v>
       </c>
       <c r="S57" t="n">
         <v>7</v>
@@ -4640,7 +4645,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251992</v>
+        <v>251910</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4648,33 +4653,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>92.34693877551021</v>
+        <v>270.2448979591837</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-05 11:42:13</t>
+          <t>2025-06-06 12:01:19</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-05 12:27:13</t>
+          <t>2025-06-06 12:36:19</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-05 12:27:13</t>
+          <t>2025-06-06 12:36:19</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-05 13:59:34</t>
+          <t>2025-06-09 09:06:34</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>4525</v>
+        <v>13242</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4687,7 +4692,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4700,11 +4705,11 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-1.583035714282407</v>
+        <v>-12.37956349206019</v>
       </c>
       <c r="S58" t="n">
         <v>7</v>
@@ -4712,7 +4717,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252112</v>
+        <v>251905</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4720,33 +4725,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D59" t="n">
-        <v>254.1428571428571</v>
+        <v>282.469387755102</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-05 13:59:34</t>
+          <t>2025-06-09 09:06:34</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-05 14:54:34</t>
+          <t>2025-06-09 09:53:34</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-05 14:54:34</t>
+          <t>2025-06-09 09:53:34</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-06 11:08:42</t>
+          <t>2025-06-09 14:36:02</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>12453</v>
+        <v>13841</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4755,41 +4760,36 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
+        <v>6</v>
+      </c>
+      <c r="M59" t="n">
+        <v>76</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2025-05-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>-12.60836167800926</v>
+      </c>
+      <c r="S59" t="n">
         <v>2</v>
-      </c>
-      <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="N59" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>2025-06-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R59" s="1" t="n">
-        <v>-1.464384920636574</v>
-      </c>
-      <c r="S59" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252395</v>
+        <v>244023</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4800,30 +4800,30 @@
         <v>37</v>
       </c>
       <c r="D60" t="n">
-        <v>1832.387755102041</v>
+        <v>20.3469387755102</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-06 11:08:42</t>
+          <t>2025-06-09 14:36:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-06 11:45:42</t>
+          <t>2025-06-10 07:13:02</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-06 11:45:42</t>
+          <t>2025-06-10 07:13:02</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-12 10:18:06</t>
+          <t>2025-06-10 07:33:23</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>89787</v>
+        <v>997</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4832,14 +4832,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4849,53 +4849,53 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-253.3148526077083</v>
       </c>
       <c r="S60" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251772</v>
+        <v>252111</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>637.2112676056338</v>
+        <v>371.1632653061225</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-10 07:33:23</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-05 07:35:00</t>
+          <t>2025-06-10 08:23:23</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-05 07:35:00</t>
+          <t>2025-06-10 08:23:23</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-06 10:12:12</t>
+          <t>2025-06-10 14:34:33</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>45242</v>
+        <v>18187</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-1.425146713611111</v>
+        <v>-5.6073270975</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4933,41 +4933,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251655</v>
+        <v>252195</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>1617.211267605634</v>
+        <v>729.6530612244898</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-06 10:12:12</t>
+          <t>2025-06-10 14:34:33</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-06 10:52:12</t>
+          <t>2025-06-11 07:09:33</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-06 10:52:12</t>
+          <t>2025-06-11 07:09:33</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-11 13:49:25</t>
+          <t>2025-06-12 11:19:12</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>114822</v>
+        <v>35753</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4976,41 +4976,36 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-6.575987871678241</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251681</v>
+        <v>251772</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5021,30 +5016,30 @@
         <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>56.12676056338028</v>
+        <v>637.2112676056338</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-06-11 13:49:25</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-11 14:24:25</t>
+          <t>2025-06-05 07:35:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-11 14:24:25</t>
+          <t>2025-06-05 07:35:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-12 07:20:32</t>
+          <t>2025-06-06 10:12:12</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3985</v>
+        <v>45242</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5057,7 +5052,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5070,11 +5065,11 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-1.425146713611111</v>
       </c>
       <c r="S63" t="n">
         <v>1</v>
@@ -5082,7 +5077,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251917</v>
+        <v>251655</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5090,33 +5085,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>32.26760563380282</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-12 07:20:32</t>
+          <t>2025-06-06 10:12:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-12 07:55:32</t>
+          <t>2025-06-06 10:52:12</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-12 07:55:32</t>
+          <t>2025-06-06 10:52:12</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-12 08:27:49</t>
+          <t>2025-06-11 13:49:25</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2291</v>
+        <v>114822</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5125,7 +5120,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -5134,27 +5129,32 @@
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
+      <c r="N64" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-6.575987871678241</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252293</v>
+        <v>251681</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5165,30 +5165,30 @@
         <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>32.26760563380282</v>
+        <v>56.12676056338028</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-12 08:27:49</t>
+          <t>2025-06-11 13:49:25</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-12 09:02:49</t>
+          <t>2025-06-11 14:24:25</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-12 09:02:49</t>
+          <t>2025-06-11 14:24:25</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-12 09:35:05</t>
+          <t>2025-06-12 07:20:32</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2291</v>
+        <v>3985</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5226,41 +5226,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251573</v>
+        <v>252293</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>35</v>
       </c>
       <c r="D66" t="n">
-        <v>89.89855072463769</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-06-12 07:20:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-06-12 07:55:32</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-06-12 07:55:32</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-06-12 08:27:49</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6203</v>
+        <v>2291</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5269,33 +5269,28 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
-        <v>100</v>
-      </c>
-      <c r="N66" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-1.378401771331018</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -5303,7 +5298,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>252235</v>
+        <v>251519</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5311,33 +5306,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>351.5652173913044</v>
+        <v>190.9420289855072</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:53</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:53</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-09 07:46:27</t>
+          <t>2025-06-06 10:45:56</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>24258</v>
+        <v>13175</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5346,14 +5341,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5363,7 +5358,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
@@ -5375,7 +5370,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251905</v>
+        <v>251573</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5383,33 +5378,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
-        <v>200.5942028985507</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-09 07:46:27</t>
+          <t>2025-06-06 10:45:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-09 08:21:27</t>
+          <t>2025-06-06 11:25:56</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-09 08:21:27</t>
+          <t>2025-06-06 11:25:56</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-09 11:42:03</t>
+          <t>2025-06-06 12:55:50</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>13841</v>
+        <v>6203</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5418,36 +5413,41 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N68" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-12.48754025765046</v>
+        <v>-1.538778180358796</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251390</v>
+        <v>251993</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5455,33 +5455,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>31.23188405797102</v>
+        <v>176.1304347826087</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-09 11:42:03</t>
+          <t>2025-06-06 12:55:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-09 12:22:03</t>
+          <t>2025-06-06 13:25:50</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-09 12:22:03</t>
+          <t>2025-06-06 13:25:50</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-09 12:53:17</t>
+          <t>2025-06-09 08:21:58</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2155</v>
+        <v>12153</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5511,15 +5511,15 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-0.5370068437962963</v>
+        <v>-0.3485909822916666</v>
       </c>
       <c r="S69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>252082</v>
+        <v>245623</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5527,33 +5527,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>650.5507246376811</v>
+        <v>382.8840579710145</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-09 12:53:17</t>
+          <t>2025-06-09 08:21:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-09 13:28:17</t>
+          <t>2025-06-09 09:01:58</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-09 13:28:17</t>
+          <t>2025-06-09 09:01:58</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-11 08:18:50</t>
+          <t>2025-06-10 07:24:51</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>44888</v>
+        <v>26419</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5562,14 +5562,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
         <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5579,11 +5579,11 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.346417069247685</v>
+        <v>-136.3089271336574</v>
       </c>
       <c r="S70" t="n">
         <v>2</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>252121</v>
+        <v>251186</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5599,33 +5599,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D71" t="n">
-        <v>180.4782608695652</v>
+        <v>369.7391304347826</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-11 08:18:50</t>
+          <t>2025-06-10 07:24:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-11 08:43:50</t>
+          <t>2025-06-10 08:04:51</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-11 08:43:50</t>
+          <t>2025-06-10 08:04:51</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-11 11:44:19</t>
+          <t>2025-06-10 14:14:35</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>12453</v>
+        <v>25512</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5651,11 +5651,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-11.59346819645833</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252325</v>
+        <v>252196</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5671,33 +5671,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>262.3188405797101</v>
+        <v>682.4492753623189</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-11 11:44:19</t>
+          <t>2025-06-10 14:14:35</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-11 12:29:19</t>
+          <t>2025-06-10 14:44:35</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-11 12:29:19</t>
+          <t>2025-06-10 14:44:35</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-12 08:51:38</t>
+          <t>2025-06-12 10:07:02</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>18100</v>
+        <v>47089</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5706,11 +5706,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5735,7 +5735,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251679</v>
+        <v>251684</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5743,33 +5743,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>229.8550724637681</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-12 08:51:38</t>
+          <t>2025-06-12 10:07:02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-12 09:16:38</t>
+          <t>2025-06-12 10:37:02</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-12 09:16:38</t>
+          <t>2025-06-12 10:37:02</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-12 13:06:29</t>
+          <t>2025-06-12 14:15:38</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>15860</v>
+        <v>15083</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251943</v>
+        <v>251978</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>92.234375</v>
+        <v>488.28125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:17:00</t>
+          <t>2025-06-05 12:15:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:17:00</t>
+          <t>2025-06-05 12:15:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 13:49:14</t>
+          <t>2025-06-06 12:23:16</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5903</v>
+        <v>31250</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -575,11 +575,11 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-6.575857204861111</v>
+        <v>-3.516167534722222</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251390</v>
+        <v>251219</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -595,33 +595,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>33.671875</v>
+        <v>107.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 13:49:14</t>
+          <t>2025-06-06 12:23:16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 14:04:14</t>
+          <t>2025-06-06 12:59:16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 14:04:14</t>
+          <t>2025-06-06 12:59:16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-05 14:37:54</t>
+          <t>2025-06-06 14:46:46</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2155</v>
+        <v>6880</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,36 +630,41 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-1.6158203125</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251219</v>
+        <v>243569</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -667,33 +672,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>107.5</v>
+        <v>40.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-05 14:37:54</t>
+          <t>2025-06-06 14:46:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-06 07:11:54</t>
+          <t>2025-06-09 07:07:46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-06 07:11:54</t>
+          <t>2025-06-09 07:07:46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-06 08:59:24</t>
+          <t>2025-06-09 07:48:25</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6880</v>
+        <v>2601</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -706,37 +711,32 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
-      <c r="N4" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.374587673611111</v>
+        <v>-266.32529296875</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252156</v>
+        <v>251792</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,33 +744,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>802.65625</v>
+        <v>143.8125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-06 08:59:24</t>
+          <t>2025-06-09 07:48:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-06 09:31:24</t>
+          <t>2025-06-09 08:03:25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-06 09:31:24</t>
+          <t>2025-06-09 08:03:25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-09 14:54:03</t>
+          <t>2025-06-09 10:27:14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>51370</v>
+        <v>9204</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -779,14 +779,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -796,19 +796,19 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-14.43557942708333</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>243335</v>
+        <v>252042</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -819,30 +819,30 @@
         <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>515.6875</v>
+        <v>120.0625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-09 14:54:03</t>
+          <t>2025-06-09 10:27:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-10 07:26:03</t>
+          <t>2025-06-09 10:59:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-10 07:26:03</t>
+          <t>2025-06-09 10:59:14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-11 08:01:45</t>
+          <t>2025-06-09 12:59:17</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>33004</v>
+        <v>7684</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -851,14 +851,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-313.3345486111111</v>
+        <v>-10.54117838541667</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252110</v>
+        <v>252082</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -888,33 +888,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>100.15625</v>
+        <v>701.375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-11 08:01:45</t>
+          <t>2025-06-09 12:59:17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-11 08:33:45</t>
+          <t>2025-06-09 13:14:17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-11 08:33:45</t>
+          <t>2025-06-09 13:14:17</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-11 10:13:54</t>
+          <t>2025-06-11 08:55:40</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6410</v>
+        <v>44888</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -940,19 +940,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-17 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-1.371994357638889</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252325</v>
+        <v>252121</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -960,33 +960,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>282.8125</v>
+        <v>194.578125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-11 10:13:54</t>
+          <t>2025-06-11 08:55:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-11 10:34:54</t>
+          <t>2025-06-11 09:10:40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-11 10:34:54</t>
+          <t>2025-06-11 09:10:40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-12 07:17:43</t>
+          <t>2025-06-11 12:25:15</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18100</v>
+        <v>12453</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -995,11 +995,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251917</v>
+        <v>251680</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1032,33 +1032,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>35.796875</v>
+        <v>264.15625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-12 07:17:43</t>
+          <t>2025-06-11 12:25:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-12 07:34:43</t>
+          <t>2025-06-11 12:48:15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-12 07:34:43</t>
+          <t>2025-06-11 12:48:15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-12 08:10:30</t>
+          <t>2025-06-12 09:12:24</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2291</v>
+        <v>16906</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1096,41 +1096,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>252326</v>
+        <v>251879</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>400.640625</v>
+        <v>98.47540983606558</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-12 08:10:30</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-12 08:27:30</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-12 08:27:30</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-13 07:08:09</t>
+          <t>2025-06-05 09:18:28</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>25641</v>
+        <v>6007</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1139,11 +1139,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1156,19 +1156,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-6.387830145717593</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251978</v>
+        <v>251445</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1176,33 +1176,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>512.2950819672132</v>
+        <v>445.4754098360656</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 09:18:28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-06-05 09:43:28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-06-05 09:43:28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-06 08:12:17</t>
+          <t>2025-06-06 09:08:57</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>31250</v>
+        <v>27174</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1228,11 +1228,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-3.341871584699074</v>
+        <v>-2.381215846990741</v>
       </c>
       <c r="S11" t="n">
         <v>7</v>
@@ -1255,22 +1255,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-06 08:12:17</t>
+          <t>2025-06-06 09:08:57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-06 08:51:17</t>
+          <t>2025-06-06 09:47:57</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-06 08:51:17</t>
+          <t>2025-06-06 09:47:57</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 13:56:19</t>
+          <t>2025-06-06 14:52:59</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-11.58078324225694</v>
+        <v>-11.62012750454861</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251741</v>
+        <v>251958</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1327,33 +1327,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D13" t="n">
-        <v>89.09836065573771</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-06 13:56:19</t>
+          <t>2025-06-06 14:52:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-06 14:33:19</t>
+          <t>2025-06-09 07:44:59</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-06 14:33:19</t>
+          <t>2025-06-09 07:44:59</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-09 08:02:25</t>
+          <t>2025-06-09 10:07:17</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5435</v>
+        <v>8681</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1362,14 +1362,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-12.33501821493055</v>
+        <v>-0.4217326958101852</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251958</v>
+        <v>251905</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1399,33 +1399,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>142.3114754098361</v>
+        <v>226.9016393442623</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-09 08:02:25</t>
+          <t>2025-06-09 10:07:17</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-09 08:42:25</t>
+          <t>2025-06-09 10:36:17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-09 08:42:25</t>
+          <t>2025-06-09 10:36:17</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-09 11:04:44</t>
+          <t>2025-06-09 14:23:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8681</v>
+        <v>13841</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
@@ -1451,19 +1451,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4616234061921297</v>
+        <v>-12.59944216758102</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251898</v>
+        <v>252337</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1471,33 +1471,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>108.2786885245902</v>
+        <v>1561.27868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-09 11:04:44</t>
+          <t>2025-06-09 14:23:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-09 11:29:44</t>
+          <t>2025-06-10 07:03:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-09 11:29:44</t>
+          <t>2025-06-10 07:03:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-09 13:18:00</t>
+          <t>2025-06-13 09:04:28</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6605</v>
+        <v>95238</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1506,14 +1506,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1523,11 +1523,11 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-07-02 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-3.554178051006944</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>2</v>
@@ -1535,41 +1535,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251798</v>
+        <v>251752</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>371.2295081967213</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-09 13:18:00</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-09 13:43:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-09 13:43:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-10 11:54:14</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>22645</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1578,70 +1578,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="n">
+        <v>39846</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39846</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251972</v>
+        <v>251895</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
-        <v>79.47540983606558</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-10 11:54:14</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-10 12:19:14</t>
+          <t>2025-06-04 13:01:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-10 12:19:14</t>
+          <t>2025-06-04 13:01:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-10 13:38:43</t>
+          <t>2025-06-05 09:10:12</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4848</v>
+        <v>17694</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1650,70 +1655,77 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" t="n">
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>39891</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>-10.38209115805556</v>
+      </c>
+      <c r="S17" t="n">
         <v>4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>76</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>-11.56855646630787</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251916</v>
+        <v>251218</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
-        <v>768.4426229508197</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-10 13:38:43</t>
+          <t>2025-06-05 09:10:12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-10 14:18:43</t>
+          <t>2025-06-05 09:48:12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-10 14:18:43</t>
+          <t>2025-06-05 09:48:12</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-12 11:07:09</t>
+          <t>2025-06-05 11:25:06</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>46875</v>
+        <v>6880</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1722,28 +1734,33 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-0.4757726917013889</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1751,7 +1768,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251362</v>
+        <v>251565</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1759,33 +1776,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D19" t="n">
-        <v>35.28169014084507</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-06-05 11:25:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-05 12:03:06</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-05 12:03:06</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-05 14:59:51</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2505</v>
+        <v>12549</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1794,17 +1811,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1812,23 +1829,23 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.6249021909259259</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251180</v>
+        <v>251780</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1836,33 +1853,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-05 14:59:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-04 13:24:16</t>
+          <t>2025-06-06 07:16:51</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-04 13:24:16</t>
+          <t>2025-06-06 07:16:51</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-04 13:24:16</t>
+          <t>2025-06-06 12:59:05</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>24299</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1875,7 +1892,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1895,11 +1912,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-15.55852895148148</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1907,7 +1924,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251780</v>
+        <v>251935</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1918,30 +1935,30 @@
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>342.2394366197183</v>
+        <v>94.21126760563381</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-04 13:24:16</t>
+          <t>2025-06-06 12:59:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-04 13:41:16</t>
+          <t>2025-06-06 13:16:05</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-04 13:41:16</t>
+          <t>2025-06-06 13:16:05</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-05 11:23:31</t>
+          <t>2025-06-06 14:50:18</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>24299</v>
+        <v>6689</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1954,39 +1971,32 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-1.618270735520833</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251895</v>
+        <v>245623</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1994,33 +2004,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>249.2112676056338</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-05 11:23:31</t>
+          <t>2025-06-06 14:50:18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:31</t>
+          <t>2025-06-09 07:24:18</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:31</t>
+          <t>2025-06-09 07:24:18</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-06 08:01:43</t>
+          <t>2025-06-09 13:36:24</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>17694</v>
+        <v>26419</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2029,43 +2039,36 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-11.33453638497685</v>
+        <v>-135.5669503129861</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>252235</v>
+        <v>251362</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2073,33 +2076,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>341.6619718309859</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-06 08:01:43</t>
+          <t>2025-06-09 13:36:24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-06 08:35:43</t>
+          <t>2025-06-09 14:08:24</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-06 08:35:43</t>
+          <t>2025-06-09 14:08:24</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-06 14:17:23</t>
+          <t>2025-06-09 14:43:41</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>24258</v>
+        <v>2505</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2112,24 +2115,29 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>76</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-4.613673708923611</v>
       </c>
       <c r="S23" t="n">
         <v>7</v>
@@ -2137,7 +2145,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251218</v>
+        <v>251798</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2145,33 +2153,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>96.90140845070422</v>
+        <v>318.943661971831</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-06 14:17:23</t>
+          <t>2025-06-09 14:43:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-06 14:36:23</t>
+          <t>2025-06-10 07:00:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-06 14:36:23</t>
+          <t>2025-06-10 07:00:41</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-09 08:13:17</t>
+          <t>2025-06-10 12:19:38</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>6880</v>
+        <v>22645</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2180,41 +2188,36 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>76</v>
       </c>
-      <c r="N24" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-4.342566510173612</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>243569</v>
+        <v>251972</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2222,33 +2225,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>36.63380281690141</v>
+        <v>68.28169014084507</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-09 08:13:17</t>
+          <t>2025-06-10 12:19:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-09 08:34:17</t>
+          <t>2025-06-10 12:34:38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-09 08:34:17</t>
+          <t>2025-06-10 12:34:38</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-09 09:10:55</t>
+          <t>2025-06-10 13:42:54</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2601</v>
+        <v>4848</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2261,7 +2264,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
@@ -2274,19 +2277,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-266.3825899843519</v>
+        <v>-11.57146909232639</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251792</v>
+        <v>252196</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2294,33 +2297,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>129.6338028169014</v>
+        <v>663.2253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-09 09:10:55</t>
+          <t>2025-06-10 13:42:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-09 09:25:55</t>
+          <t>2025-06-10 14:14:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-09 09:25:55</t>
+          <t>2025-06-10 14:14:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-09 11:35:33</t>
+          <t>2025-06-12 09:18:08</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9204</v>
+        <v>47089</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2329,14 +2332,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2346,19 +2349,19 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-14.48303012519676</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252058</v>
+        <v>251684</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2366,33 +2369,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>74.64788732394366</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-09 11:35:33</t>
+          <t>2025-06-12 09:18:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-09 12:09:33</t>
+          <t>2025-06-12 09:35:08</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-09 12:09:33</t>
+          <t>2025-06-12 09:35:08</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-09 13:24:12</t>
+          <t>2025-06-12 13:07:34</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5300</v>
+        <v>15083</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2401,11 +2404,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2418,53 +2421,53 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.5584800469444444</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>252337</v>
+        <v>251070</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>36.5</v>
       </c>
       <c r="D28" t="n">
-        <v>1341.380281690141</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-09 13:24:12</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-09 13:41:12</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-09 13:41:12</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-12 12:02:35</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>95238</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2473,7 +2476,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2482,19 +2485,24 @@
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="N28" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-07-02 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
@@ -2502,7 +2510,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251879</v>
+        <v>251773</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2510,33 +2518,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D29" t="n">
-        <v>109.2181818181818</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 07:30:30</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 07:30:30</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-05 09:19:43</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6007</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2545,31 +2553,36 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-6.38869318181713</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2582,29 +2595,29 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D30" t="n">
         <v>179.9272727272727</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-05 09:19:43</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-05 09:52:13</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-05 09:52:13</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-05 12:52:08</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2643,7 +2656,7 @@
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.5362121212152777</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -2651,7 +2664,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>252282</v>
+        <v>251741</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2659,33 +2672,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="D31" t="n">
-        <v>49.78181818181818</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:52:08</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-05 13:24:38</t>
+          <t>2025-06-05 12:15:55</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-05 13:24:38</t>
+          <t>2025-06-05 12:15:55</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-05 14:14:25</t>
+          <t>2025-06-05 13:54:44</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2738</v>
+        <v>5435</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2698,37 +2711,32 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="N31" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.5933522727314815</v>
+        <v>-8.579684343437501</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251070</v>
+        <v>251943</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2736,33 +2744,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>107.3272727272727</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:14:25</t>
+          <t>2025-06-05 13:54:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:46:55</t>
+          <t>2025-06-05 14:25:14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:46:55</t>
+          <t>2025-06-05 14:25:14</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:46:55</t>
+          <t>2025-06-06 08:12:34</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5903</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2771,41 +2779,36 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="N32" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.6159217171759259</v>
+        <v>-7.342064393935185</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251773</v>
+        <v>251979</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2813,33 +2816,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-05 14:46:55</t>
+          <t>2025-06-06 08:12:34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-06 07:19:25</t>
+          <t>2025-06-06 08:47:04</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-06 07:19:25</t>
+          <t>2025-06-06 08:47:04</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-06 07:19:25</t>
+          <t>2025-06-09 07:01:10</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20576</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2852,37 +2855,32 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
       </c>
-      <c r="N33" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-1.305157828287037</v>
+        <v>-4.292487373738425</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251992</v>
+        <v>251747</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2893,30 +2891,30 @@
         <v>32.5</v>
       </c>
       <c r="D34" t="n">
-        <v>82.27272727272727</v>
+        <v>282.8363636363636</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-06 07:19:25</t>
+          <t>2025-06-09 07:01:10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-06 07:51:55</t>
+          <t>2025-06-09 07:33:40</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-06 07:51:55</t>
+          <t>2025-06-09 07:33:40</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-06 09:14:12</t>
+          <t>2025-06-09 12:16:31</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4525</v>
+        <v>15556</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2929,7 +2927,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2942,19 +2940,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-2.384861111111111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251979</v>
+        <v>252058</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2962,33 +2960,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>38.5</v>
+        <v>34.5</v>
       </c>
       <c r="D35" t="n">
-        <v>374.1090909090909</v>
+        <v>96.36363636363636</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-06 09:14:12</t>
+          <t>2025-06-09 12:16:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-06 09:52:42</t>
+          <t>2025-06-09 12:51:01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-06 09:52:42</t>
+          <t>2025-06-09 12:51:01</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-09 08:06:48</t>
+          <t>2025-06-09 14:27:22</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>20576</v>
+        <v>5300</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2997,11 +2995,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3014,19 +3012,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-4.33806186869213</v>
+        <v>-0.6023484848495371</v>
       </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251944</v>
+        <v>244023</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3034,33 +3032,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D36" t="n">
-        <v>741.2363636363636</v>
+        <v>18.12727272727273</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-09 08:06:48</t>
+          <t>2025-06-09 14:27:22</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-09 08:43:18</t>
+          <t>2025-06-09 14:59:52</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-09 08:43:18</t>
+          <t>2025-06-09 14:59:52</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-10 13:04:32</t>
+          <t>2025-06-10 07:18:00</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>40768</v>
+        <v>997</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3073,7 +3071,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3086,19 +3084,19 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-15.54482323232639</v>
+        <v>-253.3041729798033</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252108</v>
+        <v>252111</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3106,33 +3104,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="D37" t="n">
-        <v>260.0181818181818</v>
+        <v>330.6727272727273</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-10 13:04:32</t>
+          <t>2025-06-10 07:18:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-10 13:39:02</t>
+          <t>2025-06-10 07:54:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-10 13:39:02</t>
+          <t>2025-06-10 07:54:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-11 09:59:03</t>
+          <t>2025-06-10 13:25:10</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>14301</v>
+        <v>18187</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3158,11 +3156,11 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-5.416016414143519</v>
+        <v>-5.559154040405092</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3170,7 +3168,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252410</v>
+        <v>251916</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3178,33 +3176,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D38" t="n">
-        <v>137.1090909090909</v>
+        <v>852.2727272727273</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-11 09:59:03</t>
+          <t>2025-06-10 13:25:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-11 10:35:33</t>
+          <t>2025-06-10 13:57:40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-11 10:35:33</t>
+          <t>2025-06-10 13:57:40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-11 12:52:40</t>
+          <t>2025-06-12 12:09:57</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>7541</v>
+        <v>46875</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3213,11 +3211,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3230,7 +3228,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3242,41 +3240,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251680</v>
+        <v>251984</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>307.3818181818182</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-11 12:52:40</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-11 13:23:10</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-11 13:23:10</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-12 10:30:33</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>16906</v>
+        <v>20638</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3289,20 +3287,25 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
+      <c r="N39" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
@@ -3314,7 +3317,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251565</v>
+        <v>251180</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3322,33 +3325,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>205.7213114754098</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>12549</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3361,13 +3364,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="n">
-        <v>39885</v>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3375,23 +3380,23 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-15.5613387978125</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252084</v>
+        <v>252282</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3399,33 +3404,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>641</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-04 11:05:43</t>
+          <t>2025-06-04 13:53:19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-04 11:05:43</t>
+          <t>2025-06-04 13:53:19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-05 13:46:43</t>
+          <t>2025-06-04 14:38:12</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>39101</v>
+        <v>2738</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3438,7 +3443,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3456,19 +3461,19 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.5741120218634259</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251984</v>
+        <v>252156</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3476,33 +3481,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>338.327868852459</v>
+        <v>842.1311475409836</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-05 13:46:43</t>
+          <t>2025-06-04 14:38:12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-05 14:11:43</t>
+          <t>2025-06-04 14:58:12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-05 14:11:43</t>
+          <t>2025-06-04 14:58:12</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-06 11:50:02</t>
+          <t>2025-06-06 13:00:20</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>20638</v>
+        <v>51370</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3515,37 +3520,32 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.493089708564815</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251747</v>
+        <v>252084</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3553,33 +3553,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>255.016393442623</v>
+        <v>641</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-06 11:50:02</t>
+          <t>2025-06-06 13:00:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-06 12:10:02</t>
+          <t>2025-06-06 13:35:20</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-06 12:10:02</t>
+          <t>2025-06-06 13:35:20</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-09 08:25:03</t>
+          <t>2025-06-10 08:16:20</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>15556</v>
+        <v>39101</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3592,32 +3592,37 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
+      <c r="N43" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-5.344683515486111</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252042</v>
+        <v>251772</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3625,33 +3630,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>125.9672131147541</v>
+        <v>741.672131147541</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-09 08:25:03</t>
+          <t>2025-06-10 08:16:20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-09 08:50:03</t>
+          <t>2025-06-10 08:46:20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-09 08:50:03</t>
+          <t>2025-06-10 08:46:20</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-09 10:56:01</t>
+          <t>2025-06-11 13:08:00</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>7684</v>
+        <v>45242</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3664,7 +3669,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3677,19 +3682,19 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-10.45557832422454</v>
+        <v>-6.5472336065625</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>252082</v>
+        <v>251679</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3697,33 +3702,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
-        <v>735.8688524590164</v>
+        <v>260</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-09 10:56:01</t>
+          <t>2025-06-11 13:08:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-09 11:16:01</t>
+          <t>2025-06-11 13:38:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-09 11:16:01</t>
+          <t>2025-06-11 13:38:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-11 07:31:54</t>
+          <t>2025-06-12 09:58:00</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>44888</v>
+        <v>15860</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3732,11 +3737,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3749,53 +3754,53 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-1.313820582881944</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>252121</v>
+        <v>251631</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>204.1475409836065</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-11 07:31:54</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-11 07:51:54</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-11 07:51:54</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-11 11:16:02</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>12453</v>
+        <v>10370</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3804,70 +3809,75 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>76</v>
+      </c>
+      <c r="N46" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>39885</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>-0.4049002347453703</v>
+      </c>
+      <c r="S46" t="n">
         <v>2</v>
-      </c>
-      <c r="M46" t="n">
-        <v>70</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>2025-06-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="R46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251935</v>
+        <v>251237</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D47" t="n">
-        <v>109.655737704918</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-11 11:16:02</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-11 11:46:02</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-11 11:46:02</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-11 13:35:42</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>6689</v>
+        <v>40140</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3876,70 +3886,75 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N47" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-6.566461748634259</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251679</v>
+        <v>245089</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>260</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-11 13:35:42</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-11 14:05:42</t>
+          <t>2025-06-06 12:18:24</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-11 14:05:42</t>
+          <t>2025-06-06 12:18:24</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-12 10:25:42</t>
+          <t>2025-06-12 09:06:05</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>15860</v>
+        <v>122665</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3948,14 +3963,14 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3965,7 +3980,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3977,7 +3992,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251752</v>
+        <v>252395</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3985,33 +4000,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1264.605633802817</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-12 09:06:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-12 09:25:05</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-12 09:25:05</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-16 14:29:41</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>89787</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4020,75 +4035,70 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>76</v>
       </c>
-      <c r="N49" t="n">
-        <v>39846</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>39846</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-1.303472222222222</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251631</v>
+        <v>252112</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>146.056338028169</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-05 09:58:03</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>10370</v>
+        <v>12453</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4097,14 +4107,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N50" t="n">
         <v>39885</v>
@@ -4119,53 +4129,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.415316901412037</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>252395</v>
+        <v>251911</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>1264.605633802817</v>
+        <v>191.3265306122449</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-05 09:58:03</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-05 10:15:03</t>
+          <t>2025-06-04 12:39:08</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-05 10:15:03</t>
+          <t>2025-06-04 12:39:08</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-10 07:19:39</t>
+          <t>2025-06-05 07:50:28</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>89787</v>
+        <v>9375</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4174,14 +4184,14 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4191,11 +4201,11 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-8.326714852604166</v>
       </c>
       <c r="S51" t="n">
         <v>7</v>
@@ -4203,41 +4213,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251237</v>
+        <v>251910</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>565.3521126760563</v>
+        <v>270.2448979591837</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-10 07:19:39</t>
+          <t>2025-06-05 07:50:28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-10 07:57:39</t>
+          <t>2025-06-05 08:25:28</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-10 07:57:39</t>
+          <t>2025-06-05 08:25:28</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-11 09:23:00</t>
+          <t>2025-06-05 12:55:42</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>40140</v>
+        <v>13242</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4246,75 +4256,70 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
-      </c>
-      <c r="N52" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-6.390982003125001</v>
+        <v>-8.53869047619213</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>245089</v>
+        <v>251992</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D53" t="n">
-        <v>1727.676056338028</v>
+        <v>92.34693877551021</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-11 09:23:00</t>
+          <t>2025-06-05 12:55:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-11 09:57:00</t>
+          <t>2025-06-05 13:40:42</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-11 09:57:00</t>
+          <t>2025-06-05 13:40:42</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-16 14:44:41</t>
+          <t>2025-06-06 07:13:03</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>122665</v>
+        <v>4525</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4323,14 +4328,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4340,19 +4345,19 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-2.300736961446759</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251445</v>
+        <v>251519</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4360,33 +4365,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>554.5714285714286</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-06-06 07:13:03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-06-06 08:08:03</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-06-06 08:08:03</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-05 08:49:34</t>
+          <t>2025-06-06 12:36:56</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>27174</v>
+        <v>13175</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4399,7 +4404,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4412,11 +4417,11 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-1.36775793650463</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>7</v>
@@ -4424,7 +4429,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>252112</v>
+        <v>251993</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4432,33 +4437,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>254.1428571428571</v>
+        <v>248.0204081632653</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-05 08:49:34</t>
+          <t>2025-06-06 12:36:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-05 09:29:34</t>
+          <t>2025-06-06 13:21:56</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-05 09:29:34</t>
+          <t>2025-06-06 13:21:56</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-05 13:43:42</t>
+          <t>2025-06-09 09:29:57</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>12453</v>
+        <v>12153</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4471,37 +4476,32 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="N55" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.5720238095254629</v>
+        <v>-0.3958049886574074</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251762</v>
+        <v>251898</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4509,33 +4509,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D56" t="n">
-        <v>106.2857142857143</v>
+        <v>134.7959183673469</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-05 13:43:42</t>
+          <t>2025-06-09 09:29:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:42</t>
+          <t>2025-06-09 10:06:57</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:42</t>
+          <t>2025-06-09 10:06:57</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-06 08:10:00</t>
+          <t>2025-06-09 12:21:45</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5208</v>
+        <v>6605</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4544,14 +4544,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4561,19 +4561,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-16.34027777777778</v>
+        <v>-3.51510770974537</v>
       </c>
       <c r="S56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251911</v>
+        <v>251186</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4581,33 +4581,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D57" t="n">
-        <v>191.3265306122449</v>
+        <v>520.6530612244898</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-06 08:10:00</t>
+          <t>2025-06-09 12:21:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-06 08:50:00</t>
+          <t>2025-06-09 12:58:45</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-06 08:50:00</t>
+          <t>2025-06-09 12:58:45</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-06 12:01:19</t>
+          <t>2025-06-10 13:39:24</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>9375</v>
+        <v>25512</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4633,19 +4633,19 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-9.50092120181713</v>
+        <v>-11.56903344671296</v>
       </c>
       <c r="S57" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251910</v>
+        <v>251762</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4653,33 +4653,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>270.2448979591837</v>
+        <v>106.2857142857143</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-06 12:01:19</t>
+          <t>2025-06-10 13:39:24</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-06 12:36:19</t>
+          <t>2025-06-10 14:19:24</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-06 12:36:19</t>
+          <t>2025-06-10 14:19:24</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-09 09:06:34</t>
+          <t>2025-06-11 08:05:41</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>13242</v>
+        <v>5208</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4705,11 +4705,11 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-12.37956349206019</v>
+        <v>-21.33728741496528</v>
       </c>
       <c r="S58" t="n">
         <v>7</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251905</v>
+        <v>252110</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4725,33 +4725,33 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>282.469387755102</v>
+        <v>130.8163265306123</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-09 09:06:34</t>
+          <t>2025-06-11 08:05:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-09 09:53:34</t>
+          <t>2025-06-11 08:40:41</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-09 09:53:34</t>
+          <t>2025-06-11 08:40:41</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-09 14:36:02</t>
+          <t>2025-06-11 10:51:30</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>13841</v>
+        <v>6410</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4760,14 +4760,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4777,19 +4777,19 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-12.60836167800926</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>244023</v>
+        <v>252410</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4797,33 +4797,33 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D60" t="n">
-        <v>20.3469387755102</v>
+        <v>153.8979591836735</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-09 14:36:02</t>
+          <t>2025-06-11 10:51:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-10 07:13:02</t>
+          <t>2025-06-11 11:41:30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-10 07:13:02</t>
+          <t>2025-06-11 11:41:30</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-10 07:33:23</t>
+          <t>2025-06-11 14:15:24</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>997</v>
+        <v>7541</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -4849,11 +4849,11 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-253.3148526077083</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>252111</v>
+        <v>251681</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4869,33 +4869,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>371.1632653061225</v>
+        <v>81.32653061224489</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-10 07:33:23</t>
+          <t>2025-06-11 14:15:24</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-10 08:23:23</t>
+          <t>2025-06-11 14:55:24</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-10 08:23:23</t>
+          <t>2025-06-11 14:55:24</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-10 14:34:33</t>
+          <t>2025-06-12 08:16:44</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>18187</v>
+        <v>3985</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
@@ -4921,11 +4921,11 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-5.6073270975</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252195</v>
+        <v>252293</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4944,30 +4944,30 @@
         <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>729.6530612244898</v>
+        <v>46.75510204081633</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-10 14:34:33</t>
+          <t>2025-06-12 08:16:44</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-11 07:09:33</t>
+          <t>2025-06-12 08:51:44</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-11 07:09:33</t>
+          <t>2025-06-12 08:51:44</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-12 11:19:12</t>
+          <t>2025-06-12 09:38:29</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>35753</v>
+        <v>2291</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -5005,7 +5005,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251772</v>
+        <v>251655</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5013,10 +5013,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>637.2112676056338</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -5025,21 +5025,21 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-05 07:35:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-05 07:35:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-06 10:12:12</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>45242</v>
+        <v>114822</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5048,36 +5048,41 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
+      <c r="N63" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-1.425146713611111</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251655</v>
+        <v>252108</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5085,33 +5090,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D64" t="n">
-        <v>1617.211267605634</v>
+        <v>201.4225352112676</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-06 10:12:12</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-06 10:52:12</t>
+          <t>2025-06-10 11:22:12</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-06 10:52:12</t>
+          <t>2025-06-10 11:22:12</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-11 13:49:25</t>
+          <t>2025-06-10 14:43:38</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>114822</v>
+        <v>14301</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5120,41 +5125,36 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="N64" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-6.575987871678241</v>
+        <v>-4.613634585289351</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251681</v>
+        <v>252195</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5165,30 +5165,30 @@
         <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>56.12676056338028</v>
+        <v>503.5633802816901</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-11 13:49:25</t>
+          <t>2025-06-10 14:43:38</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-11 14:24:25</t>
+          <t>2025-06-11 07:18:38</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-11 14:24:25</t>
+          <t>2025-06-11 07:18:38</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-12 07:20:32</t>
+          <t>2025-06-12 07:42:11</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3985</v>
+        <v>35753</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5226,7 +5226,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>252293</v>
+        <v>251917</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5234,29 +5234,29 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
         <v>32.26760563380282</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-12 07:20:32</t>
+          <t>2025-06-12 07:42:11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-12 07:55:32</t>
+          <t>2025-06-12 08:27:11</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-12 07:55:32</t>
+          <t>2025-06-12 08:27:11</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:27:49</t>
+          <t>2025-06-12 08:59:27</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5298,7 +5298,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251519</v>
+        <v>251573</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>190.9420289855072</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -5328,11 +5328,11 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-06 10:45:56</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>13175</v>
+        <v>6203</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5341,36 +5341,41 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N67" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251573</v>
+        <v>252235</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5378,33 +5383,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D68" t="n">
-        <v>89.89855072463769</v>
+        <v>351.5652173913044</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-06 10:45:56</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-06 11:25:56</t>
+          <t>2025-06-06 09:54:53</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-06 11:25:56</t>
+          <t>2025-06-06 09:54:53</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-06 12:55:50</t>
+          <t>2025-06-09 07:46:27</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6203</v>
+        <v>24258</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5413,41 +5418,36 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
-      </c>
-      <c r="N68" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-1.538778180358796</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251993</v>
+        <v>251944</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5455,33 +5455,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>176.1304347826087</v>
+        <v>590.8405797101449</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-06 12:55:50</t>
+          <t>2025-06-09 07:46:27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-06 13:25:50</t>
+          <t>2025-06-09 08:31:27</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-06 13:25:50</t>
+          <t>2025-06-09 08:31:27</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-09 08:21:58</t>
+          <t>2025-06-10 10:22:18</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>12153</v>
+        <v>40768</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5507,19 +5507,19 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-0.3485909822916666</v>
+        <v>-15.43215579710648</v>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>245623</v>
+        <v>251390</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5527,33 +5527,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>382.8840579710145</v>
+        <v>31.23188405797102</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-09 08:21:58</t>
+          <t>2025-06-10 10:22:18</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-09 09:01:58</t>
+          <t>2025-06-10 10:52:18</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-09 09:01:58</t>
+          <t>2025-06-10 10:52:18</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-10 07:24:51</t>
+          <t>2025-06-10 11:23:32</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>26419</v>
+        <v>2155</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5562,14 +5562,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5579,19 +5579,19 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-136.3089271336574</v>
+        <v>-1.47467793880787</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251186</v>
+        <v>243335</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5599,33 +5599,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>369.7391304347826</v>
+        <v>478.3188405797101</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-10 07:24:51</t>
+          <t>2025-06-10 11:23:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-10 08:04:51</t>
+          <t>2025-06-10 11:53:32</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-10 08:04:51</t>
+          <t>2025-06-10 11:53:32</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-10 14:14:35</t>
+          <t>2025-06-11 11:51:51</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>25512</v>
+        <v>33004</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5634,14 +5634,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
         <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -5651,11 +5651,11 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-11.59346819645833</v>
+        <v>-313.4943438003241</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252196</v>
+        <v>252325</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5671,33 +5671,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
-        <v>682.4492753623189</v>
+        <v>262.3188405797101</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-10 14:14:35</t>
+          <t>2025-06-11 11:51:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-10 14:44:35</t>
+          <t>2025-06-11 12:31:51</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-10 14:44:35</t>
+          <t>2025-06-11 12:31:51</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-12 10:07:02</t>
+          <t>2025-06-12 08:54:10</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>47089</v>
+        <v>18100</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5706,11 +5706,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5735,7 +5735,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251684</v>
+        <v>252326</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5743,33 +5743,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>218.5942028985507</v>
+        <v>371.6086956521739</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-12 10:07:02</t>
+          <t>2025-06-12 08:54:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-12 10:37:02</t>
+          <t>2025-06-12 09:19:10</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-12 10:37:02</t>
+          <t>2025-06-12 09:19:10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-12 14:15:38</t>
+          <t>2025-06-13 07:30:46</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>15083</v>
+        <v>25641</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -1535,7 +1535,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251752</v>
+        <v>251362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1565,11 +1565,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2505</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1588,7 +1588,7 @@
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1596,23 +1596,23 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251895</v>
+        <v>251752</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1620,33 +1620,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>249.2112676056338</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:01:00</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:01:00</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:10:12</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1655,19 +1655,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39846</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1675,18 +1673,18 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39891</v>
+        <v>39846</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-10.38209115805556</v>
+        <v>-0.5467233959259259</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1699,29 +1697,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
         <v>96.90140845070422</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:10:12</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:48:12</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:48:12</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:25:06</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1760,7 +1758,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4757726917013889</v>
+        <v>-0.2952660406828704</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1768,7 +1766,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251565</v>
+        <v>251895</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1779,30 +1777,30 @@
         <v>38</v>
       </c>
       <c r="D19" t="n">
-        <v>176.7464788732394</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-05 11:25:06</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:03:06</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:03:06</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 14:59:51</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12549</v>
+        <v>17694</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1811,17 +1809,19 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39885</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1829,18 +1829,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.6249021909259259</v>
+        <v>-10.49471830986111</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1853,29 +1853,29 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>342.2394366197183</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 14:59:51</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-06 07:16:51</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-06 07:16:51</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:05</t>
+          <t>2025-06-06 10:03:38</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1939,22 +1939,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:05</t>
+          <t>2025-06-06 10:03:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 13:16:05</t>
+          <t>2025-06-06 10:20:38</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 13:16:05</t>
+          <t>2025-06-06 10:20:38</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 14:50:18</t>
+          <t>2025-06-06 11:54:50</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.618270735520833</v>
+        <v>-1.496420187789352</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>245623</v>
+        <v>251565</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2004,33 +2004,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>372.0985915492957</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-06 14:50:18</t>
+          <t>2025-06-06 11:54:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:24:18</t>
+          <t>2025-06-06 12:13:50</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:24:18</t>
+          <t>2025-06-06 12:13:50</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-09 13:36:24</t>
+          <t>2025-06-09 07:10:35</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>26419</v>
+        <v>12549</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2039,36 +2039,41 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>152</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-135.5669503129861</v>
+        <v>-4.299021909236111</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251362</v>
+        <v>245623</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2076,33 +2081,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>35.28169014084507</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-09 13:36:24</t>
+          <t>2025-06-09 07:10:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-09 14:08:24</t>
+          <t>2025-06-09 07:40:35</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-09 14:08:24</t>
+          <t>2025-06-09 07:40:35</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-09 14:43:41</t>
+          <t>2025-06-09 13:52:41</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2505</v>
+        <v>26419</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2115,32 +2120,27 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-4.613673708923611</v>
+        <v>-135.578257042257</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2153,29 +2153,29 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>318.943661971831</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-09 14:43:41</t>
+          <t>2025-06-09 13:52:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-10 07:00:41</t>
+          <t>2025-06-09 14:26:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-10 07:00:41</t>
+          <t>2025-06-09 14:26:41</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-10 12:19:38</t>
+          <t>2025-06-10 11:45:38</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2232,22 +2232,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:19:38</t>
+          <t>2025-06-10 11:45:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:34:38</t>
+          <t>2025-06-10 12:00:38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:34:38</t>
+          <t>2025-06-10 12:00:38</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-10 13:42:54</t>
+          <t>2025-06-10 13:08:54</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-11.57146909232639</v>
+        <v>-11.54785798121528</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252196</v>
+        <v>251916</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2297,33 +2297,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>663.2253521126761</v>
+        <v>660.2112676056338</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-10 13:42:54</t>
+          <t>2025-06-10 13:08:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-10 14:14:54</t>
+          <t>2025-06-10 13:38:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-10 14:14:54</t>
+          <t>2025-06-10 13:38:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-12 09:18:08</t>
+          <t>2025-06-12 08:39:07</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>47089</v>
+        <v>46875</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251684</v>
+        <v>252326</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2369,33 +2369,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>212.4366197183099</v>
+        <v>361.1408450704225</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:18:08</t>
+          <t>2025-06-12 08:39:07</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:35:08</t>
+          <t>2025-06-12 08:58:07</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:35:08</t>
+          <t>2025-06-12 08:58:07</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-12 13:07:34</t>
+          <t>2025-06-12 14:59:16</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>15083</v>
+        <v>25641</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2433,7 +2433,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251070</v>
+        <v>251500</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2453,21 +2453,21 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2498,11 +2498,11 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251773</v>
+        <v>244023</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2518,33 +2518,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>18.12727272727273</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:25:03</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2553,33 +2553,28 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>-248.4757323232292</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2587,7 +2582,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251500</v>
+        <v>251070</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2595,33 +2590,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>36.5</v>
+        <v>30.5</v>
       </c>
       <c r="D30" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:25:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 11:55:33</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 11:55:33</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-06-05 11:55:33</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2634,7 +2629,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2652,11 +2647,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.4898800505092593</v>
+        <v>-0.4969128787847222</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -2664,7 +2659,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251741</v>
+        <v>251773</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2672,33 +2667,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D31" t="n">
-        <v>98.81818181818181</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-06-05 11:55:33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:55</t>
+          <t>2025-06-05 12:28:03</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:55</t>
+          <t>2025-06-05 12:28:03</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-05 13:54:44</t>
+          <t>2025-06-05 12:28:03</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2707,36 +2702,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
+      <c r="N31" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-8.579684343437501</v>
+        <v>-0.5194823232291667</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251943</v>
+        <v>251741</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2744,33 +2744,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="D32" t="n">
-        <v>107.3272727272727</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-05 13:54:44</t>
+          <t>2025-06-05 12:28:03</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:25:14</t>
+          <t>2025-06-05 13:04:33</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:25:14</t>
+          <t>2025-06-05 13:04:33</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-06 08:12:34</t>
+          <t>2025-06-05 14:43:22</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5903</v>
+        <v>5435</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-7.342064393935185</v>
+        <v>-8.613453282824073</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251979</v>
+        <v>251943</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2816,33 +2816,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>34.5</v>
+        <v>30.5</v>
       </c>
       <c r="D33" t="n">
-        <v>374.1090909090909</v>
+        <v>107.3272727272727</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:12:34</t>
+          <t>2025-06-05 14:43:22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:47:04</t>
+          <t>2025-06-06 07:13:52</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:47:04</t>
+          <t>2025-06-06 07:13:52</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-09 07:01:10</t>
+          <t>2025-06-06 09:01:12</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>20576</v>
+        <v>5903</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2851,11 +2851,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2868,11 +2868,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-4.292487373738425</v>
+        <v>-7.375833333333333</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251747</v>
+        <v>251979</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2888,33 +2888,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D34" t="n">
-        <v>282.8363636363636</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:01:10</t>
+          <t>2025-06-06 09:01:12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:40</t>
+          <t>2025-06-06 09:35:42</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:40</t>
+          <t>2025-06-06 09:35:42</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:31</t>
+          <t>2025-06-09 07:49:48</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>15556</v>
+        <v>20576</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2940,19 +2940,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-4.326256313136574</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252058</v>
+        <v>251747</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2960,33 +2960,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D35" t="n">
-        <v>96.36363636363636</v>
+        <v>282.8363636363636</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:31</t>
+          <t>2025-06-09 07:49:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-09 12:51:01</t>
+          <t>2025-06-09 08:22:18</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-09 12:51:01</t>
+          <t>2025-06-09 08:22:18</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-09 14:27:22</t>
+          <t>2025-06-09 13:05:08</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5300</v>
+        <v>15556</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3012,19 +3012,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.6023484848495371</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>244023</v>
+        <v>252058</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3032,33 +3032,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D36" t="n">
-        <v>18.12727272727273</v>
+        <v>96.36363636363636</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-09 14:27:22</t>
+          <t>2025-06-09 13:05:08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-09 14:59:52</t>
+          <t>2025-06-09 13:39:38</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-09 14:59:52</t>
+          <t>2025-06-09 13:39:38</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-10 07:18:00</t>
+          <t>2025-06-10 07:16:00</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>997</v>
+        <v>5300</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3084,14 +3084,14 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-253.3041729798033</v>
+        <v>-1.302784090914352</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3104,29 +3104,29 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="D37" t="n">
         <v>330.6727272727273</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:18:00</t>
+          <t>2025-06-10 07:16:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:54:30</t>
+          <t>2025-06-10 07:50:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:54:30</t>
+          <t>2025-06-10 07:50:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-10 13:25:10</t>
+          <t>2025-06-10 13:21:10</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-5.559154040405092</v>
+        <v>-5.556376262627315</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251916</v>
+        <v>252196</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3176,33 +3176,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D38" t="n">
-        <v>852.2727272727273</v>
+        <v>856.1636363636363</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:25:10</t>
+          <t>2025-06-10 13:21:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:57:40</t>
+          <t>2025-06-10 13:55:40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:57:40</t>
+          <t>2025-06-10 13:55:40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-12 12:09:57</t>
+          <t>2025-06-12 12:11:50</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>46875</v>
+        <v>47089</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251984</v>
+        <v>252084</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>338.327868852459</v>
+        <v>641</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3260,21 +3260,21 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:25:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:25:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-04 13:03:19</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>20638</v>
+        <v>39101</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
       <c r="N39" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3301,23 +3301,23 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-0.4173611111111111</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251180</v>
+        <v>251984</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3328,30 +3328,30 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-04 13:03:19</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-05 10:26:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-05 10:26:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-06 08:04:19</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>20638</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3364,15 +3364,13 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N40" t="n">
+        <v>39874</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3380,23 +3378,23 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-15.5613387978125</v>
+        <v>-1.3363387978125</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252282</v>
+        <v>251180</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3407,30 +3405,30 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>44.88524590163934</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-06 08:04:19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-04 13:53:19</t>
+          <t>2025-06-06 08:29:19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-04 13:53:19</t>
+          <t>2025-06-06 08:29:19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-04 14:38:12</t>
+          <t>2025-06-06 08:29:19</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2738</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3443,13 +3441,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="n">
-        <v>39885</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3457,23 +3457,23 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-17.35369990892361</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252156</v>
+        <v>252282</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3481,33 +3481,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>842.1311475409836</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-04 14:38:12</t>
+          <t>2025-06-06 08:29:19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-04 14:58:12</t>
+          <t>2025-06-06 08:54:19</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-04 14:58:12</t>
+          <t>2025-06-06 08:54:19</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-06 13:00:20</t>
+          <t>2025-06-06 09:39:12</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>51370</v>
+        <v>2738</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3525,27 +3525,32 @@
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
+      <c r="N42" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-1.4022313296875</v>
       </c>
       <c r="S42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252084</v>
+        <v>252156</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3553,33 +3558,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>641</v>
+        <v>842.1311475409836</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-06 13:00:20</t>
+          <t>2025-06-06 09:39:12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-06 13:35:20</t>
+          <t>2025-06-06 09:59:12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-06 13:35:20</t>
+          <t>2025-06-06 09:59:12</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-10 08:16:20</t>
+          <t>2025-06-10 08:01:20</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>39101</v>
+        <v>51370</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3592,29 +3597,24 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-5.344683515486111</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>7</v>
@@ -3630,29 +3630,29 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
         <v>741.672131147541</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:16:20</t>
+          <t>2025-06-10 08:01:20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:46:20</t>
+          <t>2025-06-10 08:26:20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:46:20</t>
+          <t>2025-06-10 08:26:20</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-11 13:08:00</t>
+          <t>2025-06-11 12:48:00</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-6.5472336065625</v>
+        <v>-6.533344717673611</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3709,22 +3709,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:08:00</t>
+          <t>2025-06-11 12:48:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:38:00</t>
+          <t>2025-06-11 13:18:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:38:00</t>
+          <t>2025-06-11 13:18:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-12 09:58:00</t>
+          <t>2025-06-12 09:38:00</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3843,7 +3843,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251237</v>
+        <v>252395</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>565.3521126760563</v>
+        <v>1264.605633802817</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3863,21 +3863,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 10:00:03</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 10:00:03</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-06-10 07:04:39</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>40140</v>
+        <v>89787</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3886,41 +3886,36 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
-      </c>
-      <c r="N47" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>245089</v>
+        <v>251237</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3928,33 +3923,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D48" t="n">
-        <v>1727.676056338028</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-06-10 07:04:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-06 12:18:24</t>
+          <t>2025-06-10 07:42:39</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-06 12:18:24</t>
+          <t>2025-06-10 07:42:39</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-12 09:06:05</t>
+          <t>2025-06-11 09:08:00</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>122665</v>
+        <v>40140</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3963,28 +3958,33 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N48" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-6.380565336458334</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252395</v>
+        <v>245089</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4000,24 +4000,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
-        <v>1264.605633802817</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-12 09:06:05</t>
+          <t>2025-06-11 09:08:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-12 09:25:05</t>
+          <t>2025-06-11 09:42:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-12 09:25:05</t>
+          <t>2025-06-11 09:42:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>89787</v>
+        <v>122665</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4035,11 +4035,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>76</v>
@@ -4052,19 +4052,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252112</v>
+        <v>251762</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4072,10 +4072,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>254.1428571428571</v>
+        <v>106.2857142857143</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4084,21 +4084,21 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-06-04 07:35:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-06-04 07:35:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-06-04 09:21:17</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>12453</v>
+        <v>5208</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4111,32 +4111,27 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-14.38978174603009</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -4149,29 +4144,29 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D51" t="n">
         <v>191.3265306122449</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-06-04 09:21:17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-04 12:39:08</t>
+          <t>2025-06-04 10:01:17</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-04 12:39:08</t>
+          <t>2025-06-04 10:01:17</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:28</t>
+          <t>2025-06-04 13:12:36</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4205,7 +4200,7 @@
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-8.326714852604166</v>
+        <v>-7.550425170069444</v>
       </c>
       <c r="S51" t="n">
         <v>7</v>
@@ -4228,22 +4223,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:28</t>
+          <t>2025-06-04 13:12:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-05 08:25:28</t>
+          <t>2025-06-04 13:47:36</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-05 08:25:28</t>
+          <t>2025-06-04 13:47:36</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-05 12:55:42</t>
+          <t>2025-06-05 10:17:51</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4277,7 +4272,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-8.53869047619213</v>
+        <v>-8.429067460312499</v>
       </c>
       <c r="S52" t="n">
         <v>7</v>
@@ -4300,22 +4295,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-05 12:55:42</t>
+          <t>2025-06-05 10:17:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-05 13:40:42</t>
+          <t>2025-06-05 11:02:51</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-05 13:40:42</t>
+          <t>2025-06-05 11:02:51</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-06 07:13:03</t>
+          <t>2025-06-05 12:35:12</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4349,7 +4344,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-2.300736961446759</v>
+        <v>-1.524447278912037</v>
       </c>
       <c r="S53" t="n">
         <v>7</v>
@@ -4357,7 +4352,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251519</v>
+        <v>252112</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4368,30 +4363,30 @@
         <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>268.8775510204082</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-06 07:13:03</t>
+          <t>2025-06-05 12:35:12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-06 08:08:03</t>
+          <t>2025-06-05 13:30:12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-06 08:08:03</t>
+          <t>2025-06-05 13:30:12</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-06 12:36:56</t>
+          <t>2025-06-06 09:44:20</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>13175</v>
+        <v>12453</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4409,27 +4404,32 @@
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
+      <c r="N54" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-1.405796485266204</v>
       </c>
       <c r="S54" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251993</v>
+        <v>251519</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4437,33 +4437,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>248.0204081632653</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-06 12:36:56</t>
+          <t>2025-06-06 09:44:20</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-06 13:21:56</t>
+          <t>2025-06-06 10:19:20</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-06 13:21:56</t>
+          <t>2025-06-06 10:19:20</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-09 09:29:57</t>
+          <t>2025-06-06 14:48:13</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>12153</v>
+        <v>13175</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4489,19 +4489,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.3958049886574074</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251898</v>
+        <v>251993</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4509,33 +4509,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D56" t="n">
-        <v>134.7959183673469</v>
+        <v>248.0204081632653</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-09 09:29:57</t>
+          <t>2025-06-06 14:48:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-09 10:06:57</t>
+          <t>2025-06-09 07:33:13</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-09 10:06:57</t>
+          <t>2025-06-09 07:33:13</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-09 12:21:45</t>
+          <t>2025-06-09 11:41:14</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>6605</v>
+        <v>12153</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4544,14 +4544,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4561,19 +4561,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-3.51510770974537</v>
+        <v>-0.4869756235879629</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251186</v>
+        <v>251898</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4584,30 +4584,30 @@
         <v>37</v>
       </c>
       <c r="D57" t="n">
-        <v>520.6530612244898</v>
+        <v>134.7959183673469</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:21:45</t>
+          <t>2025-06-09 11:41:14</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:58:45</t>
+          <t>2025-06-09 12:18:14</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:58:45</t>
+          <t>2025-06-09 12:18:14</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-10 13:39:24</t>
+          <t>2025-06-09 14:33:02</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>25512</v>
+        <v>6605</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4616,14 +4616,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4633,19 +4633,19 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-11.56903344671296</v>
+        <v>-3.606278344675926</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251762</v>
+        <v>251186</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4653,33 +4653,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D58" t="n">
-        <v>106.2857142857143</v>
+        <v>520.6530612244898</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-10 13:39:24</t>
+          <t>2025-06-09 14:33:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-10 14:19:24</t>
+          <t>2025-06-10 07:10:02</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-10 14:19:24</t>
+          <t>2025-06-10 07:10:02</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-11 08:05:41</t>
+          <t>2025-06-11 07:50:41</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5208</v>
+        <v>25512</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4705,14 +4705,14 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-21.33728741496528</v>
+        <v>-12.32687074829861</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4725,29 +4725,29 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D59" t="n">
         <v>130.8163265306123</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:05:41</t>
+          <t>2025-06-11 07:50:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:40:41</t>
+          <t>2025-06-11 08:30:41</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:40:41</t>
+          <t>2025-06-11 08:30:41</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-11 10:51:30</t>
+          <t>2025-06-11 10:41:30</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4804,22 +4804,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-11 10:51:30</t>
+          <t>2025-06-11 10:41:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-11 11:41:30</t>
+          <t>2025-06-11 11:31:30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-11 11:41:30</t>
+          <t>2025-06-11 11:31:30</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-11 14:15:24</t>
+          <t>2025-06-11 14:05:24</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4876,22 +4876,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:15:24</t>
+          <t>2025-06-11 14:05:24</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:55:24</t>
+          <t>2025-06-11 14:45:24</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:55:24</t>
+          <t>2025-06-11 14:45:24</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-12 08:16:44</t>
+          <t>2025-06-12 08:06:44</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4948,22 +4948,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:16:44</t>
+          <t>2025-06-12 08:06:44</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:51:44</t>
+          <t>2025-06-12 08:41:44</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:51:44</t>
+          <t>2025-06-12 08:41:44</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-12 09:38:29</t>
+          <t>2025-06-12 09:28:29</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5005,7 +5005,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251655</v>
+        <v>252108</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>1617.211267605634</v>
+        <v>201.4225352112676</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -5035,11 +5035,11 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-06-05 11:01:25</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>114822</v>
+        <v>14301</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5048,41 +5048,36 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="N63" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252108</v>
+        <v>252195</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5090,33 +5085,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>201.4225352112676</v>
+        <v>503.5633802816901</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-06-05 11:01:25</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-10 11:22:12</t>
+          <t>2025-06-05 11:36:25</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-10 11:22:12</t>
+          <t>2025-06-05 11:36:25</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-10 14:43:38</t>
+          <t>2025-06-06 11:59:59</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>14301</v>
+        <v>35753</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5142,11 +5137,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-4.613634585289351</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5154,7 +5149,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252195</v>
+        <v>251655</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5162,24 +5157,24 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>503.5633802816901</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-10 14:43:38</t>
+          <t>2025-06-06 11:59:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-11 07:18:38</t>
+          <t>2025-06-06 12:44:59</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-11 07:18:38</t>
+          <t>2025-06-06 12:44:59</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5188,7 +5183,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>35753</v>
+        <v>114822</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5197,31 +5192,36 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-7.320970266041667</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
         <v>32.26760563380282</v>
@@ -5246,17 +5246,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:27:11</t>
+          <t>2025-06-12 08:17:11</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:27:11</t>
+          <t>2025-06-12 08:17:11</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:59:27</t>
+          <t>2025-06-12 08:49:27</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5735,7 +5735,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252326</v>
+        <v>251684</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>371.6086956521739</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -5765,11 +5765,11 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-13 07:30:46</t>
+          <t>2025-06-12 12:57:46</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>25641</v>
+        <v>15083</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -1535,7 +1535,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251362</v>
+        <v>251752</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>35.28169014084507</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1565,11 +1565,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2505</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1588,7 +1588,7 @@
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39874</v>
+        <v>39846</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1596,23 +1596,23 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>39846</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251752</v>
+        <v>251895</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1620,33 +1620,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 13:01:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 13:01:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-05 09:10:12</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1655,17 +1655,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39846</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1673,18 +1675,18 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39846</v>
+        <v>39891</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.5467233959259259</v>
+        <v>-10.38209115805556</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1697,29 +1699,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
         <v>96.90140845070422</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-05 09:10:12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 09:48:12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-05 09:48:12</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 11:25:06</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1758,7 +1760,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.2952660406828704</v>
+        <v>-0.4757726917013889</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1766,7 +1768,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251895</v>
+        <v>251565</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1777,30 +1779,30 @@
         <v>38</v>
       </c>
       <c r="D19" t="n">
-        <v>249.2112676056338</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 11:25:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 12:03:06</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 12:03:06</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 14:59:51</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>17694</v>
+        <v>12549</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1809,19 +1811,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N19" t="n">
+        <v>39885</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1829,18 +1829,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-10.49471830986111</v>
+        <v>-0.6249021909259259</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1853,29 +1853,29 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
         <v>342.2394366197183</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 14:59:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-06 07:16:51</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-06 07:16:51</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-06 10:03:38</t>
+          <t>2025-06-06 12:59:05</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1939,22 +1939,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 10:03:38</t>
+          <t>2025-06-06 12:59:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 10:20:38</t>
+          <t>2025-06-06 13:16:05</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 10:20:38</t>
+          <t>2025-06-06 13:16:05</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 11:54:50</t>
+          <t>2025-06-06 14:50:18</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.496420187789352</v>
+        <v>-1.618270735520833</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251565</v>
+        <v>245623</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2004,33 +2004,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>176.7464788732394</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-06 11:54:50</t>
+          <t>2025-06-06 14:50:18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-06 12:13:50</t>
+          <t>2025-06-09 07:24:18</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-06 12:13:50</t>
+          <t>2025-06-09 07:24:18</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:10:35</t>
+          <t>2025-06-09 13:36:24</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12549</v>
+        <v>26419</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2039,41 +2039,36 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-4.299021909236111</v>
+        <v>-135.5669503129861</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>245623</v>
+        <v>251362</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2081,33 +2076,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>372.0985915492957</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-09 07:10:35</t>
+          <t>2025-06-09 13:36:24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-09 07:40:35</t>
+          <t>2025-06-09 14:08:24</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-09 07:40:35</t>
+          <t>2025-06-09 14:08:24</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-09 13:52:41</t>
+          <t>2025-06-09 14:43:41</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>26419</v>
+        <v>2505</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2120,27 +2115,32 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>152</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-135.578257042257</v>
+        <v>-4.613673708923611</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2153,29 +2153,29 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
         <v>318.943661971831</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-09 13:52:41</t>
+          <t>2025-06-09 14:43:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-09 14:26:41</t>
+          <t>2025-06-10 07:00:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-09 14:26:41</t>
+          <t>2025-06-10 07:00:41</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-10 11:45:38</t>
+          <t>2025-06-10 12:19:38</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2232,22 +2232,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-10 11:45:38</t>
+          <t>2025-06-10 12:19:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:00:38</t>
+          <t>2025-06-10 12:34:38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:00:38</t>
+          <t>2025-06-10 12:34:38</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-10 13:08:54</t>
+          <t>2025-06-10 13:42:54</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-11.54785798121528</v>
+        <v>-11.57146909232639</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251916</v>
+        <v>252196</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2297,33 +2297,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>660.2112676056338</v>
+        <v>663.2253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-10 13:08:54</t>
+          <t>2025-06-10 13:42:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-10 13:38:54</t>
+          <t>2025-06-10 14:14:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-10 13:38:54</t>
+          <t>2025-06-10 14:14:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-12 08:39:07</t>
+          <t>2025-06-12 09:18:08</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>46875</v>
+        <v>47089</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252326</v>
+        <v>251684</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2369,33 +2369,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>361.1408450704225</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-12 08:39:07</t>
+          <t>2025-06-12 09:18:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-12 08:58:07</t>
+          <t>2025-06-12 09:35:08</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-12 08:58:07</t>
+          <t>2025-06-12 09:35:08</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-12 14:59:16</t>
+          <t>2025-06-12 13:07:34</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>25641</v>
+        <v>15083</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2433,7 +2433,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251500</v>
+        <v>251070</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D28" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2453,21 +2453,21 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2498,11 +2498,11 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>244023</v>
+        <v>251773</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2518,33 +2518,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D29" t="n">
-        <v>18.12727272727273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-05 11:25:03</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2553,28 +2553,33 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-248.4757323232292</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2582,7 +2587,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251070</v>
+        <v>251500</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2590,33 +2595,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:25:03</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:33</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:33</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:33</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2629,7 +2634,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2647,11 +2652,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.4969128787847222</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -2659,7 +2664,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251773</v>
+        <v>251741</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2667,33 +2672,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:33</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:03</t>
+          <t>2025-06-05 12:15:55</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:03</t>
+          <t>2025-06-05 12:15:55</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:03</t>
+          <t>2025-06-05 13:54:44</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5435</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2702,41 +2707,36 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="N31" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.5194823232291667</v>
+        <v>-8.579684343437501</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251741</v>
+        <v>251943</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2744,33 +2744,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>36.5</v>
+        <v>30.5</v>
       </c>
       <c r="D32" t="n">
-        <v>98.81818181818181</v>
+        <v>107.3272727272727</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:03</t>
+          <t>2025-06-05 13:54:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-05 13:04:33</t>
+          <t>2025-06-05 14:25:14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-05 13:04:33</t>
+          <t>2025-06-05 14:25:14</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:43:22</t>
+          <t>2025-06-06 08:12:34</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5435</v>
+        <v>5903</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-8.613453282824073</v>
+        <v>-7.342064393935185</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251943</v>
+        <v>251979</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2816,33 +2816,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30.5</v>
+        <v>34.5</v>
       </c>
       <c r="D33" t="n">
-        <v>107.3272727272727</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-05 14:43:22</t>
+          <t>2025-06-06 08:12:34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-06 07:13:52</t>
+          <t>2025-06-06 08:47:04</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-06 07:13:52</t>
+          <t>2025-06-06 08:47:04</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-06 09:01:12</t>
+          <t>2025-06-09 07:01:10</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5903</v>
+        <v>20576</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2851,11 +2851,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2868,11 +2868,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-7.375833333333333</v>
+        <v>-4.292487373738425</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251979</v>
+        <v>251747</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2888,33 +2888,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D34" t="n">
-        <v>374.1090909090909</v>
+        <v>282.8363636363636</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-06 09:01:12</t>
+          <t>2025-06-09 07:01:10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-06 09:35:42</t>
+          <t>2025-06-09 07:33:40</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-06 09:35:42</t>
+          <t>2025-06-09 07:33:40</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:49:48</t>
+          <t>2025-06-09 12:16:31</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>20576</v>
+        <v>15556</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2940,19 +2940,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-4.326256313136574</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251747</v>
+        <v>252058</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2960,33 +2960,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D35" t="n">
-        <v>282.8363636363636</v>
+        <v>96.36363636363636</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-09 07:49:48</t>
+          <t>2025-06-09 12:16:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-09 08:22:18</t>
+          <t>2025-06-09 12:51:01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-09 08:22:18</t>
+          <t>2025-06-09 12:51:01</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-09 13:05:08</t>
+          <t>2025-06-09 14:27:22</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>15556</v>
+        <v>5300</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3012,19 +3012,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-0.6023484848495371</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252058</v>
+        <v>244023</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3032,33 +3032,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D36" t="n">
-        <v>96.36363636363636</v>
+        <v>18.12727272727273</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-09 13:05:08</t>
+          <t>2025-06-09 14:27:22</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-09 13:39:38</t>
+          <t>2025-06-09 14:59:52</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-09 13:39:38</t>
+          <t>2025-06-09 14:59:52</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-10 07:16:00</t>
+          <t>2025-06-10 07:18:00</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5300</v>
+        <v>997</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3084,14 +3084,14 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-1.302784090914352</v>
+        <v>-253.3041729798033</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3104,29 +3104,29 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="D37" t="n">
         <v>330.6727272727273</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:16:00</t>
+          <t>2025-06-10 07:18:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:50:30</t>
+          <t>2025-06-10 07:54:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:50:30</t>
+          <t>2025-06-10 07:54:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-10 13:21:10</t>
+          <t>2025-06-10 13:25:10</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-5.556376262627315</v>
+        <v>-5.559154040405092</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252196</v>
+        <v>251916</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3176,33 +3176,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D38" t="n">
-        <v>856.1636363636363</v>
+        <v>852.2727272727273</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:21:10</t>
+          <t>2025-06-10 13:25:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:55:40</t>
+          <t>2025-06-10 13:57:40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:55:40</t>
+          <t>2025-06-10 13:57:40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-12 12:11:50</t>
+          <t>2025-06-12 12:09:57</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>47089</v>
+        <v>46875</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251984</v>
+        <v>251180</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3325,10 +3325,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>338.327868852459</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3337,21 +3337,21 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:26:00</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:26:00</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:19</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>20638</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3364,13 +3364,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="n">
-        <v>39874</v>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3378,23 +3380,23 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>39874</v>
+        <v>39887</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.3363387978125</v>
+        <v>-16.43819444444444</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251180</v>
+        <v>251984</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3405,30 +3407,30 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:19</t>
+          <t>2025-06-05 10:31:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:19</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:19</t>
+          <t>2025-06-05 10:56:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:19</t>
+          <t>2025-06-06 08:34:19</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>20638</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3441,15 +3443,13 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N41" t="n">
+        <v>39874</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3457,18 +3457,18 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-17.35369990892361</v>
+        <v>-1.357172131145833</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3481,29 +3481,29 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>44.88524590163934</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:19</t>
+          <t>2025-06-06 08:34:19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-06 08:54:19</t>
+          <t>2025-06-06 09:04:19</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-06 08:54:19</t>
+          <t>2025-06-06 09:04:19</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-06 09:39:12</t>
+          <t>2025-06-06 09:49:12</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.4022313296875</v>
+        <v>-1.409175774131944</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3565,22 +3565,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:39:12</t>
+          <t>2025-06-06 09:49:12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:59:12</t>
+          <t>2025-06-06 10:09:12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:59:12</t>
+          <t>2025-06-06 10:09:12</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-10 08:01:20</t>
+          <t>2025-06-10 08:11:20</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3637,22 +3637,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:01:20</t>
+          <t>2025-06-10 08:11:20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:26:20</t>
+          <t>2025-06-10 08:36:20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:26:20</t>
+          <t>2025-06-10 08:36:20</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-11 12:48:00</t>
+          <t>2025-06-11 12:58:00</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-6.533344717673611</v>
+        <v>-6.540289162118055</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3709,22 +3709,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-11 12:48:00</t>
+          <t>2025-06-11 12:58:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:18:00</t>
+          <t>2025-06-11 13:28:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:18:00</t>
+          <t>2025-06-11 13:28:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-12 09:38:00</t>
+          <t>2025-06-12 09:48:00</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3843,7 +3843,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252395</v>
+        <v>251237</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D47" t="n">
-        <v>1264.605633802817</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3863,21 +3863,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-10 07:04:39</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>89787</v>
+        <v>40140</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3886,36 +3886,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N47" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251237</v>
+        <v>245089</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3923,33 +3928,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>565.3521126760563</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-10 07:04:39</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-10 07:42:39</t>
+          <t>2025-06-06 12:18:24</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-10 07:42:39</t>
+          <t>2025-06-06 12:18:24</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-11 09:08:00</t>
+          <t>2025-06-12 09:06:05</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>40140</v>
+        <v>122665</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3958,33 +3963,28 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
-      </c>
-      <c r="N48" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-6.380565336458334</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>245089</v>
+        <v>252395</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4000,24 +4000,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>1727.676056338028</v>
+        <v>1264.605633802817</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-11 09:08:00</t>
+          <t>2025-06-12 09:06:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-11 09:42:00</t>
+          <t>2025-06-12 09:25:05</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-11 09:42:00</t>
+          <t>2025-06-12 09:25:05</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>122665</v>
+        <v>89787</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4035,11 +4035,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>76</v>
@@ -4052,14 +4052,14 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -5735,7 +5735,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251684</v>
+        <v>252326</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>218.5942028985507</v>
+        <v>371.6086956521739</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -5765,11 +5765,11 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-12 12:57:46</t>
+          <t>2025-06-13 07:30:46</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>15083</v>
+        <v>25641</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -1996,7 +1996,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>245623</v>
+        <v>251362</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>372.0985915492957</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2016,21 +2016,21 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:24:18</t>
+          <t>2025-06-09 07:22:18</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:24:18</t>
+          <t>2025-06-09 07:22:18</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-09 13:36:24</t>
+          <t>2025-06-09 07:57:35</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>26419</v>
+        <v>2505</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2043,32 +2043,37 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>152</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-135.5669503129861</v>
+        <v>-4.331660798125</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251362</v>
+        <v>245623</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2079,30 +2084,30 @@
         <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>35.28169014084507</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-09 13:36:24</t>
+          <t>2025-06-09 07:57:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-09 14:08:24</t>
+          <t>2025-06-09 08:29:35</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-09 14:08:24</t>
+          <t>2025-06-09 08:29:35</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-09 14:43:41</t>
+          <t>2025-06-09 14:41:41</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2505</v>
+        <v>26419</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2115,32 +2120,27 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-4.613673708923611</v>
+        <v>-135.6122848200347</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2153,29 +2153,29 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>318.943661971831</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-09 14:43:41</t>
+          <t>2025-06-09 14:41:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-10 07:00:41</t>
+          <t>2025-06-10 07:15:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-10 07:00:41</t>
+          <t>2025-06-10 07:15:41</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-10 12:19:38</t>
+          <t>2025-06-10 12:34:38</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2232,22 +2232,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:19:38</t>
+          <t>2025-06-10 12:34:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:34:38</t>
+          <t>2025-06-10 12:49:38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:34:38</t>
+          <t>2025-06-10 12:49:38</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-10 13:42:54</t>
+          <t>2025-06-10 13:57:54</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-11.57146909232639</v>
+        <v>-11.58188575899305</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2304,22 +2304,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-10 13:42:54</t>
+          <t>2025-06-10 13:57:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-10 14:14:54</t>
+          <t>2025-06-10 14:29:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-10 14:14:54</t>
+          <t>2025-06-10 14:29:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-12 09:18:08</t>
+          <t>2025-06-12 09:33:08</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2376,22 +2376,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:18:08</t>
+          <t>2025-06-12 09:33:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:35:08</t>
+          <t>2025-06-12 09:50:08</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:35:08</t>
+          <t>2025-06-12 09:50:08</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-12 13:07:34</t>
+          <t>2025-06-12 13:22:34</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -3240,7 +3240,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252084</v>
+        <v>251984</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>641</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3260,21 +3260,21 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:25:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>39101</v>
+        <v>20638</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
       <c r="N39" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3301,18 +3301,18 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3325,29 +3325,29 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 13:03:19</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-16.43819444444444</v>
+        <v>-15.5613387978125</v>
       </c>
       <c r="S40" t="n">
         <v>7</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3407,30 +3407,30 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-06-04 13:28:19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-04 13:53:19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-06-04 13:53:19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-04 14:38:12</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
       <c r="N41" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3457,15 +3457,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-1.357172131145833</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252282</v>
+        <v>252156</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3481,33 +3481,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>44.88524590163934</v>
+        <v>842.1311475409836</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-06-04 14:38:12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:19</t>
+          <t>2025-06-04 14:58:12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:19</t>
+          <t>2025-06-04 14:58:12</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-06-06 13:00:20</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2738</v>
+        <v>51370</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3525,32 +3525,27 @@
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.409175774131944</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252156</v>
+        <v>251772</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3558,33 +3553,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>842.1311475409836</v>
+        <v>741.672131147541</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-06-06 13:00:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-06 10:09:12</t>
+          <t>2025-06-06 13:25:20</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-06 10:09:12</t>
+          <t>2025-06-06 13:25:20</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-10 08:11:20</t>
+          <t>2025-06-10 09:47:00</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>51370</v>
+        <v>45242</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3597,7 +3592,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3610,19 +3605,19 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-5.407650273229167</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251772</v>
+        <v>252084</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3630,24 +3625,24 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>741.672131147541</v>
+        <v>641</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:11:20</t>
+          <t>2025-06-10 09:47:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:36:20</t>
+          <t>2025-06-10 10:17:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:36:20</t>
+          <t>2025-06-10 10:17:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3656,7 +3651,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>45242</v>
+        <v>39101</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3669,27 +3664,32 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
         <v>-6.540289162118055</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
         <v>260</v>
@@ -3714,17 +3714,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:28:00</t>
+          <t>2025-06-11 13:38:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:28:00</t>
+          <t>2025-06-11 13:38:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-12 09:48:00</t>
+          <t>2025-06-12 09:58:00</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -4064,7 +4064,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251762</v>
+        <v>252112</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4072,10 +4072,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>106.2857142857143</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4084,21 +4084,21 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-04 09:21:17</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5208</v>
+        <v>12453</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4111,27 +4111,32 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-14.38978174603009</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4144,29 +4149,29 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
         <v>191.3265306122449</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-04 09:21:17</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-04 10:01:17</t>
+          <t>2025-06-04 12:39:08</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-04 10:01:17</t>
+          <t>2025-06-04 12:39:08</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-04 13:12:36</t>
+          <t>2025-06-05 07:50:28</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4200,7 +4205,7 @@
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-7.550425170069444</v>
+        <v>-8.326714852604166</v>
       </c>
       <c r="S51" t="n">
         <v>7</v>
@@ -4223,22 +4228,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-04 13:12:36</t>
+          <t>2025-06-05 07:50:28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-04 13:47:36</t>
+          <t>2025-06-05 08:25:28</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-04 13:47:36</t>
+          <t>2025-06-05 08:25:28</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-05 10:17:51</t>
+          <t>2025-06-05 12:55:42</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4272,7 +4277,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-8.429067460312499</v>
+        <v>-8.53869047619213</v>
       </c>
       <c r="S52" t="n">
         <v>7</v>
@@ -4295,22 +4300,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-05 10:17:51</t>
+          <t>2025-06-05 12:55:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-05 11:02:51</t>
+          <t>2025-06-05 13:40:42</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-05 11:02:51</t>
+          <t>2025-06-05 13:40:42</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:12</t>
+          <t>2025-06-06 07:13:03</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4344,7 +4349,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-1.524447278912037</v>
+        <v>-2.300736961446759</v>
       </c>
       <c r="S53" t="n">
         <v>7</v>
@@ -4352,7 +4357,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252112</v>
+        <v>251519</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4363,30 +4368,30 @@
         <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>254.1428571428571</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:12</t>
+          <t>2025-06-06 07:13:03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-05 13:30:12</t>
+          <t>2025-06-06 08:08:03</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-05 13:30:12</t>
+          <t>2025-06-06 08:08:03</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:20</t>
+          <t>2025-06-06 12:36:56</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>12453</v>
+        <v>13175</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4404,32 +4409,27 @@
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="N54" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-1.405796485266204</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251519</v>
+        <v>251993</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4437,33 +4437,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>268.8775510204082</v>
+        <v>248.0204081632653</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:20</t>
+          <t>2025-06-06 12:36:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-06 10:19:20</t>
+          <t>2025-06-06 13:21:56</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-06 10:19:20</t>
+          <t>2025-06-06 13:21:56</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-06 14:48:13</t>
+          <t>2025-06-09 09:29:57</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>13175</v>
+        <v>12153</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4489,19 +4489,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-0.3958049886574074</v>
       </c>
       <c r="S55" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251993</v>
+        <v>251898</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4509,33 +4509,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D56" t="n">
-        <v>248.0204081632653</v>
+        <v>134.7959183673469</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-06 14:48:13</t>
+          <t>2025-06-09 09:29:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:13</t>
+          <t>2025-06-09 10:06:57</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:13</t>
+          <t>2025-06-09 10:06:57</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-09 11:41:14</t>
+          <t>2025-06-09 12:21:45</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>12153</v>
+        <v>6605</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4544,14 +4544,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4561,19 +4561,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.4869756235879629</v>
+        <v>-3.51510770974537</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251898</v>
+        <v>251186</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4584,30 +4584,30 @@
         <v>37</v>
       </c>
       <c r="D57" t="n">
-        <v>134.7959183673469</v>
+        <v>520.6530612244898</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-09 11:41:14</t>
+          <t>2025-06-09 12:21:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:18:14</t>
+          <t>2025-06-09 12:58:45</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:18:14</t>
+          <t>2025-06-09 12:58:45</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-09 14:33:02</t>
+          <t>2025-06-10 13:39:24</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>6605</v>
+        <v>25512</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4616,14 +4616,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4633,19 +4633,19 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-3.606278344675926</v>
+        <v>-11.56903344671296</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251186</v>
+        <v>251762</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4653,33 +4653,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>520.6530612244898</v>
+        <v>106.2857142857143</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-09 14:33:02</t>
+          <t>2025-06-10 13:39:24</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-10 07:10:02</t>
+          <t>2025-06-10 14:19:24</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-10 07:10:02</t>
+          <t>2025-06-10 14:19:24</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-11 07:50:41</t>
+          <t>2025-06-11 08:05:41</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>25512</v>
+        <v>5208</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4705,14 +4705,14 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-12.32687074829861</v>
+        <v>-21.33728741496528</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -4725,29 +4725,29 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
         <v>130.8163265306123</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-11 07:50:41</t>
+          <t>2025-06-11 08:05:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:30:41</t>
+          <t>2025-06-11 08:40:41</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:30:41</t>
+          <t>2025-06-11 08:40:41</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-11 10:41:30</t>
+          <t>2025-06-11 10:51:30</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4804,22 +4804,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-11 10:41:30</t>
+          <t>2025-06-11 10:51:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-11 11:31:30</t>
+          <t>2025-06-11 11:41:30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-11 11:31:30</t>
+          <t>2025-06-11 11:41:30</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-11 14:05:24</t>
+          <t>2025-06-11 14:15:24</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4876,22 +4876,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:05:24</t>
+          <t>2025-06-11 14:15:24</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:45:24</t>
+          <t>2025-06-11 14:55:24</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:45:24</t>
+          <t>2025-06-11 14:55:24</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-12 08:06:44</t>
+          <t>2025-06-12 08:16:44</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4948,22 +4948,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:06:44</t>
+          <t>2025-06-12 08:16:44</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:41:44</t>
+          <t>2025-06-12 08:51:44</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:41:44</t>
+          <t>2025-06-12 08:51:44</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-12 09:28:29</t>
+          <t>2025-06-12 09:38:29</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5005,7 +5005,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252108</v>
+        <v>251655</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>201.4225352112676</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -5035,11 +5035,11 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-05 11:01:25</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>14301</v>
+        <v>114822</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5048,36 +5048,41 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
+      <c r="N63" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252195</v>
+        <v>252108</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5085,33 +5090,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D64" t="n">
-        <v>503.5633802816901</v>
+        <v>201.4225352112676</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-05 11:01:25</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-05 11:36:25</t>
+          <t>2025-06-10 11:22:12</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-05 11:36:25</t>
+          <t>2025-06-10 11:22:12</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-06 11:59:59</t>
+          <t>2025-06-10 14:43:38</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>35753</v>
+        <v>14301</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5137,11 +5142,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-4.613634585289351</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5149,7 +5154,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251655</v>
+        <v>252195</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5157,24 +5162,24 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>1617.211267605634</v>
+        <v>503.5633802816901</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-06 11:59:59</t>
+          <t>2025-06-10 14:43:38</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-06 12:44:59</t>
+          <t>2025-06-11 07:18:38</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-06 12:44:59</t>
+          <t>2025-06-11 07:18:38</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5183,7 +5188,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>114822</v>
+        <v>35753</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5192,36 +5197,31 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-7.320970266041667</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
         <v>32.26760563380282</v>
@@ -5246,17 +5246,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:17:11</t>
+          <t>2025-06-12 08:27:11</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:17:11</t>
+          <t>2025-06-12 08:27:11</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:49:27</t>
+          <t>2025-06-12 08:59:27</t>
         </is>
       </c>
       <c r="I66" t="n">

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -1535,7 +1535,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251752</v>
+        <v>251362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1565,11 +1565,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2505</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1588,7 +1588,7 @@
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1596,23 +1596,23 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251895</v>
+        <v>251752</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1620,33 +1620,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>249.2112676056338</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:01:00</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:01:00</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:10:12</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1655,19 +1655,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39846</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1675,18 +1673,18 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39891</v>
+        <v>39846</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-10.38209115805556</v>
+        <v>-0.5467233959259259</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1699,29 +1697,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
         <v>96.90140845070422</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:10:12</t>
+          <t>2025-06-04 13:07:16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:48:12</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:48:12</t>
+          <t>2025-06-04 13:28:16</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:25:06</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1760,7 +1758,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4757726917013889</v>
+        <v>-0.2952660406828704</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1768,7 +1766,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251565</v>
+        <v>251895</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1779,30 +1777,30 @@
         <v>38</v>
       </c>
       <c r="D19" t="n">
-        <v>176.7464788732394</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-05 11:25:06</t>
+          <t>2025-06-05 07:05:10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:03:06</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:03:06</t>
+          <t>2025-06-05 07:43:10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 14:59:51</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12549</v>
+        <v>17694</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1811,17 +1809,19 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39885</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1829,18 +1829,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.6249021909259259</v>
+        <v>-10.49471830986111</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1853,29 +1853,29 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>342.2394366197183</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 14:59:51</t>
+          <t>2025-06-05 11:52:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-06 07:16:51</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-06 07:16:51</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:05</t>
+          <t>2025-06-06 10:03:38</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1939,22 +1939,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:05</t>
+          <t>2025-06-06 10:03:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 13:16:05</t>
+          <t>2025-06-06 10:20:38</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 13:16:05</t>
+          <t>2025-06-06 10:20:38</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 14:50:18</t>
+          <t>2025-06-06 11:54:50</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.618270735520833</v>
+        <v>-1.496420187789352</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251362</v>
+        <v>251565</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2004,33 +2004,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>35.28169014084507</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-06 14:50:18</t>
+          <t>2025-06-06 11:54:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:22:18</t>
+          <t>2025-06-06 12:13:50</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:22:18</t>
+          <t>2025-06-06 12:13:50</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:57:35</t>
+          <t>2025-06-09 07:10:35</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2505</v>
+        <v>12549</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2039,17 +2039,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2057,18 +2057,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-4.331660798125</v>
+        <v>-4.299021909236111</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2081,29 +2081,29 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>372.0985915492957</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-09 07:57:35</t>
+          <t>2025-06-09 07:10:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-09 08:29:35</t>
+          <t>2025-06-09 07:40:35</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-09 08:29:35</t>
+          <t>2025-06-09 07:40:35</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-09 14:41:41</t>
+          <t>2025-06-09 13:52:41</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-135.6122848200347</v>
+        <v>-135.578257042257</v>
       </c>
       <c r="S23" t="n">
         <v>2</v>
@@ -2160,22 +2160,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-09 14:41:41</t>
+          <t>2025-06-09 13:52:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-10 07:15:41</t>
+          <t>2025-06-09 14:26:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-10 07:15:41</t>
+          <t>2025-06-09 14:26:41</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-10 12:34:38</t>
+          <t>2025-06-10 11:45:38</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2232,22 +2232,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:34:38</t>
+          <t>2025-06-10 11:45:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:49:38</t>
+          <t>2025-06-10 12:00:38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:49:38</t>
+          <t>2025-06-10 12:00:38</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-10 13:57:54</t>
+          <t>2025-06-10 13:08:54</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-11.58188575899305</v>
+        <v>-11.54785798121528</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252196</v>
+        <v>251916</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2297,33 +2297,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>663.2253521126761</v>
+        <v>660.2112676056338</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-10 13:57:54</t>
+          <t>2025-06-10 13:08:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-10 14:29:54</t>
+          <t>2025-06-10 13:38:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-10 14:29:54</t>
+          <t>2025-06-10 13:38:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-12 09:33:08</t>
+          <t>2025-06-12 08:39:07</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>47089</v>
+        <v>46875</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251684</v>
+        <v>252326</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2369,33 +2369,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>212.4366197183099</v>
+        <v>361.1408450704225</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:33:08</t>
+          <t>2025-06-12 08:39:07</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:50:08</t>
+          <t>2025-06-12 08:58:07</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:50:08</t>
+          <t>2025-06-12 08:58:07</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-12 13:22:34</t>
+          <t>2025-06-12 14:59:16</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>15083</v>
+        <v>25641</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2433,7 +2433,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251070</v>
+        <v>251500</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2453,21 +2453,21 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2498,11 +2498,11 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251773</v>
+        <v>244023</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2518,33 +2518,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>18.12727272727273</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:06:55</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:25:03</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2553,33 +2553,28 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>-248.4757323232292</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2587,7 +2582,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251500</v>
+        <v>251070</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2595,33 +2590,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>36.5</v>
+        <v>30.5</v>
       </c>
       <c r="D30" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-06-05 11:25:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 11:55:33</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-06-05 11:55:33</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-06-05 11:55:33</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2634,7 +2629,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2652,11 +2647,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.4898800505092593</v>
+        <v>-0.4969128787847222</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -2664,7 +2659,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251741</v>
+        <v>251773</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2672,33 +2667,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D31" t="n">
-        <v>98.81818181818181</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-06-05 11:55:33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:55</t>
+          <t>2025-06-05 12:28:03</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:55</t>
+          <t>2025-06-05 12:28:03</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-05 13:54:44</t>
+          <t>2025-06-05 12:28:03</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2707,36 +2702,41 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
+      <c r="N31" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-8.579684343437501</v>
+        <v>-0.5194823232291667</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251943</v>
+        <v>251741</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2744,33 +2744,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="D32" t="n">
-        <v>107.3272727272727</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-05 13:54:44</t>
+          <t>2025-06-05 12:28:03</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:25:14</t>
+          <t>2025-06-05 13:04:33</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:25:14</t>
+          <t>2025-06-05 13:04:33</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-06 08:12:34</t>
+          <t>2025-06-05 14:43:22</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5903</v>
+        <v>5435</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-7.342064393935185</v>
+        <v>-8.613453282824073</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251979</v>
+        <v>251943</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2816,33 +2816,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>34.5</v>
+        <v>30.5</v>
       </c>
       <c r="D33" t="n">
-        <v>374.1090909090909</v>
+        <v>107.3272727272727</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:12:34</t>
+          <t>2025-06-05 14:43:22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:47:04</t>
+          <t>2025-06-06 07:13:52</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:47:04</t>
+          <t>2025-06-06 07:13:52</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-09 07:01:10</t>
+          <t>2025-06-06 09:01:12</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>20576</v>
+        <v>5903</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2851,11 +2851,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2868,11 +2868,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-4.292487373738425</v>
+        <v>-7.375833333333333</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251747</v>
+        <v>251979</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2888,33 +2888,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D34" t="n">
-        <v>282.8363636363636</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:01:10</t>
+          <t>2025-06-06 09:01:12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:40</t>
+          <t>2025-06-06 09:35:42</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:40</t>
+          <t>2025-06-06 09:35:42</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:31</t>
+          <t>2025-06-09 07:49:48</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>15556</v>
+        <v>20576</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2940,19 +2940,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-4.326256313136574</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252058</v>
+        <v>251747</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2960,33 +2960,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D35" t="n">
-        <v>96.36363636363636</v>
+        <v>282.8363636363636</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:31</t>
+          <t>2025-06-09 07:49:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-09 12:51:01</t>
+          <t>2025-06-09 08:22:18</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-09 12:51:01</t>
+          <t>2025-06-09 08:22:18</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-09 14:27:22</t>
+          <t>2025-06-09 13:05:08</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5300</v>
+        <v>15556</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3012,19 +3012,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.6023484848495371</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>244023</v>
+        <v>252058</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3032,33 +3032,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D36" t="n">
-        <v>18.12727272727273</v>
+        <v>96.36363636363636</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-09 14:27:22</t>
+          <t>2025-06-09 13:05:08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-09 14:59:52</t>
+          <t>2025-06-09 13:39:38</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-09 14:59:52</t>
+          <t>2025-06-09 13:39:38</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-10 07:18:00</t>
+          <t>2025-06-10 07:16:00</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>997</v>
+        <v>5300</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3084,14 +3084,14 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-253.3041729798033</v>
+        <v>-1.302784090914352</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3104,29 +3104,29 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="D37" t="n">
         <v>330.6727272727273</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:18:00</t>
+          <t>2025-06-10 07:16:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:54:30</t>
+          <t>2025-06-10 07:50:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:54:30</t>
+          <t>2025-06-10 07:50:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-10 13:25:10</t>
+          <t>2025-06-10 13:21:10</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-5.559154040405092</v>
+        <v>-5.556376262627315</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251916</v>
+        <v>252196</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3176,33 +3176,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D38" t="n">
-        <v>852.2727272727273</v>
+        <v>856.1636363636363</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:25:10</t>
+          <t>2025-06-10 13:21:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:57:40</t>
+          <t>2025-06-10 13:55:40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:57:40</t>
+          <t>2025-06-10 13:55:40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-12 12:09:57</t>
+          <t>2025-06-12 12:11:50</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>46875</v>
+        <v>47089</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251984</v>
+        <v>252084</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>338.327868852459</v>
+        <v>641</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3260,21 +3260,21 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:25:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:25:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-04 13:03:19</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>20638</v>
+        <v>39101</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
       <c r="N39" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3301,23 +3301,23 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-0.4173611111111111</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251180</v>
+        <v>251984</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3328,30 +3328,30 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-04 13:03:19</t>
+          <t>2025-06-05 10:01:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-05 10:26:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-05 10:26:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-06 08:04:19</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>20638</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3364,15 +3364,13 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N40" t="n">
+        <v>39874</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3380,23 +3378,23 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-15.5613387978125</v>
+        <v>-1.3363387978125</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>252282</v>
+        <v>251180</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3407,30 +3405,30 @@
         <v>25</v>
       </c>
       <c r="D41" t="n">
-        <v>44.88524590163934</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:19</t>
+          <t>2025-06-06 08:04:19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-04 13:53:19</t>
+          <t>2025-06-06 08:29:19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-04 13:53:19</t>
+          <t>2025-06-06 08:29:19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-04 14:38:12</t>
+          <t>2025-06-06 08:29:19</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2738</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3443,13 +3441,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="n">
-        <v>39885</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3457,23 +3457,23 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-17.35369990892361</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252156</v>
+        <v>252282</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3481,33 +3481,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>842.1311475409836</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-04 14:38:12</t>
+          <t>2025-06-06 08:29:19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-04 14:58:12</t>
+          <t>2025-06-06 08:54:19</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-04 14:58:12</t>
+          <t>2025-06-06 08:54:19</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-06 13:00:20</t>
+          <t>2025-06-06 09:39:12</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>51370</v>
+        <v>2738</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3525,27 +3525,32 @@
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
+      <c r="N42" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-1.4022313296875</v>
       </c>
       <c r="S42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251772</v>
+        <v>252156</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3553,33 +3558,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>741.672131147541</v>
+        <v>842.1311475409836</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-06 13:00:20</t>
+          <t>2025-06-06 09:39:12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-06 13:25:20</t>
+          <t>2025-06-06 09:59:12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-06 13:25:20</t>
+          <t>2025-06-06 09:59:12</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-10 09:47:00</t>
+          <t>2025-06-10 08:01:20</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>45242</v>
+        <v>51370</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3592,7 +3597,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3605,19 +3610,19 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-5.407650273229167</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>252084</v>
+        <v>251772</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3625,33 +3630,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>641</v>
+        <v>741.672131147541</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-10 09:47:00</t>
+          <t>2025-06-10 08:01:20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-10 10:17:00</t>
+          <t>2025-06-10 08:26:20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-10 10:17:00</t>
+          <t>2025-06-10 08:26:20</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-11 12:58:00</t>
+          <t>2025-06-11 12:48:00</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>39101</v>
+        <v>45242</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3664,32 +3669,27 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-6.540289162118055</v>
+        <v>-6.533344717673611</v>
       </c>
       <c r="S44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3702,29 +3702,29 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>260</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-11 12:58:00</t>
+          <t>2025-06-11 12:48:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:38:00</t>
+          <t>2025-06-11 13:18:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:38:00</t>
+          <t>2025-06-11 13:18:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-12 09:58:00</t>
+          <t>2025-06-12 09:38:00</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3843,7 +3843,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251237</v>
+        <v>252395</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>565.3521126760563</v>
+        <v>1264.605633802817</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3863,21 +3863,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 10:00:03</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 10:00:03</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-06-10 07:04:39</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>40140</v>
+        <v>89787</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3886,41 +3886,36 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
-      </c>
-      <c r="N47" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>245089</v>
+        <v>251237</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3928,33 +3923,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D48" t="n">
-        <v>1727.676056338028</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-06-10 07:04:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-06 12:18:24</t>
+          <t>2025-06-10 07:42:39</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-06 12:18:24</t>
+          <t>2025-06-10 07:42:39</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-12 09:06:05</t>
+          <t>2025-06-11 09:08:00</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>122665</v>
+        <v>40140</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3963,28 +3958,33 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N48" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-6.380565336458334</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252395</v>
+        <v>245089</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4000,24 +4000,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
-        <v>1264.605633802817</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-12 09:06:05</t>
+          <t>2025-06-11 09:08:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-12 09:25:05</t>
+          <t>2025-06-11 09:42:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-12 09:25:05</t>
+          <t>2025-06-11 09:42:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>89787</v>
+        <v>122665</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4035,11 +4035,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>76</v>
@@ -4052,19 +4052,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>252112</v>
+        <v>251762</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4072,10 +4072,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>254.1428571428571</v>
+        <v>106.2857142857143</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4084,21 +4084,21 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-06-04 07:35:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-06-04 07:35:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-06-04 09:21:17</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>12453</v>
+        <v>5208</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4111,32 +4111,27 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-14.38978174603009</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -4149,29 +4144,29 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D51" t="n">
         <v>191.3265306122449</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-06-04 09:21:17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-04 12:39:08</t>
+          <t>2025-06-04 10:01:17</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-04 12:39:08</t>
+          <t>2025-06-04 10:01:17</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:28</t>
+          <t>2025-06-04 13:12:36</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4205,7 +4200,7 @@
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-8.326714852604166</v>
+        <v>-7.550425170069444</v>
       </c>
       <c r="S51" t="n">
         <v>7</v>
@@ -4228,22 +4223,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-05 07:50:28</t>
+          <t>2025-06-04 13:12:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-05 08:25:28</t>
+          <t>2025-06-04 13:47:36</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-05 08:25:28</t>
+          <t>2025-06-04 13:47:36</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-05 12:55:42</t>
+          <t>2025-06-05 10:17:51</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4277,7 +4272,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-8.53869047619213</v>
+        <v>-8.429067460312499</v>
       </c>
       <c r="S52" t="n">
         <v>7</v>
@@ -4300,22 +4295,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-05 12:55:42</t>
+          <t>2025-06-05 10:17:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-05 13:40:42</t>
+          <t>2025-06-05 11:02:51</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-05 13:40:42</t>
+          <t>2025-06-05 11:02:51</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-06 07:13:03</t>
+          <t>2025-06-05 12:35:12</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4349,7 +4344,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-2.300736961446759</v>
+        <v>-1.524447278912037</v>
       </c>
       <c r="S53" t="n">
         <v>7</v>
@@ -4357,7 +4352,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251519</v>
+        <v>252112</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4368,30 +4363,30 @@
         <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>268.8775510204082</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-06 07:13:03</t>
+          <t>2025-06-05 12:35:12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-06 08:08:03</t>
+          <t>2025-06-05 13:30:12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-06 08:08:03</t>
+          <t>2025-06-05 13:30:12</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-06 12:36:56</t>
+          <t>2025-06-06 09:44:20</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>13175</v>
+        <v>12453</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4409,27 +4404,32 @@
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
+      <c r="N54" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-1.405796485266204</v>
       </c>
       <c r="S54" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251993</v>
+        <v>251519</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4437,33 +4437,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>248.0204081632653</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-06 12:36:56</t>
+          <t>2025-06-06 09:44:20</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-06 13:21:56</t>
+          <t>2025-06-06 10:19:20</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-06 13:21:56</t>
+          <t>2025-06-06 10:19:20</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-09 09:29:57</t>
+          <t>2025-06-06 14:48:13</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>12153</v>
+        <v>13175</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4489,19 +4489,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.3958049886574074</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251898</v>
+        <v>251993</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4509,33 +4509,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D56" t="n">
-        <v>134.7959183673469</v>
+        <v>248.0204081632653</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-09 09:29:57</t>
+          <t>2025-06-06 14:48:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-09 10:06:57</t>
+          <t>2025-06-09 07:33:13</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-09 10:06:57</t>
+          <t>2025-06-09 07:33:13</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-09 12:21:45</t>
+          <t>2025-06-09 11:41:14</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>6605</v>
+        <v>12153</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4544,14 +4544,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4561,19 +4561,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-3.51510770974537</v>
+        <v>-0.4869756235879629</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251186</v>
+        <v>251898</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4584,30 +4584,30 @@
         <v>37</v>
       </c>
       <c r="D57" t="n">
-        <v>520.6530612244898</v>
+        <v>134.7959183673469</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:21:45</t>
+          <t>2025-06-09 11:41:14</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:58:45</t>
+          <t>2025-06-09 12:18:14</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:58:45</t>
+          <t>2025-06-09 12:18:14</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-10 13:39:24</t>
+          <t>2025-06-09 14:33:02</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>25512</v>
+        <v>6605</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4616,14 +4616,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4633,19 +4633,19 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-11.56903344671296</v>
+        <v>-3.606278344675926</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251762</v>
+        <v>251186</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4653,33 +4653,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D58" t="n">
-        <v>106.2857142857143</v>
+        <v>520.6530612244898</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-10 13:39:24</t>
+          <t>2025-06-09 14:33:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-10 14:19:24</t>
+          <t>2025-06-10 07:10:02</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-10 14:19:24</t>
+          <t>2025-06-10 07:10:02</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-11 08:05:41</t>
+          <t>2025-06-11 07:50:41</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5208</v>
+        <v>25512</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4705,14 +4705,14 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-21.33728741496528</v>
+        <v>-12.32687074829861</v>
       </c>
       <c r="S58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4725,29 +4725,29 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D59" t="n">
         <v>130.8163265306123</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:05:41</t>
+          <t>2025-06-11 07:50:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:40:41</t>
+          <t>2025-06-11 08:30:41</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:40:41</t>
+          <t>2025-06-11 08:30:41</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-11 10:51:30</t>
+          <t>2025-06-11 10:41:30</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4804,22 +4804,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-11 10:51:30</t>
+          <t>2025-06-11 10:41:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-11 11:41:30</t>
+          <t>2025-06-11 11:31:30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-11 11:41:30</t>
+          <t>2025-06-11 11:31:30</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-11 14:15:24</t>
+          <t>2025-06-11 14:05:24</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4876,22 +4876,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:15:24</t>
+          <t>2025-06-11 14:05:24</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:55:24</t>
+          <t>2025-06-11 14:45:24</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:55:24</t>
+          <t>2025-06-11 14:45:24</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-12 08:16:44</t>
+          <t>2025-06-12 08:06:44</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4948,22 +4948,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:16:44</t>
+          <t>2025-06-12 08:06:44</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:51:44</t>
+          <t>2025-06-12 08:41:44</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:51:44</t>
+          <t>2025-06-12 08:41:44</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-12 09:38:29</t>
+          <t>2025-06-12 09:28:29</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5005,7 +5005,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251655</v>
+        <v>252108</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>1617.211267605634</v>
+        <v>201.4225352112676</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -5035,11 +5035,11 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-06-05 11:01:25</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>114822</v>
+        <v>14301</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5048,41 +5048,36 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="N63" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252108</v>
+        <v>252195</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5090,33 +5085,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>201.4225352112676</v>
+        <v>503.5633802816901</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-06-05 11:01:25</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-10 11:22:12</t>
+          <t>2025-06-05 11:36:25</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-10 11:22:12</t>
+          <t>2025-06-05 11:36:25</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-10 14:43:38</t>
+          <t>2025-06-06 11:59:59</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>14301</v>
+        <v>35753</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5142,11 +5137,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-4.613634585289351</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5154,7 +5149,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>252195</v>
+        <v>251655</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5162,24 +5157,24 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>503.5633802816901</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-10 14:43:38</t>
+          <t>2025-06-06 11:59:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-11 07:18:38</t>
+          <t>2025-06-06 12:44:59</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-11 07:18:38</t>
+          <t>2025-06-06 12:44:59</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5188,7 +5183,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>35753</v>
+        <v>114822</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5197,31 +5192,36 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-7.320970266041667</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
         <v>32.26760563380282</v>
@@ -5246,17 +5246,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:27:11</t>
+          <t>2025-06-12 08:17:11</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:27:11</t>
+          <t>2025-06-12 08:17:11</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:59:27</t>
+          <t>2025-06-12 08:49:27</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5735,7 +5735,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252326</v>
+        <v>251684</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>371.6086956521739</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -5765,11 +5765,11 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-13 07:30:46</t>
+          <t>2025-06-12 12:57:46</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>25641</v>
+        <v>15083</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251978</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>488.28125</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-06 12:23:16</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>31250</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,36 +558,41 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-3.516167534722222</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251219</v>
+        <v>243569</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -595,33 +600,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>107.5</v>
+        <v>40.640625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-06 12:23:16</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:16</t>
+          <t>2025-06-05 14:44:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:16</t>
+          <t>2025-06-05 14:44:30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-06 14:46:46</t>
+          <t>2025-06-06 07:25:08</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6880</v>
+        <v>2601</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -634,37 +639,32 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>76</v>
       </c>
-      <c r="N3" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.6158203125</v>
+        <v>-263.3091254340278</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243569</v>
+        <v>251978</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -672,33 +672,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>40.640625</v>
+        <v>488.28125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-06 14:46:46</t>
+          <t>2025-06-06 07:25:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-09 07:07:46</t>
+          <t>2025-06-06 07:55:08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-09 07:07:46</t>
+          <t>2025-06-06 07:55:08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-09 07:48:25</t>
+          <t>2025-06-09 08:03:25</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2601</v>
+        <v>31250</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -707,14 +707,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -724,14 +724,14 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-266.32529296875</v>
+        <v>-6.335709635416666</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -744,29 +744,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>143.8125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-09 07:48:25</t>
+          <t>2025-06-09 08:03:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-09 08:03:25</t>
+          <t>2025-06-09 08:33:25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-09 08:03:25</t>
+          <t>2025-06-09 08:33:25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-09 10:27:14</t>
+          <t>2025-06-09 10:57:14</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-14.43557942708333</v>
+        <v>-14.45641276041667</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -823,22 +823,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:27:14</t>
+          <t>2025-06-09 10:57:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:59:14</t>
+          <t>2025-06-09 11:29:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:59:14</t>
+          <t>2025-06-09 11:29:14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-09 12:59:17</t>
+          <t>2025-06-09 13:29:17</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.54117838541667</v>
+        <v>-10.56201171875</v>
       </c>
       <c r="S6" t="n">
         <v>2</v>
@@ -895,22 +895,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-09 12:59:17</t>
+          <t>2025-06-09 13:29:17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-09 13:14:17</t>
+          <t>2025-06-09 13:44:17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-09 13:14:17</t>
+          <t>2025-06-09 13:44:17</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-11 08:55:40</t>
+          <t>2025-06-11 09:25:40</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.371994357638889</v>
+        <v>-1.392827690972222</v>
       </c>
       <c r="S7" t="n">
         <v>2</v>
@@ -967,22 +967,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-11 08:55:40</t>
+          <t>2025-06-11 09:25:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-11 09:10:40</t>
+          <t>2025-06-11 09:40:40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-11 09:10:40</t>
+          <t>2025-06-11 09:40:40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-11 12:25:15</t>
+          <t>2025-06-11 12:55:15</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1039,22 +1039,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-11 12:25:15</t>
+          <t>2025-06-11 12:55:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-11 12:48:15</t>
+          <t>2025-06-11 13:18:15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-11 12:48:15</t>
+          <t>2025-06-11 13:18:15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-12 09:12:24</t>
+          <t>2025-06-12 09:42:24</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1535,7 +1535,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251362</v>
+        <v>251752</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>35.28169014084507</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1565,11 +1565,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2505</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1588,7 +1588,7 @@
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39874</v>
+        <v>39846</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1596,23 +1596,23 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>39846</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251752</v>
+        <v>251218</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1620,33 +1620,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1673,15 +1673,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.5467233959259259</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251218</v>
+        <v>251565</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1697,33 +1697,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
-        <v>96.90140845070422</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-04 13:07:16</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-04 13:28:16</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 09:49:38</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6880</v>
+        <v>12549</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1732,14 +1732,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
         <v>39885</v>
@@ -1754,11 +1754,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.2952660406828704</v>
+        <v>-0.409477699525463</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1774,29 +1774,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>249.2112676056338</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-05 07:05:10</t>
+          <t>2025-06-05 09:49:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 10:20:38</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-05 07:43:10</t>
+          <t>2025-06-05 10:20:38</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 14:29:51</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-10.49471830986111</v>
+        <v>-10.60406885759259</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251780</v>
+        <v>251362</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1853,33 +1853,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D20" t="n">
-        <v>342.2394366197183</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 11:52:23</t>
+          <t>2025-06-05 14:29:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-06 07:13:51</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-06 07:13:51</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-06 10:03:38</t>
+          <t>2025-06-06 07:49:08</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>24299</v>
+        <v>2505</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1888,19 +1888,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N20" t="n">
+        <v>39874</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1908,15 +1906,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-1.325792253518518</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1924,7 +1922,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251935</v>
+        <v>251780</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1932,33 +1930,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>94.21126760563381</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 10:03:38</t>
+          <t>2025-06-06 07:49:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 10:20:38</t>
+          <t>2025-06-06 08:19:08</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 10:20:38</t>
+          <t>2025-06-06 08:19:08</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 11:54:50</t>
+          <t>2025-06-06 14:01:22</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6689</v>
+        <v>24299</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1971,32 +1969,39 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.496420187789352</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251565</v>
+        <v>251935</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2004,33 +2009,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>176.7464788732394</v>
+        <v>94.21126760563381</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-06 11:54:50</t>
+          <t>2025-06-06 14:01:22</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-06 12:13:50</t>
+          <t>2025-06-06 14:18:22</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-06 12:13:50</t>
+          <t>2025-06-06 14:18:22</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:10:35</t>
+          <t>2025-06-09 07:52:35</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12549</v>
+        <v>6689</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2043,32 +2048,27 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-4.299021909236111</v>
+        <v>-4.328188575902778</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2081,29 +2081,29 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>372.0985915492957</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-09 07:10:35</t>
+          <t>2025-06-09 07:52:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-09 07:40:35</t>
+          <t>2025-06-09 08:26:35</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-09 07:40:35</t>
+          <t>2025-06-09 08:26:35</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-09 13:52:41</t>
+          <t>2025-06-09 14:38:41</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-135.578257042257</v>
+        <v>-135.6102014867014</v>
       </c>
       <c r="S23" t="n">
         <v>2</v>
@@ -2160,22 +2160,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-09 13:52:41</t>
+          <t>2025-06-09 14:38:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-09 14:26:41</t>
+          <t>2025-06-10 07:12:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-09 14:26:41</t>
+          <t>2025-06-10 07:12:41</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-10 11:45:38</t>
+          <t>2025-06-10 12:31:38</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2232,22 +2232,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-10 11:45:38</t>
+          <t>2025-06-10 12:31:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:00:38</t>
+          <t>2025-06-10 12:46:38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:00:38</t>
+          <t>2025-06-10 12:46:38</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-10 13:08:54</t>
+          <t>2025-06-10 13:54:54</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-11.54785798121528</v>
+        <v>-11.57980242565972</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251916</v>
+        <v>252196</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2297,33 +2297,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>660.2112676056338</v>
+        <v>663.2253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-10 13:08:54</t>
+          <t>2025-06-10 13:54:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-10 13:38:54</t>
+          <t>2025-06-10 14:26:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-10 13:38:54</t>
+          <t>2025-06-10 14:26:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-12 08:39:07</t>
+          <t>2025-06-12 09:30:08</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>46875</v>
+        <v>47089</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>252326</v>
+        <v>251684</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2369,33 +2369,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>361.1408450704225</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-12 08:39:07</t>
+          <t>2025-06-12 09:30:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-12 08:58:07</t>
+          <t>2025-06-12 09:47:08</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-12 08:58:07</t>
+          <t>2025-06-12 09:47:08</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-12 14:59:16</t>
+          <t>2025-06-12 13:19:34</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>25641</v>
+        <v>15083</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2433,7 +2433,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251500</v>
+        <v>251070</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D28" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2453,21 +2453,21 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2498,11 +2498,11 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>244023</v>
+        <v>251773</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2518,33 +2518,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D29" t="n">
-        <v>18.12727272727273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 11:06:55</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-05 11:25:03</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2553,28 +2553,33 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-248.4757323232292</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2582,7 +2587,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251070</v>
+        <v>251500</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2590,33 +2595,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:25:03</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:33</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:33</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:33</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2629,7 +2634,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2647,11 +2652,11 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.4969128787847222</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -2659,7 +2664,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251773</v>
+        <v>251943</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2667,33 +2672,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>107.3272727272727</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-05 11:55:33</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:03</t>
+          <t>2025-06-05 12:15:55</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:03</t>
+          <t>2025-06-05 12:15:55</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:03</t>
+          <t>2025-06-05 14:03:15</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5903</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2702,41 +2707,36 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="N31" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.5194823232291667</v>
+        <v>-6.585593434340277</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251741</v>
+        <v>251979</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2744,33 +2744,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="D32" t="n">
-        <v>98.81818181818181</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:03</t>
+          <t>2025-06-05 14:03:15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-05 13:04:33</t>
+          <t>2025-06-05 14:37:45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-05 13:04:33</t>
+          <t>2025-06-05 14:37:45</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:43:22</t>
+          <t>2025-06-06 12:51:51</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5435</v>
+        <v>20576</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2779,11 +2779,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-8.613453282824073</v>
+        <v>-1.536016414143518</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251943</v>
+        <v>251747</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2816,33 +2816,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D33" t="n">
-        <v>107.3272727272727</v>
+        <v>282.8363636363636</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-05 14:43:22</t>
+          <t>2025-06-06 12:51:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-06 07:13:52</t>
+          <t>2025-06-06 13:24:21</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-06 07:13:52</t>
+          <t>2025-06-06 13:24:21</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-06 09:01:12</t>
+          <t>2025-06-09 10:07:12</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5903</v>
+        <v>15556</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2868,19 +2868,19 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-7.375833333333333</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251979</v>
+        <v>252058</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2891,30 +2891,30 @@
         <v>34.5</v>
       </c>
       <c r="D34" t="n">
-        <v>374.1090909090909</v>
+        <v>96.36363636363636</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-06 09:01:12</t>
+          <t>2025-06-09 10:07:12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-06 09:35:42</t>
+          <t>2025-06-09 10:41:42</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-06 09:35:42</t>
+          <t>2025-06-09 10:41:42</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:49:48</t>
+          <t>2025-06-09 12:18:03</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>20576</v>
+        <v>5300</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2940,19 +2940,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-4.326256313136574</v>
+        <v>-0.5125441919212963</v>
       </c>
       <c r="S34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251747</v>
+        <v>244023</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2963,30 +2963,30 @@
         <v>32.5</v>
       </c>
       <c r="D35" t="n">
-        <v>282.8363636363636</v>
+        <v>18.12727272727273</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-09 07:49:48</t>
+          <t>2025-06-09 12:18:03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-09 08:22:18</t>
+          <t>2025-06-09 12:50:33</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-09 08:22:18</t>
+          <t>2025-06-09 12:50:33</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-09 13:05:08</t>
+          <t>2025-06-09 13:08:41</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>15556</v>
+        <v>997</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3012,19 +3012,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-252.5477020201967</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>252058</v>
+        <v>251741</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3035,30 +3035,30 @@
         <v>34.5</v>
       </c>
       <c r="D36" t="n">
-        <v>96.36363636363636</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-09 13:05:08</t>
+          <t>2025-06-09 13:08:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-09 13:39:38</t>
+          <t>2025-06-09 13:43:11</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-09 13:39:38</t>
+          <t>2025-06-09 13:43:11</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-10 07:16:00</t>
+          <t>2025-06-10 07:22:00</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5300</v>
+        <v>5435</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3084,14 +3084,14 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-1.302784090914352</v>
+        <v>-13.30695075758102</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -3104,29 +3104,29 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D37" t="n">
         <v>330.6727272727273</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:16:00</t>
+          <t>2025-06-10 07:22:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:50:30</t>
+          <t>2025-06-10 07:54:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:50:30</t>
+          <t>2025-06-10 07:54:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-10 13:21:10</t>
+          <t>2025-06-10 13:25:10</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-5.556376262627315</v>
+        <v>-5.559154040405092</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>252196</v>
+        <v>251916</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3176,33 +3176,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D38" t="n">
-        <v>856.1636363636363</v>
+        <v>852.2727272727273</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:21:10</t>
+          <t>2025-06-10 13:25:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:55:40</t>
+          <t>2025-06-10 13:57:40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:55:40</t>
+          <t>2025-06-10 13:57:40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-12 12:11:50</t>
+          <t>2025-06-12 12:09:57</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>47089</v>
+        <v>46875</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252084</v>
+        <v>251180</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3260,21 +3260,21 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>39101</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3287,13 +3287,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="n">
-        <v>39885</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3301,15 +3303,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>-15.3125</v>
       </c>
       <c r="S39" t="n">
         <v>7</v>
@@ -3317,7 +3319,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3328,30 +3330,30 @@
         <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:26:00</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:26:00</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:19</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3364,13 +3366,13 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
       <c r="N40" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3378,15 +3380,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.3363387978125</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -3394,7 +3396,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251180</v>
+        <v>251984</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3402,33 +3404,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-06 08:04:19</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:19</t>
+          <t>2025-06-04 09:09:53</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:19</t>
+          <t>2025-06-04 09:09:53</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:19</t>
+          <t>2025-06-04 14:48:12</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>20638</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3441,15 +3443,13 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N41" t="n">
+        <v>39874</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3457,23 +3457,23 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-17.35369990892361</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252282</v>
+        <v>252156</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3481,33 +3481,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>44.88524590163934</v>
+        <v>842.1311475409836</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-06 08:29:19</t>
+          <t>2025-06-04 14:48:12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-06 08:54:19</t>
+          <t>2025-06-05 07:18:12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-06 08:54:19</t>
+          <t>2025-06-05 07:18:12</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-06 09:39:12</t>
+          <t>2025-06-06 13:20:20</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2738</v>
+        <v>51370</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3525,32 +3525,27 @@
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.4022313296875</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252156</v>
+        <v>251772</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3558,33 +3553,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>842.1311475409836</v>
+        <v>741.672131147541</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:39:12</t>
+          <t>2025-06-06 13:20:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:59:12</t>
+          <t>2025-06-06 13:45:20</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:59:12</t>
+          <t>2025-06-06 13:45:20</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-10 08:01:20</t>
+          <t>2025-06-10 10:07:00</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>51370</v>
+        <v>45242</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3597,7 +3592,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3610,19 +3605,19 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-5.421539162118055</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251772</v>
+        <v>252084</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3630,33 +3625,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>741.672131147541</v>
+        <v>641</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:01:20</t>
+          <t>2025-06-10 10:07:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:26:20</t>
+          <t>2025-06-10 10:37:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:26:20</t>
+          <t>2025-06-10 10:37:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-11 12:48:00</t>
+          <t>2025-06-11 13:18:00</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>45242</v>
+        <v>39101</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3669,27 +3664,32 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-6.533344717673611</v>
+        <v>-6.554178051006944</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -3702,29 +3702,29 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
         <v>260</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-11 12:48:00</t>
+          <t>2025-06-11 13:18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:18:00</t>
+          <t>2025-06-11 13:58:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:18:00</t>
+          <t>2025-06-11 13:58:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-12 09:38:00</t>
+          <t>2025-06-12 10:18:00</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3843,7 +3843,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>252395</v>
+        <v>251237</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D47" t="n">
-        <v>1264.605633802817</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3863,21 +3863,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:00:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-10 07:04:39</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>89787</v>
+        <v>40140</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3886,36 +3886,41 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N47" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251237</v>
+        <v>245089</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3923,33 +3928,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
-        <v>565.3521126760563</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-10 07:04:39</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-10 07:42:39</t>
+          <t>2025-06-06 12:18:24</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-10 07:42:39</t>
+          <t>2025-06-06 12:18:24</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-11 09:08:00</t>
+          <t>2025-06-12 09:06:05</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>40140</v>
+        <v>122665</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3958,33 +3963,28 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>100</v>
-      </c>
-      <c r="N48" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-6.380565336458334</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>245089</v>
+        <v>252395</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4000,24 +4000,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>1727.676056338028</v>
+        <v>1264.605633802817</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-11 09:08:00</t>
+          <t>2025-06-12 09:06:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-11 09:42:00</t>
+          <t>2025-06-12 09:25:05</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-11 09:42:00</t>
+          <t>2025-06-12 09:25:05</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>122665</v>
+        <v>89787</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4035,11 +4035,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>76</v>
@@ -4052,19 +4052,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251762</v>
+        <v>252112</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4072,10 +4072,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>106.2857142857143</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4084,21 +4084,21 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-04 09:21:17</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5208</v>
+        <v>12453</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4111,27 +4111,32 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-14.38978174603009</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4144,29 +4149,29 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
         <v>191.3265306122449</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-04 09:21:17</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-04 10:01:17</t>
+          <t>2025-06-04 12:39:08</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-04 10:01:17</t>
+          <t>2025-06-04 12:39:08</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-04 13:12:36</t>
+          <t>2025-06-05 07:50:28</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4200,7 +4205,7 @@
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-7.550425170069444</v>
+        <v>-8.326714852604166</v>
       </c>
       <c r="S51" t="n">
         <v>7</v>
@@ -4223,22 +4228,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-04 13:12:36</t>
+          <t>2025-06-05 07:50:28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-04 13:47:36</t>
+          <t>2025-06-05 08:25:28</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-04 13:47:36</t>
+          <t>2025-06-05 08:25:28</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-05 10:17:51</t>
+          <t>2025-06-05 12:55:42</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4272,7 +4277,7 @@
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-8.429067460312499</v>
+        <v>-8.53869047619213</v>
       </c>
       <c r="S52" t="n">
         <v>7</v>
@@ -4295,22 +4300,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-05 10:17:51</t>
+          <t>2025-06-05 12:55:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-05 11:02:51</t>
+          <t>2025-06-05 13:40:42</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-05 11:02:51</t>
+          <t>2025-06-05 13:40:42</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:12</t>
+          <t>2025-06-06 07:13:03</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4344,7 +4349,7 @@
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-1.524447278912037</v>
+        <v>-2.300736961446759</v>
       </c>
       <c r="S53" t="n">
         <v>7</v>
@@ -4352,7 +4357,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252112</v>
+        <v>251519</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4363,30 +4368,30 @@
         <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>254.1428571428571</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:12</t>
+          <t>2025-06-06 07:13:03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-05 13:30:12</t>
+          <t>2025-06-06 08:08:03</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-05 13:30:12</t>
+          <t>2025-06-06 08:08:03</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:20</t>
+          <t>2025-06-06 12:36:56</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>12453</v>
+        <v>13175</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4404,32 +4409,27 @@
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="N54" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-1.405796485266204</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251519</v>
+        <v>251993</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4437,33 +4437,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>268.8775510204082</v>
+        <v>248.0204081632653</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:20</t>
+          <t>2025-06-06 12:36:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-06 10:19:20</t>
+          <t>2025-06-06 13:21:56</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-06 10:19:20</t>
+          <t>2025-06-06 13:21:56</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-06 14:48:13</t>
+          <t>2025-06-09 09:29:57</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>13175</v>
+        <v>12153</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4489,19 +4489,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-0.3958049886574074</v>
       </c>
       <c r="S55" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251993</v>
+        <v>251898</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4509,33 +4509,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D56" t="n">
-        <v>248.0204081632653</v>
+        <v>134.7959183673469</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-06 14:48:13</t>
+          <t>2025-06-09 09:29:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:13</t>
+          <t>2025-06-09 10:06:57</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:13</t>
+          <t>2025-06-09 10:06:57</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-09 11:41:14</t>
+          <t>2025-06-09 12:21:45</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>12153</v>
+        <v>6605</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4544,14 +4544,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4561,19 +4561,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.4869756235879629</v>
+        <v>-3.51510770974537</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251898</v>
+        <v>251186</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4584,30 +4584,30 @@
         <v>37</v>
       </c>
       <c r="D57" t="n">
-        <v>134.7959183673469</v>
+        <v>520.6530612244898</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-09 11:41:14</t>
+          <t>2025-06-09 12:21:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:18:14</t>
+          <t>2025-06-09 12:58:45</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:18:14</t>
+          <t>2025-06-09 12:58:45</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-09 14:33:02</t>
+          <t>2025-06-10 13:39:24</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>6605</v>
+        <v>25512</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4616,14 +4616,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4633,19 +4633,19 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-3.606278344675926</v>
+        <v>-11.56903344671296</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251186</v>
+        <v>251762</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4653,33 +4653,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>520.6530612244898</v>
+        <v>106.2857142857143</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-09 14:33:02</t>
+          <t>2025-06-10 13:39:24</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-10 07:10:02</t>
+          <t>2025-06-10 14:19:24</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-10 07:10:02</t>
+          <t>2025-06-10 14:19:24</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-11 07:50:41</t>
+          <t>2025-06-11 08:05:41</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>25512</v>
+        <v>5208</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4705,14 +4705,14 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-12.32687074829861</v>
+        <v>-21.33728741496528</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -4725,29 +4725,29 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
         <v>130.8163265306123</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-11 07:50:41</t>
+          <t>2025-06-11 08:05:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:30:41</t>
+          <t>2025-06-11 08:40:41</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:30:41</t>
+          <t>2025-06-11 08:40:41</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-11 10:41:30</t>
+          <t>2025-06-11 10:51:30</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4804,22 +4804,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-11 10:41:30</t>
+          <t>2025-06-11 10:51:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-11 11:31:30</t>
+          <t>2025-06-11 11:41:30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-11 11:31:30</t>
+          <t>2025-06-11 11:41:30</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-11 14:05:24</t>
+          <t>2025-06-11 14:15:24</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4876,22 +4876,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:05:24</t>
+          <t>2025-06-11 14:15:24</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:45:24</t>
+          <t>2025-06-11 14:55:24</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:45:24</t>
+          <t>2025-06-11 14:55:24</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-12 08:06:44</t>
+          <t>2025-06-12 08:16:44</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4948,22 +4948,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:06:44</t>
+          <t>2025-06-12 08:16:44</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:41:44</t>
+          <t>2025-06-12 08:51:44</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:41:44</t>
+          <t>2025-06-12 08:51:44</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-12 09:28:29</t>
+          <t>2025-06-12 09:38:29</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5005,7 +5005,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252108</v>
+        <v>251655</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>201.4225352112676</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -5035,11 +5035,11 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-05 11:01:25</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>14301</v>
+        <v>114822</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5048,36 +5048,41 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
+      <c r="N63" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252195</v>
+        <v>252108</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5085,33 +5090,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D64" t="n">
-        <v>503.5633802816901</v>
+        <v>201.4225352112676</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-05 11:01:25</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-05 11:36:25</t>
+          <t>2025-06-10 11:22:12</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-05 11:36:25</t>
+          <t>2025-06-10 11:22:12</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-06 11:59:59</t>
+          <t>2025-06-10 14:43:38</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>35753</v>
+        <v>14301</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5137,11 +5142,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-4.613634585289351</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5149,7 +5154,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251655</v>
+        <v>252195</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5157,24 +5162,24 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>1617.211267605634</v>
+        <v>503.5633802816901</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-06 11:59:59</t>
+          <t>2025-06-10 14:43:38</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-06 12:44:59</t>
+          <t>2025-06-11 07:18:38</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-06 12:44:59</t>
+          <t>2025-06-11 07:18:38</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5183,7 +5188,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>114822</v>
+        <v>35753</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5192,36 +5197,31 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-7.320970266041667</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
         <v>32.26760563380282</v>
@@ -5246,17 +5246,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:17:11</t>
+          <t>2025-06-12 08:27:11</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:17:11</t>
+          <t>2025-06-12 08:27:11</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:49:27</t>
+          <t>2025-06-12 08:59:27</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5375,7 +5375,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252235</v>
+        <v>251390</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>351.5652173913044</v>
+        <v>31.23188405797102</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5395,21 +5395,21 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:53</t>
+          <t>2025-06-06 09:34:53</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:53</t>
+          <t>2025-06-06 09:34:53</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-09 07:46:27</t>
+          <t>2025-06-06 10:06:07</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>24258</v>
+        <v>2155</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5418,14 +5418,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5455,29 +5455,29 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
         <v>590.8405797101449</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-09 07:46:27</t>
+          <t>2025-06-06 10:06:07</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-09 08:31:27</t>
+          <t>2025-06-06 10:36:07</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-09 08:31:27</t>
+          <t>2025-06-06 10:36:07</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-10 10:22:18</t>
+          <t>2025-06-09 12:26:58</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5511,7 +5511,7 @@
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-15.43215579710648</v>
+        <v>-14.51872987118056</v>
       </c>
       <c r="S69" t="n">
         <v>2</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251390</v>
+        <v>252235</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5527,33 +5527,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>31.23188405797102</v>
+        <v>351.5652173913044</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-10 10:22:18</t>
+          <t>2025-06-09 12:26:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-10 10:52:18</t>
+          <t>2025-06-09 13:11:58</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-10 10:52:18</t>
+          <t>2025-06-09 13:11:58</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-10 11:23:32</t>
+          <t>2025-06-10 11:03:32</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2155</v>
+        <v>24258</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5562,14 +5562,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5579,11 +5579,11 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.47467793880787</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>7</v>
@@ -5599,14 +5599,14 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D71" t="n">
         <v>478.3188405797101</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-10 11:23:32</t>
+          <t>2025-06-10 11:03:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5735,7 +5735,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251684</v>
+        <v>252326</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>218.5942028985507</v>
+        <v>371.6086956521739</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -5765,11 +5765,11 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-12 12:57:46</t>
+          <t>2025-06-13 07:30:46</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>15083</v>
+        <v>25641</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251978</v>
+        <v>251371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>488.28125</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-06 12:23:16</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>31250</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,24 +562,31 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-3.516167534722222</v>
+        <v>-13.30486111111111</v>
       </c>
       <c r="S2" t="n">
         <v>7</v>
@@ -587,7 +594,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251219</v>
+        <v>251391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -595,33 +602,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>107.5</v>
+        <v>91.640625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-06 12:23:16</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:16</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:16</t>
+          <t>2025-05-07 07:36:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-06 14:46:46</t>
+          <t>2025-05-07 09:07:38</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6880</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,17 +637,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -648,23 +655,23 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.6158203125</v>
+        <v>-0.3803059895833333</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>243569</v>
+        <v>251455</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -672,33 +679,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>40.640625</v>
+        <v>82.765625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-06 14:46:46</t>
+          <t>2025-05-07 09:07:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-09 07:07:46</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-09 07:07:46</t>
+          <t>2025-05-07 09:24:38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-09 07:48:25</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2601</v>
+        <v>5297</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -707,36 +714,41 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-266.32529296875</v>
+        <v>-0.4495876736111111</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251792</v>
+        <v>251395</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,33 +756,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>143.8125</v>
+        <v>35.34375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-09 07:48:25</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-09 08:03:25</t>
+          <t>2025-05-07 11:06:24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-09 08:03:25</t>
+          <t>2025-05-07 11:06:24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-09 10:27:14</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>9204</v>
+        <v>2262</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -779,36 +791,41 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-14.43557942708333</v>
+        <v>-0.4873263888888889</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252042</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -816,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>120.0625</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:27:14</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:59:14</t>
+          <t>2025-05-07 11:56:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-09 10:59:14</t>
+          <t>2025-05-07 11:56:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-09 12:59:17</t>
+          <t>2025-05-07 12:32:05</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7684</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -855,32 +872,37 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
+      <c r="N6" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-10.54117838541667</v>
+        <v>-0.5222873263888889</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>252082</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -888,33 +910,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>701.375</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-09 12:59:17</t>
+          <t>2025-05-07 12:32:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-09 13:14:17</t>
+          <t>2025-05-07 12:51:05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-09 13:14:17</t>
+          <t>2025-05-07 12:51:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-11 08:55:40</t>
+          <t>2025-05-08 08:18:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>44888</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -927,32 +949,37 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
+      <c r="N7" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.371994357638889</v>
+        <v>-1.345833333333333</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252121</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -960,33 +987,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>194.578125</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-11 08:55:40</t>
+          <t>2025-05-08 08:18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-11 09:10:40</t>
+          <t>2025-05-08 08:50:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-11 09:10:40</t>
+          <t>2025-05-08 08:50:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-11 12:25:15</t>
+          <t>2025-05-08 10:39:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12453</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -995,36 +1022,41 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>-1.444075520833333</v>
+      </c>
+      <c r="S8" t="n">
         <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2025-06-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251680</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1032,33 +1064,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>264.15625</v>
+        <v>468.734375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-11 12:25:15</t>
+          <t>2025-05-08 10:39:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-11 12:48:15</t>
+          <t>2025-05-08 10:58:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-11 12:48:15</t>
+          <t>2025-05-08 10:58:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-12 09:12:24</t>
+          <t>2025-05-09 10:47:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16906</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1067,28 +1099,33 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-2.449446614583333</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1096,41 +1133,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251879</v>
+        <v>251564</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>98.47540983606558</v>
+        <v>42.453125</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 10:47:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-09 11:17:12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-09 11:17:12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 09:18:28</t>
+          <t>2025-05-09 11:59:39</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6007</v>
+        <v>2717</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1156,53 +1193,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-6.387830145717593</v>
+        <v>-2.499761284722222</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251445</v>
+        <v>251546</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>445.4754098360656</v>
+        <v>101.03125</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:18:28</t>
+          <t>2025-05-09 11:59:39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:28</t>
+          <t>2025-05-09 12:18:39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:28</t>
+          <t>2025-05-09 12:18:39</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-06 09:08:57</t>
+          <t>2025-05-09 13:59:41</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>27174</v>
+        <v>6466</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1215,7 +1252,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1228,11 +1265,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.381215846990741</v>
+        <v>-9.583116319444445</v>
       </c>
       <c r="S11" t="n">
         <v>7</v>
@@ -1240,41 +1277,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251897</v>
+        <v>245275</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>305.0327868852459</v>
+        <v>379.59375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-06 09:08:57</t>
+          <t>2025-05-09 13:59:41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-06 09:47:57</t>
+          <t>2025-05-09 14:32:41</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-06 09:47:57</t>
+          <t>2025-05-09 14:32:41</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 14:52:59</t>
+          <t>2025-05-12 12:52:16</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>18607</v>
+        <v>24294</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1283,77 +1320,70 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-11.62012750454861</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251958</v>
+        <v>251743</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>142.3114754098361</v>
+        <v>168.375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-06 14:52:59</t>
+          <t>2025-05-12 12:52:16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-09 07:44:59</t>
+          <t>2025-05-12 13:27:16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-09 07:44:59</t>
+          <t>2025-05-12 13:27:16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-09 10:07:17</t>
+          <t>2025-05-13 08:15:39</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8681</v>
+        <v>10776</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1362,14 +1392,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1379,11 +1409,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4217326958101852</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -1391,41 +1421,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251905</v>
+        <v>251245</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>226.9016393442623</v>
+        <v>11.78125</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-09 10:07:17</t>
+          <t>2025-05-13 08:15:39</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-09 10:36:17</t>
+          <t>2025-05-13 08:34:39</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-09 10:36:17</t>
+          <t>2025-05-13 08:34:39</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-09 14:23:11</t>
+          <t>2025-05-13 08:46:26</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>13841</v>
+        <v>754</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1434,14 +1464,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1451,53 +1481,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-12.59944216758102</v>
+        <v>-46.36558159722222</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252337</v>
+        <v>251463</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>1561.27868852459</v>
+        <v>108.859375</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-09 14:23:11</t>
+          <t>2025-05-13 08:46:26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-10 07:03:11</t>
+          <t>2025-05-13 09:05:26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-10 07:03:11</t>
+          <t>2025-05-13 09:05:26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-13 09:04:28</t>
+          <t>2025-05-13 10:54:17</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>95238</v>
+        <v>6967</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1506,11 +1536,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1523,53 +1553,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-07-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-4.454372829861111</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251752</v>
+        <v>251462</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>97.28125</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-13 10:54:17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-13 11:13:17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-13 11:13:17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-13 12:50:34</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1578,33 +1608,28 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39846</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39846</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5118055555555555</v>
+        <v>-4.535123697916666</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1612,41 +1637,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251895</v>
+        <v>251562</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>249.2112676056338</v>
+        <v>127.21875</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-13 12:50:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:01:00</t>
+          <t>2025-05-13 13:05:34</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-04 13:01:00</t>
+          <t>2025-05-13 13:05:34</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:10:12</t>
+          <t>2025-05-14 07:12:47</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>17694</v>
+        <v>8142</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1655,77 +1680,70 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-10.38209115805556</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251218</v>
+        <v>251251</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>96.90140845070422</v>
+        <v>247.8125</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:10:12</t>
+          <t>2025-05-14 07:12:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:48:12</t>
+          <t>2025-05-14 07:35:47</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:48:12</t>
+          <t>2025-05-14 07:35:47</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:25:06</t>
+          <t>2025-05-14 11:43:36</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6880</v>
+        <v>15860</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1734,33 +1752,28 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4757726917013889</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1768,41 +1781,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251565</v>
+        <v>244204</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
-        <v>176.7464788732394</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-05 11:25:06</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:03:06</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:03:06</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 14:59:51</t>
+          <t>2025-05-09 08:38:55</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12549</v>
+        <v>3472</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1815,71 +1828,66 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.6249021909259259</v>
+        <v>-1.360359744988426</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251780</v>
+        <v>251346</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>342.2394366197183</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 14:59:51</t>
+          <t>2025-05-09 08:38:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-06 07:16:51</t>
+          <t>2025-05-09 09:11:55</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-06 07:16:51</t>
+          <t>2025-05-09 09:11:55</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:05</t>
+          <t>2025-05-09 10:15:10</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>24299</v>
+        <v>3859</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1892,73 +1900,66 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39887</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-11.42720856101852</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251935</v>
+        <v>251651</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D21" t="n">
-        <v>94.21126760563381</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 12:59:05</t>
+          <t>2025-05-09 10:15:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 13:16:05</t>
+          <t>2025-05-09 11:01:10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 13:16:05</t>
+          <t>2025-05-09 11:01:10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 14:50:18</t>
+          <t>2025-05-13 07:48:53</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6689</v>
+        <v>46830</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1967,14 +1968,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39755</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1984,11 +1988,11 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.618270735520833</v>
+        <v>-0.3256147540972222</v>
       </c>
       <c r="S21" t="n">
         <v>4</v>
@@ -1996,41 +2000,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>245623</v>
+        <v>244023</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>372.0985915492957</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-06 14:50:18</t>
+          <t>2025-05-13 07:48:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:24:18</t>
+          <t>2025-05-13 08:30:53</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-09 07:24:18</t>
+          <t>2025-05-13 08:30:53</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-09 13:36:24</t>
+          <t>2025-05-13 08:47:13</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>26419</v>
+        <v>997</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2039,14 +2043,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2056,53 +2060,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-135.5669503129861</v>
+        <v>-225.3661316029167</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251362</v>
+        <v>251283</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>35.28169014084507</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-09 13:36:24</t>
+          <t>2025-05-13 08:47:13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-09 14:08:24</t>
+          <t>2025-05-13 09:12:13</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-06-09 14:08:24</t>
+          <t>2025-05-13 09:12:13</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-06-09 14:43:41</t>
+          <t>2025-05-13 09:24:35</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2505</v>
+        <v>754</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2111,75 +2115,70 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-4.613673708923611</v>
+        <v>-56.39207650273148</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251798</v>
+        <v>251464</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>318.943661971831</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-06-09 14:43:41</t>
+          <t>2025-05-13 09:24:35</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-10 07:00:41</t>
+          <t>2025-05-13 09:53:35</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-06-10 07:00:41</t>
+          <t>2025-05-13 09:53:35</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-06-10 12:19:38</t>
+          <t>2025-05-13 11:50:51</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>22645</v>
+        <v>7153</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2188,14 +2187,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2205,53 +2204,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>-4.493647540983796</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251972</v>
+        <v>251467</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>68.28169014084507</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:19:38</t>
+          <t>2025-05-13 11:50:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:34:38</t>
+          <t>2025-05-13 12:19:51</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-06-10 12:34:38</t>
+          <t>2025-05-13 12:19:51</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-06-10 13:42:54</t>
+          <t>2025-05-13 14:01:55</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4848</v>
+        <v>6226</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2260,14 +2259,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2277,11 +2276,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-11.57146909232639</v>
+        <v>-4.584665300543981</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2289,41 +2288,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>252196</v>
+        <v>251260</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
-        <v>663.2253521126761</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-06-10 13:42:54</t>
+          <t>2025-05-13 14:01:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-06-10 14:14:54</t>
+          <t>2025-05-13 14:34:55</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-06-10 14:14:54</t>
+          <t>2025-05-13 14:34:55</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-06-12 09:18:08</t>
+          <t>2025-05-14 09:08:30</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>47089</v>
+        <v>9369</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2332,11 +2331,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2349,7 +2348,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2361,41 +2360,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251684</v>
+        <v>251249</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>212.4366197183099</v>
+        <v>78</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:18:08</t>
+          <t>2025-05-14 09:08:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:35:08</t>
+          <t>2025-05-14 09:33:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-06-12 09:35:08</t>
+          <t>2025-05-14 09:33:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-06-12 13:07:34</t>
+          <t>2025-05-14 10:51:30</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>15083</v>
+        <v>4758</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2421,7 +2420,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2433,41 +2432,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251070</v>
+        <v>245090</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36.5</v>
+        <v>42</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-14 10:51:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-14 11:33:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-14 11:33:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-09 08:44:17</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>516718</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2476,75 +2475,70 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
-      </c>
-      <c r="N28" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251773</v>
+        <v>250759</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 09:17:16</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2553,17 +2547,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N29" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2571,15 +2565,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.3395833333333333</v>
+        <v>-0.3870011737037037</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2587,41 +2581,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251500</v>
+        <v>250894</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>179.9272727272727</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-06-05 08:09:00</t>
+          <t>2025-05-08 09:17:16</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-05-08 09:34:16</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-05 08:45:30</t>
+          <t>2025-05-08 09:34:16</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-05-09 11:57:41</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>9896</v>
+        <v>44262</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2630,75 +2624,73 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
+        <v>5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>76</v>
+      </c>
+      <c r="N30" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>4</v>
-      </c>
-      <c r="M30" t="n">
-        <v>70</v>
-      </c>
-      <c r="N30" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R30" s="1" t="n">
-        <v>-0.4898800505092593</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251741</v>
+        <v>235572</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>98.81818181818181</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-05 11:45:25</t>
+          <t>2025-05-09 11:57:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:55</t>
+          <t>2025-05-09 12:27:41</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-06-05 12:15:55</t>
+          <t>2025-05-09 12:27:41</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-06-05 13:54:44</t>
+          <t>2025-05-09 14:47:56</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5435</v>
+        <v>9958</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2707,11 +2699,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2724,53 +2716,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-8.579684343437501</v>
+        <v>-550.6166275430325</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251943</v>
+        <v>251547</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>107.3272727272727</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-05 13:54:44</t>
+          <t>2025-05-09 14:47:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:25:14</t>
+          <t>2025-05-12 07:04:56</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-06-05 14:25:14</t>
+          <t>2025-05-12 07:04:56</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-06-06 08:12:34</t>
+          <t>2025-05-12 10:09:51</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5903</v>
+        <v>13129</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2788,19 +2780,24 @@
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
+      <c r="N32" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-7.342064393935185</v>
+        <v>-5.423513302037037</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2808,41 +2805,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251979</v>
+        <v>251475</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>374.1090909090909</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:12:34</t>
+          <t>2025-05-12 10:09:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:47:04</t>
+          <t>2025-05-12 10:24:51</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-06-06 08:47:04</t>
+          <t>2025-05-12 10:24:51</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-06-09 07:01:10</t>
+          <t>2025-05-12 12:27:07</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>20576</v>
+        <v>8681</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2851,11 +2848,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2868,53 +2865,53 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-4.292487373738425</v>
+        <v>-12.5188380281713</v>
       </c>
       <c r="S33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251747</v>
+        <v>251809</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>282.8363636363636</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:01:10</t>
+          <t>2025-05-12 12:27:07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:40</t>
+          <t>2025-05-12 12:42:07</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:40</t>
+          <t>2025-05-12 12:42:07</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:31</t>
+          <t>2025-05-12 14:44:23</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>15556</v>
+        <v>8681</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2927,7 +2924,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2940,7 +2937,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2952,41 +2949,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>252058</v>
+        <v>251259</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>96.36363636363636</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-09 12:16:31</t>
+          <t>2025-05-12 14:44:23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-09 12:51:01</t>
+          <t>2025-05-13 07:09:23</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-06-09 12:51:01</t>
+          <t>2025-05-13 07:09:23</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-06-09 14:27:22</t>
+          <t>2025-05-13 08:19:49</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2999,7 +2996,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3012,11 +3009,11 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.6023484848495371</v>
+        <v>-7.347095070428241</v>
       </c>
       <c r="S35" t="n">
         <v>2</v>
@@ -3024,41 +3021,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>244023</v>
+        <v>251466</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32.5</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
-        <v>18.12727272727273</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-09 14:27:22</t>
+          <t>2025-05-13 08:19:49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-06-09 14:59:52</t>
+          <t>2025-05-13 08:46:49</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-06-09 14:59:52</t>
+          <t>2025-05-13 08:46:49</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-06-10 07:18:00</t>
+          <t>2025-05-13 10:05:13</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>997</v>
+        <v>5567</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3071,7 +3068,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3084,11 +3081,11 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-253.3041729798033</v>
+        <v>-4.420295383414351</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -3096,41 +3093,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>252111</v>
+        <v>251465</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>330.6727272727273</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:18:00</t>
+          <t>2025-05-13 10:05:13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:54:30</t>
+          <t>2025-05-13 10:22:13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-06-10 07:54:30</t>
+          <t>2025-05-13 10:22:13</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-06-10 13:25:10</t>
+          <t>2025-05-13 11:49:54</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>18187</v>
+        <v>6226</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3143,7 +3140,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3156,11 +3153,11 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-5.559154040405092</v>
+        <v>-4.492996870104166</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3168,41 +3165,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251916</v>
+        <v>251557</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>852.2727272727273</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:25:10</t>
+          <t>2025-05-13 11:49:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:57:40</t>
+          <t>2025-05-13 12:04:54</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-06-10 13:57:40</t>
+          <t>2025-05-13 12:04:54</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-12 12:09:57</t>
+          <t>2025-05-13 13:39:21</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>46875</v>
+        <v>6705</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3215,7 +3212,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3228,7 +3225,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3240,41 +3237,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>252084</v>
+        <v>251062</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39" t="n">
-        <v>641</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-13 13:39:21</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-13 14:02:21</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-13 14:02:21</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-05-14 11:21:00</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>39101</v>
+        <v>22624</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3283,75 +3280,70 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.4173611111111111</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251180</v>
+        <v>251284</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>40.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:01:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3360,19 +3352,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N40" t="n">
+        <v>39747</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3380,57 +3370,57 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>39887</v>
+        <v>39747</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-16.43819444444444</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251984</v>
+        <v>251397</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>25</v>
+        <v>38.5</v>
       </c>
       <c r="D41" t="n">
-        <v>338.327868852459</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-06-05 10:31:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-05-09 13:16:05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-06-05 10:56:00</t>
+          <t>2025-05-09 13:16:05</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-05-09 14:54:54</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>20638</v>
+        <v>5435</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3448,66 +3438,61 @@
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="n">
-        <v>39874</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39874</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-1.357172131145833</v>
+        <v>-11.62146464646991</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>252282</v>
+        <v>251505</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="D42" t="n">
-        <v>44.88524590163934</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-06-06 08:34:19</t>
+          <t>2025-05-09 14:54:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:19</t>
+          <t>2025-05-12 07:29:24</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:19</t>
+          <t>2025-05-12 07:29:24</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-05-12 11:48:35</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2738</v>
+        <v>14255</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3525,66 +3510,61 @@
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.409175774131944</v>
+        <v>-7.492077020196759</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>252156</v>
+        <v>244354</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>32.5</v>
       </c>
       <c r="D43" t="n">
-        <v>842.1311475409836</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-06 09:49:12</t>
+          <t>2025-05-12 11:48:35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-06 10:09:12</t>
+          <t>2025-05-12 12:21:05</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-06 10:09:12</t>
+          <t>2025-05-12 12:21:05</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-10 08:11:20</t>
+          <t>2025-05-12 13:39:27</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>51370</v>
+        <v>4310</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3597,7 +3577,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3610,53 +3590,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-4.5690656565625</v>
       </c>
       <c r="S43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251772</v>
+        <v>250819</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
-        <v>741.672131147541</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:11:20</t>
+          <t>2025-05-12 13:39:27</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:36:20</t>
+          <t>2025-05-12 14:13:57</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-10 08:36:20</t>
+          <t>2025-05-12 14:13:57</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-11 12:58:00</t>
+          <t>2025-05-13 08:48:59</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>45242</v>
+        <v>8527</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3669,7 +3649,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3682,53 +3662,53 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-06-05 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-6.540289162118055</v>
+        <v>-25.36735479797454</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251679</v>
+        <v>251247</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D45" t="n">
-        <v>260</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-11 12:58:00</t>
+          <t>2025-05-13 08:48:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:28:00</t>
+          <t>2025-05-13 09:19:29</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-11 13:28:00</t>
+          <t>2025-05-13 09:19:29</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-12 09:48:00</t>
+          <t>2025-05-14 09:29:12</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>15860</v>
+        <v>26934</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3754,11 +3734,11 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-5.395277777777777</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -3766,41 +3746,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251631</v>
+        <v>251795</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="D46" t="n">
-        <v>146.056338028169</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-14 09:29:12</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-14 09:59:42</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-14 09:59:42</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-15 07:40:24</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>10370</v>
+        <v>18739</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3809,75 +3789,70 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
-      </c>
-      <c r="N46" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251237</v>
+        <v>251742</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>565.3521126760563</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>40140</v>
+        <v>8226</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3886,17 +3861,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N47" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3904,57 +3879,57 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>245089</v>
+        <v>251840</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>1727.676056338028</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-06 12:18:24</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-06 12:18:24</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-12 09:06:05</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>122665</v>
+        <v>5714</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3963,28 +3938,33 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N48" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -3992,41 +3972,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>252395</v>
+        <v>251561</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>1264.605633802817</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-12 09:06:05</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-12 09:25:05</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-12 09:25:05</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-16 14:29:41</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>89787</v>
+        <v>5435</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4035,14 +4015,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4052,53 +4032,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-1.564321493622685</v>
       </c>
       <c r="S49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251762</v>
+        <v>251229</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>106.2857142857143</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-04 07:35:00</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-04 09:21:17</t>
+          <t>2025-05-09 11:04:49</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5208</v>
+        <v>18739</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4107,70 +4087,77 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-21 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-14.38978174603009</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251911</v>
+        <v>251566</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>191.3265306122449</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-06-04 09:21:17</t>
+          <t>2025-05-09 11:04:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-06-04 10:01:17</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-06-04 10:01:17</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-06-04 13:12:36</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>9375</v>
+        <v>6889</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4196,53 +4183,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-7.550425170069444</v>
+        <v>-2.560940346087963</v>
       </c>
       <c r="S51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251910</v>
+        <v>251846</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>270.2448979591837</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-06-04 13:12:36</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-06-04 13:47:36</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-06-04 13:47:36</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-05 10:17:51</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>13242</v>
+        <v>11392</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4255,7 +4242,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4268,11 +4255,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-8.429067460312499</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>7</v>
@@ -4280,41 +4267,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251992</v>
+        <v>251424</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>92.34693877551021</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-06-05 10:17:51</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-06-05 11:02:51</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-06-05 11:02:51</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:12</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4525</v>
+        <v>9662</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4327,7 +4314,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4340,53 +4327,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-1.524447278912037</v>
+        <v>-14.50895947177083</v>
       </c>
       <c r="S53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>252112</v>
+        <v>244355</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>254.1428571428571</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-06-05 12:35:12</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-06-05 13:30:12</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-06-05 13:30:12</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:20</t>
+          <t>2025-05-12 13:43:33</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>12453</v>
+        <v>4310</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4399,71 +4386,66 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="N54" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-1.405796485266204</v>
+        <v>-4.571914845173612</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251519</v>
+        <v>251485</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>268.8775510204082</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-06-06 09:44:20</t>
+          <t>2025-05-12 13:43:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-06-06 10:19:20</t>
+          <t>2025-05-12 14:08:33</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-06-06 10:19:20</t>
+          <t>2025-05-12 14:08:33</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-06 14:48:13</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>13175</v>
+        <v>4808</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4476,7 +4458,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4489,53 +4471,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-20.31067850637731</v>
       </c>
       <c r="S55" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251993</v>
+        <v>251761</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>248.0204081632653</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-06 14:48:13</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:13</t>
+          <t>2025-05-13 07:52:22</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-09 07:33:13</t>
+          <t>2025-05-13 07:52:22</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-09 11:41:14</t>
+          <t>2025-05-13 11:30:03</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>12153</v>
+        <v>13279</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4561,53 +4543,53 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.4869756235879629</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251898</v>
+        <v>251374</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>134.7959183673469</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-06-09 11:41:14</t>
+          <t>2025-05-13 11:30:03</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:18:14</t>
+          <t>2025-05-13 12:05:03</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-06-09 12:18:14</t>
+          <t>2025-05-13 12:05:03</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-09 14:33:02</t>
+          <t>2025-05-14 11:33:18</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>6605</v>
+        <v>27343</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4616,14 +4598,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4633,53 +4615,53 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-3.606278344675926</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251186</v>
+        <v>251225</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>520.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-06-09 14:33:02</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-06-10 07:10:02</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-06-10 07:10:02</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-06-11 07:50:41</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>25512</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4688,28 +4670,33 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
         <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N58" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-12.32687074829861</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S58" t="n">
         <v>1</v>
@@ -4717,41 +4704,41 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>252110</v>
+        <v>251227</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>130.8163265306123</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-06-11 07:50:41</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:30:41</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-06-11 08:30:41</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-11 10:41:30</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>6410</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4760,28 +4747,33 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-06-17 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -4789,41 +4781,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>252410</v>
+        <v>251782</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>153.8979591836735</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-11 10:41:30</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-11 11:31:30</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-11 11:31:30</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-11 14:05:24</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>7541</v>
+        <v>12073</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4832,28 +4824,33 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N60" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4861,41 +4858,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251681</v>
+        <v>243569</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>81.32653061224489</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:05:24</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:45:24</t>
+          <t>2025-05-09 07:56:02</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-06-11 14:45:24</t>
+          <t>2025-05-09 07:56:02</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-12 08:06:44</t>
+          <t>2025-05-09 08:32:40</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3985</v>
+        <v>2601</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4904,14 +4901,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4921,53 +4918,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-235.3560250391204</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>252293</v>
+        <v>251340</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>46.75510204081633</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:06:44</t>
+          <t>2025-05-09 08:32:40</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:41:44</t>
+          <t>2025-05-09 08:49:40</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-12 08:41:44</t>
+          <t>2025-05-09 08:49:40</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-12 09:28:29</t>
+          <t>2025-05-12 08:31:38</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2291</v>
+        <v>32800</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4976,14 +4973,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4993,53 +4990,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-14.3553110328588</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>252108</v>
+        <v>245623</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>201.4225352112676</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-12 08:31:38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-12 09:01:38</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-12 09:01:38</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-05 11:01:25</t>
+          <t>2025-05-13 07:13:44</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>14301</v>
+        <v>26419</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5048,14 +5045,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5065,53 +5062,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-108.3012128325463</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>252195</v>
+        <v>243335</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>503.5633802816901</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-05 11:01:25</t>
+          <t>2025-05-13 07:13:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-05 11:36:25</t>
+          <t>2025-05-13 07:32:44</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-05 11:36:25</t>
+          <t>2025-05-13 07:32:44</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-06 11:59:59</t>
+          <t>2025-05-14 07:17:35</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>35753</v>
+        <v>33004</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5120,14 +5117,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5137,11 +5134,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-285.3038830203473</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5149,41 +5146,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251655</v>
+        <v>251750</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D65" t="n">
-        <v>1617.211267605634</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-06 11:59:59</t>
+          <t>2025-05-14 07:17:35</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-06 12:44:59</t>
+          <t>2025-05-14 07:34:35</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-06 12:44:59</t>
+          <t>2025-05-14 07:34:35</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-12 07:42:11</t>
+          <t>2025-05-14 08:29:23</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>114822</v>
+        <v>3891</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5192,75 +5189,70 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>70</v>
-      </c>
-      <c r="N65" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39885</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-7.320970266041667</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251917</v>
+        <v>251987</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" t="n">
-        <v>32.26760563380282</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-12 07:42:11</t>
+          <t>2025-05-14 08:29:23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:17:11</t>
+          <t>2025-05-14 09:05:23</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:17:11</t>
+          <t>2025-05-14 09:05:23</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-12 08:49:27</t>
+          <t>2025-05-22 10:30:32</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2291</v>
+        <v>210526</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5269,14 +5261,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5286,7 +5278,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5298,41 +5290,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251573</v>
+        <v>251164</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D67" t="n">
-        <v>89.89855072463769</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>6203</v>
+        <v>10000</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5341,75 +5333,75 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
+        <v>6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>70</v>
+      </c>
+      <c r="N67" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S67" t="n">
         <v>4</v>
-      </c>
-      <c r="M67" t="n">
-        <v>100</v>
-      </c>
-      <c r="N67" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P67" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R67" s="1" t="n">
-        <v>-1.378401771331018</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>252235</v>
+        <v>251456</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>50</v>
       </c>
       <c r="D68" t="n">
-        <v>351.5652173913044</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:53</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-06 09:54:53</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-09 07:46:27</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>24258</v>
+        <v>8999</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5418,70 +5410,75 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N68" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251944</v>
+        <v>251626</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
-        <v>590.8405797101449</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-06-09 07:46:27</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-06-09 08:31:27</t>
+          <t>2025-05-09 07:47:44</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-06-09 08:31:27</t>
+          <t>2025-05-09 07:47:44</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-06-10 10:22:18</t>
+          <t>2025-05-09 12:02:50</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>40768</v>
+        <v>12500</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5494,7 +5491,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5507,53 +5504,53 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-15.43215579710648</v>
+        <v>-9.501969954652777</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251390</v>
+        <v>251416</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D70" t="n">
-        <v>31.23188405797102</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-06-10 10:22:18</t>
+          <t>2025-05-09 12:02:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-06-10 10:52:18</t>
+          <t>2025-05-09 12:42:50</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-06-10 10:52:18</t>
+          <t>2025-05-09 12:42:50</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-06-10 11:23:32</t>
+          <t>2025-05-12 08:31:51</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2155</v>
+        <v>11222</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5566,11 +5563,14 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
+      <c r="N70" t="n">
+        <v>39755</v>
+      </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
@@ -5579,53 +5579,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.47467793880787</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>243335</v>
+        <v>251373</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D71" t="n">
-        <v>478.3188405797101</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-06-10 11:23:32</t>
+          <t>2025-05-12 08:31:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-06-10 11:53:32</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-06-10 11:53:32</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-06-11 11:51:51</t>
+          <t>2025-05-13 07:10:42</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>33004</v>
+        <v>17094</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5634,70 +5634,70 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
+        <v>5</v>
+      </c>
+      <c r="M71" t="n">
+        <v>70</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>-15.2991071428588</v>
+      </c>
+      <c r="S71" t="n">
         <v>4</v>
-      </c>
-      <c r="M71" t="n">
-        <v>152</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>2024-08-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="R71" s="1" t="n">
-        <v>-313.4943438003241</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>252325</v>
+        <v>250670</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D72" t="n">
-        <v>262.3188405797101</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-06-11 11:51:51</t>
+          <t>2025-05-13 07:10:42</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-06-11 12:31:51</t>
+          <t>2025-05-13 07:52:42</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-06-11 12:31:51</t>
+          <t>2025-05-13 07:52:42</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-06-12 08:54:10</t>
+          <t>2025-05-13 08:24:36</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>18100</v>
+        <v>1563</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5706,14 +5706,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -5723,53 +5723,53 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-8.350425170069444</v>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>252326</v>
+        <v>251061</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D73" t="n">
-        <v>371.6086956521739</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-06-12 08:54:10</t>
+          <t>2025-05-13 08:24:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-06-12 09:19:10</t>
+          <t>2025-05-13 09:11:36</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-06-12 09:19:10</t>
+          <t>2025-05-13 09:11:36</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-13 07:30:46</t>
+          <t>2025-05-14 09:21:20</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>25641</v>
+        <v>23997</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,11 +5795,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-07-05 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-9.389824263043982</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5807,37 +5807,37 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251082</v>
+        <v>251050</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -5845,22 +5845,22 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>T1 ;T2 ;T8</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N74" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5868,15 +5868,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-0.2916666666666667</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S74" t="n">
         <v>2</v>
@@ -5884,74 +5884,957 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>252375</v>
+        <v>251054</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>99.2063492063492</v>
+        <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:12</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>T1 ;T2 ;T8</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N75" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-07-04 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S75" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>251081</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>125</v>
+      </c>
+      <c r="D76" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>20</v>
+      </c>
+      <c r="M76" t="n">
+        <v>70</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>39750</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>251594</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>115</v>
+      </c>
+      <c r="D77" t="n">
+        <v>91.07042253521126</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:54:25</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:54:25</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:25:29</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>6466</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>4</v>
+      </c>
+      <c r="M77" t="n">
+        <v>70</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2025-05-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>-5.392703442881944</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>251519</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>45</v>
+      </c>
+      <c r="D78" t="n">
+        <v>185.5633802816901</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:25:29</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:10:29</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-05-12 10:10:29</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:16:03</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>13175</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>70</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>2025-06-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>251109</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>105</v>
+      </c>
+      <c r="D79" t="n">
+        <v>266.5915492957747</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:16:03</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:01:03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:01:03</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2025-05-13 11:27:38</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>18928</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>16</v>
+      </c>
+      <c r="M79" t="n">
+        <v>70</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>2025-04-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>-25.47753325508102</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>251520</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>80</v>
+      </c>
+      <c r="D80" t="n">
+        <v>230.1408450704225</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-05-13 11:27:38</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:47:38</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:47:38</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2025-05-14 08:37:47</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>16340</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>CASON ;R6</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>7</v>
+      </c>
+      <c r="M80" t="n">
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>-2.359575508611111</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>250641</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>45</v>
+      </c>
+      <c r="D81" t="n">
+        <v>74.14492753623189</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:45:00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:45:00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:59:08</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>5116</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>6</v>
+      </c>
+      <c r="M81" t="n">
+        <v>70</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>-14.37440619967592</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>251246</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>25</v>
+      </c>
+      <c r="D82" t="n">
+        <v>173.9420289855072</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:59:08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:24:08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:24:08</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:18:05</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>12002</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>6</v>
+      </c>
+      <c r="M82" t="n">
+        <v>70</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>-3.512560386469908</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>245350</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>45</v>
+      </c>
+      <c r="D83" t="n">
+        <v>405.3623188405797</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:18:05</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:03:05</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-05-12 13:03:05</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2025-05-13 11:48:26</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>27970</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>10</v>
+      </c>
+      <c r="M83" t="n">
+        <v>70</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>2025-12-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>251580</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>55</v>
+      </c>
+      <c r="D84" t="n">
+        <v>103.6666666666667</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-05-13 11:48:26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:43:26</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:43:26</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:27:06</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>7153</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>4</v>
+      </c>
+      <c r="M84" t="n">
+        <v>70</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>251252</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>35</v>
+      </c>
+      <c r="D85" t="n">
+        <v>218.5942028985507</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:27:06</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:02:06</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:02:06</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2025-05-14 10:40:42</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>15083</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>6</v>
+      </c>
+      <c r="M85" t="n">
+        <v>70</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>2025-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>245089</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>40</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1777.753623188406</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-05-14 10:40:42</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:20:42</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:20:42</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2025-05-20 08:58:27</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>122665</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>4</v>
+      </c>
+      <c r="M86" t="n">
+        <v>76</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>2025-12-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_intra_post.xlsx
+++ b/PS-VRP/Dati_output/insert_intra_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251371</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,19 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,23 +576,23 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39666</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-13.30486111111111</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251391</v>
+        <v>243569</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -602,33 +600,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>91.640625</v>
+        <v>40.640625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-06-05 14:44:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 07:36:00</t>
+          <t>2025-06-05 14:44:30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:07:38</t>
+          <t>2025-06-06 07:25:08</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>2601</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,41 +635,36 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.3803059895833333</v>
+        <v>-263.3091254340278</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251455</v>
+        <v>251978</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -679,33 +672,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>82.765625</v>
+        <v>488.28125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:07:38</t>
+          <t>2025-06-06 07:25:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-06-06 07:55:08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 09:24:38</t>
+          <t>2025-06-06 07:55:08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-06-09 08:03:25</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5297</v>
+        <v>31250</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,29 +711,24 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4495876736111111</v>
+        <v>-6.335709635416666</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -748,7 +736,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251395</v>
+        <v>251792</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,33 +744,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>35.34375</v>
+        <v>143.8125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-06-09 08:03:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:06:24</t>
+          <t>2025-06-09 08:33:25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:06:24</t>
+          <t>2025-06-09 08:33:25</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-09 10:57:14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2262</v>
+        <v>9204</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,41 +779,36 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4873263888888889</v>
+        <v>-14.45641276041667</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251396</v>
+        <v>252042</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +816,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>120.0625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-09 10:57:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:56:45</t>
+          <t>2025-06-09 11:29:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:56:45</t>
+          <t>2025-06-09 11:29:14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:32:05</t>
+          <t>2025-06-09 13:29:17</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>7684</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,37 +855,32 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5222873263888889</v>
+        <v>-10.56201171875</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>252082</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +888,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>701.375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:32:05</t>
+          <t>2025-06-09 13:29:17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:05</t>
+          <t>2025-06-09 13:44:17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:51:05</t>
+          <t>2025-06-09 13:44:17</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 08:18:00</t>
+          <t>2025-06-11 09:25:40</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>44888</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,37 +927,32 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.345833333333333</v>
+        <v>-1.392827690972222</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250923</v>
+        <v>252121</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -987,33 +960,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>109.46875</v>
+        <v>194.578125</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:18:00</t>
+          <t>2025-06-11 09:25:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:50:00</t>
+          <t>2025-06-11 09:40:40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:50:00</t>
+          <t>2025-06-11 09:40:40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:28</t>
+          <t>2025-06-11 12:55:15</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7006</v>
+        <v>12453</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,41 +995,36 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.444075520833333</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251477</v>
+        <v>251680</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1064,33 +1032,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>468.734375</v>
+        <v>264.15625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:28</t>
+          <t>2025-06-11 12:55:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-06-11 13:18:15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:58:28</t>
+          <t>2025-06-11 13:18:15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:12</t>
+          <t>2025-06-12 09:42:24</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29999</v>
+        <v>16906</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,33 +1067,28 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
-      </c>
-      <c r="N9" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.449446614583333</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1133,41 +1096,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251564</v>
+        <v>251879</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>42.453125</v>
+        <v>98.47540983606558</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:12</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:17:12</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:17:12</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:59:39</t>
+          <t>2025-06-05 09:18:28</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2717</v>
+        <v>6007</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1193,53 +1156,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-2.499761284722222</v>
+        <v>-6.387830145717593</v>
       </c>
       <c r="S10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251546</v>
+        <v>251445</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>101.03125</v>
+        <v>445.4754098360656</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:59:39</t>
+          <t>2025-06-05 09:18:28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 12:18:39</t>
+          <t>2025-06-05 09:43:28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 12:18:39</t>
+          <t>2025-06-05 09:43:28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:41</t>
+          <t>2025-06-06 09:08:57</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6466</v>
+        <v>27174</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1252,7 +1215,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1265,11 +1228,11 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-9.583116319444445</v>
+        <v>-2.381215846990741</v>
       </c>
       <c r="S11" t="n">
         <v>7</v>
@@ -1277,41 +1240,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>245275</v>
+        <v>251897</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>379.59375</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:41</t>
+          <t>2025-06-06 09:08:57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 14:32:41</t>
+          <t>2025-06-06 09:47:57</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 14:32:41</t>
+          <t>2025-06-06 09:47:57</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:52:16</t>
+          <t>2025-06-06 14:52:59</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>24294</v>
+        <v>18607</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1320,70 +1283,77 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-11.62012750454861</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251743</v>
+        <v>251958</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D13" t="n">
-        <v>168.375</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 12:52:16</t>
+          <t>2025-06-06 14:52:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 13:27:16</t>
+          <t>2025-06-09 07:44:59</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 13:27:16</t>
+          <t>2025-06-09 07:44:59</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:39</t>
+          <t>2025-06-09 10:07:17</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>10776</v>
+        <v>8681</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1392,14 +1362,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1409,11 +1379,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-0.4217326958101852</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -1421,41 +1391,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251245</v>
+        <v>251905</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>11.78125</v>
+        <v>226.9016393442623</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 08:15:39</t>
+          <t>2025-06-09 10:07:17</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 08:34:39</t>
+          <t>2025-06-09 10:36:17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 08:34:39</t>
+          <t>2025-06-09 10:36:17</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 08:46:26</t>
+          <t>2025-06-09 14:23:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>754</v>
+        <v>13841</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1464,14 +1434,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1481,53 +1451,53 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-46.36558159722222</v>
+        <v>-12.59944216758102</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251463</v>
+        <v>252337</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>108.859375</v>
+        <v>1561.27868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-13 08:46:26</t>
+          <t>2025-06-09 14:23:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:26</t>
+          <t>2025-06-10 07:03:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 09:05:26</t>
+          <t>2025-06-10 07:03:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 10:54:17</t>
+          <t>2025-06-13 09:04:28</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6967</v>
+        <v>95238</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1536,11 +1506,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1553,53 +1523,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-07-02 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-4.454372829861111</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251462</v>
+        <v>251752</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>97.28125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-13 10:54:17</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-13 11:13:17</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-13 11:13:17</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:34</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1608,28 +1578,33 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39846</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39846</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-4.535123697916666</v>
+        <v>-0.5118055555555555</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1637,41 +1612,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251562</v>
+        <v>251218</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D17" t="n">
-        <v>127.21875</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:34</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-13 13:05:34</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-13 13:05:34</t>
+          <t>2025-06-04 12:38:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-14 07:12:47</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8142</v>
+        <v>6880</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1680,24 +1655,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1709,41 +1689,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251251</v>
+        <v>251565</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
-        <v>247.8125</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-14 07:12:47</t>
+          <t>2025-06-04 14:14:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-14 07:35:47</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-14 07:35:47</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-14 11:43:36</t>
+          <t>2025-06-05 09:49:38</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>15860</v>
+        <v>12549</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1752,28 +1732,33 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-0.409477699525463</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1781,41 +1766,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>244204</v>
+        <v>251895</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>56.91803278688525</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 09:49:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-06-05 10:20:38</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-06-05 10:20:38</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:55</t>
+          <t>2025-06-05 14:29:51</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3472</v>
+        <v>17694</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1824,28 +1809,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39891</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.360359744988426</v>
+        <v>-10.60406885759259</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -1853,41 +1845,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251346</v>
+        <v>251362</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D20" t="n">
-        <v>63.26229508196721</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:55</t>
+          <t>2025-06-05 14:29:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:11:55</t>
+          <t>2025-06-06 07:13:51</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:11:55</t>
+          <t>2025-06-06 07:13:51</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 10:15:10</t>
+          <t>2025-06-06 07:49:08</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3859</v>
+        <v>2505</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1896,70 +1888,75 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N20" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-11.42720856101852</v>
+        <v>-1.325792253518518</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251651</v>
+        <v>251780</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>767.7049180327868</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-09 10:15:10</t>
+          <t>2025-06-06 07:49:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 11:01:10</t>
+          <t>2025-06-06 08:19:08</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 11:01:10</t>
+          <t>2025-06-06 08:19:08</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:53</t>
+          <t>2025-06-06 14:01:22</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>46830</v>
+        <v>24299</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1968,73 +1965,77 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.3256147540972222</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>244023</v>
+        <v>251935</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>16.34426229508197</v>
+        <v>94.21126760563381</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:53</t>
+          <t>2025-06-06 14:01:22</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:53</t>
+          <t>2025-06-06 14:18:22</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:53</t>
+          <t>2025-06-06 14:18:22</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-13 08:47:13</t>
+          <t>2025-06-09 07:52:35</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>997</v>
+        <v>6689</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2047,7 +2048,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2060,53 +2061,53 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-225.3661316029167</v>
+        <v>-4.328188575902778</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251283</v>
+        <v>245623</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>12.36065573770492</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-13 08:47:13</t>
+          <t>2025-06-09 07:52:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:13</t>
+          <t>2025-06-09 08:26:35</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:13</t>
+          <t>2025-06-09 08:26:35</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:35</t>
+          <t>2025-06-09 14:38:41</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>754</v>
+        <v>26419</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2115,14 +2116,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2132,53 +2133,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-56.39207650273148</v>
+        <v>-135.6102014867014</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251464</v>
+        <v>251798</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>117.2622950819672</v>
+        <v>318.943661971831</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:35</t>
+          <t>2025-06-09 14:38:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-13 09:53:35</t>
+          <t>2025-06-10 07:12:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-13 09:53:35</t>
+          <t>2025-06-10 07:12:41</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-13 11:50:51</t>
+          <t>2025-06-10 12:31:38</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7153</v>
+        <v>22645</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2187,14 +2188,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2204,53 +2205,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-4.493647540983796</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251467</v>
+        <v>251972</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>102.0655737704918</v>
+        <v>68.28169014084507</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-13 11:50:51</t>
+          <t>2025-06-10 12:31:38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:51</t>
+          <t>2025-06-10 12:46:38</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:51</t>
+          <t>2025-06-10 12:46:38</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:55</t>
+          <t>2025-06-10 13:54:54</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6226</v>
+        <v>4848</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2259,14 +2260,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2276,11 +2277,11 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-4.584665300543981</v>
+        <v>-11.57980242565972</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2288,41 +2289,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251260</v>
+        <v>252196</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>153.5901639344262</v>
+        <v>663.2253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:55</t>
+          <t>2025-06-10 13:54:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 14:34:55</t>
+          <t>2025-06-10 14:26:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 14:34:55</t>
+          <t>2025-06-10 14:26:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-14 09:08:30</t>
+          <t>2025-06-12 09:30:08</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9369</v>
+        <v>47089</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2331,11 +2332,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2348,7 +2349,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2360,41 +2361,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251249</v>
+        <v>251684</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-14 09:08:30</t>
+          <t>2025-06-12 09:30:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-14 09:33:30</t>
+          <t>2025-06-12 09:47:08</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-14 09:33:30</t>
+          <t>2025-06-12 09:47:08</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-14 10:51:30</t>
+          <t>2025-06-12 13:19:34</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4758</v>
+        <v>15083</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2420,7 +2421,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-07-15 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2432,41 +2433,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>245090</v>
+        <v>251070</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>42</v>
+        <v>36.5</v>
       </c>
       <c r="D28" t="n">
-        <v>8470.786885245901</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-14 10:51:30</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-06-09 08:44:17</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>516718</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2475,70 +2476,75 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N28" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>250759</v>
+        <v>251773</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D29" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:16</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2547,17 +2553,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N29" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2565,15 +2571,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.3870011737037037</v>
+        <v>-0.3395833333333333</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2581,41 +2587,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250894</v>
+        <v>251500</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>36.5</v>
       </c>
       <c r="D30" t="n">
-        <v>623.4084507042254</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:16</t>
+          <t>2025-06-05 08:09:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 09:34:16</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 09:34:16</t>
+          <t>2025-06-05 08:45:30</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:41</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>44262</v>
+        <v>9896</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2624,73 +2630,75 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N30" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-0.4898800505092593</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>235572</v>
+        <v>251943</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D31" t="n">
-        <v>140.2535211267606</v>
+        <v>107.3272727272727</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 11:57:41</t>
+          <t>2025-06-05 11:45:25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 12:27:41</t>
+          <t>2025-06-05 12:15:55</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 12:27:41</t>
+          <t>2025-06-05 12:15:55</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:56</t>
+          <t>2025-06-05 14:03:15</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>9958</v>
+        <v>5903</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2699,11 +2707,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2716,53 +2724,53 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-550.6166275430325</v>
+        <v>-6.585593434340277</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251547</v>
+        <v>251979</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D32" t="n">
-        <v>184.9154929577465</v>
+        <v>374.1090909090909</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-09 14:47:56</t>
+          <t>2025-06-05 14:03:15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:56</t>
+          <t>2025-06-05 14:37:45</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:56</t>
+          <t>2025-06-05 14:37:45</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 10:09:51</t>
+          <t>2025-06-06 12:51:51</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>13129</v>
+        <v>20576</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2771,33 +2779,28 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
       </c>
-      <c r="N32" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-5.423513302037037</v>
+        <v>-1.536016414143518</v>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2805,41 +2808,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251475</v>
+        <v>251747</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D33" t="n">
-        <v>122.2676056338028</v>
+        <v>282.8363636363636</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-12 10:09:51</t>
+          <t>2025-06-06 12:51:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:51</t>
+          <t>2025-06-06 13:24:21</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:51</t>
+          <t>2025-06-06 13:24:21</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:07</t>
+          <t>2025-06-09 10:07:12</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>8681</v>
+        <v>15556</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2852,7 +2855,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2865,11 +2868,11 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-12.5188380281713</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>4</v>
@@ -2877,41 +2880,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251809</v>
+        <v>252058</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D34" t="n">
-        <v>122.2676056338028</v>
+        <v>96.36363636363636</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:07</t>
+          <t>2025-06-09 10:07:12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:07</t>
+          <t>2025-06-09 10:41:42</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:07</t>
+          <t>2025-06-09 10:41:42</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:23</t>
+          <t>2025-06-09 12:18:03</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8681</v>
+        <v>5300</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2924,7 +2927,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2937,53 +2940,53 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-0.5125441919212963</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251259</v>
+        <v>244023</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="D35" t="n">
-        <v>70.4225352112676</v>
+        <v>18.12727272727273</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:23</t>
+          <t>2025-06-09 12:18:03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:23</t>
+          <t>2025-06-09 12:50:33</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:23</t>
+          <t>2025-06-09 12:50:33</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:49</t>
+          <t>2025-06-09 13:08:41</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5000</v>
+        <v>997</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2996,7 +2999,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3009,53 +3012,53 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-7.347095070428241</v>
+        <v>-252.5477020201967</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251466</v>
+        <v>251741</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>27</v>
+        <v>34.5</v>
       </c>
       <c r="D36" t="n">
-        <v>78.40845070422536</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:49</t>
+          <t>2025-06-09 13:08:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-13 08:46:49</t>
+          <t>2025-06-09 13:43:11</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-13 08:46:49</t>
+          <t>2025-06-09 13:43:11</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-13 10:05:13</t>
+          <t>2025-06-10 07:22:00</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5567</v>
+        <v>5435</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3068,7 +3071,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3081,53 +3084,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-4.420295383414351</v>
+        <v>-13.30695075758102</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251465</v>
+        <v>252111</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D37" t="n">
-        <v>87.69014084507042</v>
+        <v>330.6727272727273</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-13 10:05:13</t>
+          <t>2025-06-10 07:22:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:13</t>
+          <t>2025-06-10 07:54:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:13</t>
+          <t>2025-06-10 07:54:30</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:54</t>
+          <t>2025-06-10 13:25:10</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6226</v>
+        <v>18187</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3140,7 +3143,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3153,11 +3156,11 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-4.492996870104166</v>
+        <v>-5.559154040405092</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3165,41 +3168,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251557</v>
+        <v>251916</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D38" t="n">
-        <v>94.43661971830986</v>
+        <v>852.2727272727273</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13 11:49:54</t>
+          <t>2025-06-10 13:25:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 12:04:54</t>
+          <t>2025-06-10 13:57:40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 12:04:54</t>
+          <t>2025-06-10 13:57:40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-13 13:39:21</t>
+          <t>2025-06-12 12:09:57</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6705</v>
+        <v>46875</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3212,7 +3215,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3225,7 +3228,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3237,41 +3240,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251062</v>
+        <v>251180</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>318.6478873239437</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-13 13:39:21</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-13 14:02:21</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-13 14:02:21</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-14 11:21:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>22624</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3280,70 +3283,77 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-15.3125</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251284</v>
+        <v>252282</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>40.5</v>
+        <v>25</v>
       </c>
       <c r="D40" t="n">
-        <v>297.0909090909091</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 07:55:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>16340</v>
+        <v>2738</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3352,17 +3362,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
       <c r="N40" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3370,15 +3380,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -3386,41 +3396,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251397</v>
+        <v>251984</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>38.5</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>98.81818181818181</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-04 08:39:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:16:05</t>
+          <t>2025-06-04 09:09:53</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:16:05</t>
+          <t>2025-06-04 09:09:53</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:54</t>
+          <t>2025-06-04 14:48:12</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5435</v>
+        <v>20638</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3438,61 +3448,66 @@
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="n">
+        <v>39874</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-11.62146464646991</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251505</v>
+        <v>252156</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>259.1818181818182</v>
+        <v>842.1311475409836</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:54</t>
+          <t>2025-06-04 14:48:12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:24</t>
+          <t>2025-06-05 07:18:12</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 07:29:24</t>
+          <t>2025-06-05 07:18:12</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:35</t>
+          <t>2025-06-06 13:20:20</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>14255</v>
+        <v>51370</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3518,11 +3533,11 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-12 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-7.492077020196759</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>7</v>
@@ -3530,41 +3545,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>244354</v>
+        <v>251772</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D43" t="n">
-        <v>78.36363636363636</v>
+        <v>741.672131147541</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 11:48:35</t>
+          <t>2025-06-06 13:20:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:05</t>
+          <t>2025-06-06 13:45:20</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:21:05</t>
+          <t>2025-06-06 13:45:20</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 13:39:27</t>
+          <t>2025-06-10 10:07:00</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4310</v>
+        <v>45242</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3590,53 +3605,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-4.5690656565625</v>
+        <v>-5.421539162118055</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>250819</v>
+        <v>252084</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34.5</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>155.0363636363636</v>
+        <v>641</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 13:39:27</t>
+          <t>2025-06-10 10:07:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:57</t>
+          <t>2025-06-10 10:37:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:57</t>
+          <t>2025-06-10 10:37:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:59</t>
+          <t>2025-06-11 13:18:00</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>8527</v>
+        <v>39101</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3649,66 +3664,71 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-25.36735479797454</v>
+        <v>-6.554178051006944</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251247</v>
+        <v>251679</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>489.7090909090909</v>
+        <v>260</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:59</t>
+          <t>2025-06-11 13:18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 09:19:29</t>
+          <t>2025-06-11 13:58:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 09:19:29</t>
+          <t>2025-06-11 13:58:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-14 09:29:12</t>
+          <t>2025-06-12 10:18:00</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>26934</v>
+        <v>15860</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3734,11 +3754,11 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-5.395277777777777</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -3746,41 +3766,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251795</v>
+        <v>251631</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>340.7090909090909</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-14 09:29:12</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-14 09:59:42</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-14 09:59:42</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-15 07:40:24</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>18739</v>
+        <v>10370</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3789,70 +3809,75 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N46" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251742</v>
+        <v>251237</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D47" t="n">
-        <v>134.8524590163935</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8226</v>
+        <v>40140</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3861,17 +3886,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3879,57 +3904,57 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251840</v>
+        <v>252395</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D48" t="n">
-        <v>93.67213114754098</v>
+        <v>1264.605633802817</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-06 12:22:24</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-06 12:22:24</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-11 09:27:00</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5714</v>
+        <v>89787</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3938,75 +3963,70 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="N48" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-08-04 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251561</v>
+        <v>245089</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" t="n">
-        <v>89.09836065573771</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-11 09:27:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-06-11 09:46:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-06-11 09:46:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-06-16 14:33:41</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>5435</v>
+        <v>122665</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4015,14 +4035,14 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4032,53 +4052,53 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-1.564321493622685</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251229</v>
+        <v>252112</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>307.1967213114754</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:49</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>18739</v>
+        <v>12453</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4087,19 +4107,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N50" t="n">
+        <v>39885</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4107,11 +4125,11 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4123,41 +4141,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251566</v>
+        <v>251911</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>112.9344262295082</v>
+        <v>191.3265306122449</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:49</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-06-04 12:39:08</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-06-04 12:39:08</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-06-05 07:50:28</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>6889</v>
+        <v>9375</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4183,53 +4201,53 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-2.560940346087963</v>
+        <v>-8.326714852604166</v>
       </c>
       <c r="S51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251846</v>
+        <v>251910</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>186.7540983606557</v>
+        <v>270.2448979591837</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-06-05 07:50:28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-06-05 08:25:28</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-06-05 08:25:28</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-06-05 12:55:42</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>11392</v>
+        <v>13242</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4242,7 +4260,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
@@ -4255,11 +4273,11 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-28 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-8.53869047619213</v>
       </c>
       <c r="S52" t="n">
         <v>7</v>
@@ -4267,41 +4285,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251424</v>
+        <v>251992</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D53" t="n">
-        <v>158.3934426229508</v>
+        <v>92.34693877551021</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-06-05 12:55:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-06-05 13:40:42</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-06-05 13:40:42</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-06-06 07:13:03</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>9662</v>
+        <v>4525</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4314,7 +4332,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
@@ -4327,53 +4345,53 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-14.50895947177083</v>
+        <v>-2.300736961446759</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>244355</v>
+        <v>251519</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D54" t="n">
-        <v>70.65573770491804</v>
+        <v>268.8775510204082</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-06-06 07:13:03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-06-06 08:08:03</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-06-06 08:08:03</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-06-06 12:36:56</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>4310</v>
+        <v>13175</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4386,7 +4404,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4399,53 +4417,53 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-4.571914845173612</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251485</v>
+        <v>251993</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D55" t="n">
-        <v>78.81967213114754</v>
+        <v>248.0204081632653</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-06-06 12:36:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-06-06 13:21:56</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-06-06 13:21:56</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-06-09 09:29:57</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>4808</v>
+        <v>12153</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4458,7 +4476,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4471,53 +4489,53 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-20.31067850637731</v>
+        <v>-0.3958049886574074</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251761</v>
+        <v>251898</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D56" t="n">
-        <v>217.6885245901639</v>
+        <v>134.7959183673469</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-06-09 09:29:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:22</t>
+          <t>2025-06-09 10:06:57</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:22</t>
+          <t>2025-06-09 10:06:57</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:03</t>
+          <t>2025-06-09 12:21:45</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>13279</v>
+        <v>6605</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4526,14 +4544,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4543,11 +4561,11 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-3.51510770974537</v>
       </c>
       <c r="S56" t="n">
         <v>2</v>
@@ -4555,41 +4573,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251374</v>
+        <v>251186</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D57" t="n">
-        <v>448.2459016393443</v>
+        <v>520.6530612244898</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 11:30:03</t>
+          <t>2025-06-09 12:21:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:03</t>
+          <t>2025-06-09 12:58:45</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:03</t>
+          <t>2025-06-09 12:58:45</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 11:33:18</t>
+          <t>2025-06-10 13:39:24</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>27343</v>
+        <v>25512</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4598,11 +4616,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4615,11 +4633,11 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-11.56903344671296</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
@@ -4627,41 +4645,41 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251225</v>
+        <v>251762</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>106.2857142857143</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-10 13:39:24</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-10 14:19:24</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-10 14:19:24</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-11 08:05:41</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>5208</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4670,75 +4688,70 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
-      </c>
-      <c r="N58" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-21 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-21.33728741496528</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251227</v>
+        <v>252110</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>130.8163265306123</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-11 08:05:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-11 08:40:41</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-11 08:40:41</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-11 10:51:30</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>6410</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4747,33 +4760,28 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
-      </c>
-      <c r="N59" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -4781,41 +4789,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251782</v>
+        <v>252410</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D60" t="n">
-        <v>170.0422535211268</v>
+        <v>153.8979591836735</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-11 10:51:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-11 11:41:30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-11 11:41:30</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-06-11 14:15:24</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12073</v>
+        <v>7541</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4824,33 +4832,28 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
-      </c>
-      <c r="N60" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
         <v>1</v>
@@ -4858,41 +4861,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>243569</v>
+        <v>251681</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>36.63380281690141</v>
+        <v>81.32653061224489</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-06-11 14:15:24</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:56:02</t>
+          <t>2025-06-11 14:55:24</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:56:02</t>
+          <t>2025-06-11 14:55:24</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 08:32:40</t>
+          <t>2025-06-12 08:16:44</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2601</v>
+        <v>3985</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4901,14 +4904,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4918,53 +4921,53 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-235.3560250391204</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251340</v>
+        <v>252293</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>461.9718309859155</v>
+        <v>46.75510204081633</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 08:32:40</t>
+          <t>2025-06-12 08:16:44</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 08:49:40</t>
+          <t>2025-06-12 08:51:44</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 08:49:40</t>
+          <t>2025-06-12 08:51:44</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:38</t>
+          <t>2025-06-12 09:38:29</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>32800</v>
+        <v>2291</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4973,14 +4976,14 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4990,53 +4993,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-14.3553110328588</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>245623</v>
+        <v>251655</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>372.0985915492957</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:38</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 09:01:38</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 09:01:38</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:13:44</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>26419</v>
+        <v>114822</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5045,28 +5048,33 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
-        <v>152</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N63" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-108.3012128325463</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S63" t="n">
         <v>2</v>
@@ -5074,41 +5082,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>243335</v>
+        <v>252108</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D64" t="n">
-        <v>464.8450704225352</v>
+        <v>201.4225352112676</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:13:44</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:44</t>
+          <t>2025-06-10 11:22:12</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:44</t>
+          <t>2025-06-10 11:22:12</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-14 07:17:35</t>
+          <t>2025-06-10 14:43:38</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>33004</v>
+        <v>14301</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5117,14 +5125,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5134,11 +5142,11 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-285.3038830203473</v>
+        <v>-4.613634585289351</v>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -5146,41 +5154,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251750</v>
+        <v>252195</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>54.80281690140845</v>
+        <v>503.5633802816901</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-14 07:17:35</t>
+          <t>2025-06-10 14:43:38</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:35</t>
+          <t>2025-06-11 07:18:38</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:35</t>
+          <t>2025-06-11 07:18:38</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 08:29:23</t>
+          <t>2025-06-12 07:42:11</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3891</v>
+        <v>35753</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5189,14 +5197,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
         <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5206,7 +5214,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-06-13 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5218,41 +5226,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251987</v>
+        <v>251917</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>2965.154929577465</v>
+        <v>32.26760563380282</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-14 08:29:23</t>
+          <t>2025-06-12 07:42:11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-14 09:05:23</t>
+          <t>2025-06-12 08:27:11</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-14 09:05:23</t>
+          <t>2025-06-12 08:27:11</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-22 10:30:32</t>
+          <t>2025-06-12 08:59:27</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>210526</v>
+        <v>2291</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5261,14 +5269,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -5278,7 +5286,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-06-20 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5290,41 +5298,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251164</v>
+        <v>251573</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>204.0816326530612</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>10000</v>
+        <v>6203</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5333,17 +5341,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N67" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5351,57 +5359,57 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251456</v>
+        <v>251390</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>183.6530612244898</v>
+        <v>31.23188405797102</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-06 09:34:53</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-06 09:34:53</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-06-06 10:06:07</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8999</v>
+        <v>2155</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5414,71 +5422,66 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251626</v>
+        <v>251944</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>255.1020408163265</v>
+        <v>590.8405797101449</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-06-06 10:06:07</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:44</t>
+          <t>2025-06-06 10:36:07</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:44</t>
+          <t>2025-06-06 10:36:07</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:50</t>
+          <t>2025-06-09 12:26:58</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>12500</v>
+        <v>40768</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5491,7 +5494,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5504,53 +5507,53 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-9.501969954652777</v>
+        <v>-14.51872987118056</v>
       </c>
       <c r="S69" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251416</v>
+        <v>252235</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>229.0204081632653</v>
+        <v>351.5652173913044</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:50</t>
+          <t>2025-06-09 12:26:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:50</t>
+          <t>2025-06-09 13:11:58</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:50</t>
+          <t>2025-06-09 13:11:58</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:51</t>
+          <t>2025-06-10 11:03:32</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>11222</v>
+        <v>24258</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5559,17 +5562,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
-      </c>
-      <c r="N70" t="n">
-        <v>39755</v>
+        <v>76</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -5579,53 +5579,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251373</v>
+        <v>243335</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>50</v>
       </c>
       <c r="D71" t="n">
-        <v>348.8571428571428</v>
+        <v>478.3188405797101</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-12 08:31:51</t>
+          <t>2025-06-10 11:03:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-06-10 11:53:32</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-06-10 11:53:32</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:42</t>
+          <t>2025-06-11 11:51:51</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>17094</v>
+        <v>33004</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5634,14 +5634,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -5651,53 +5651,53 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>-313.4943438003241</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>250670</v>
+        <v>252325</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
-        <v>31.89795918367347</v>
+        <v>262.3188405797101</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:42</t>
+          <t>2025-06-11 11:51:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:42</t>
+          <t>2025-06-11 12:31:51</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:42</t>
+          <t>2025-06-11 12:31:51</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:36</t>
+          <t>2025-06-12 08:54:10</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1563</v>
+        <v>18100</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5706,14 +5706,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -5723,53 +5723,53 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-8.350425170069444</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251061</v>
+        <v>252326</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>489.734693877551</v>
+        <v>371.6086956521739</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 08:24:36</t>
+          <t>2025-06-12 08:54:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:36</t>
+          <t>2025-06-12 09:19:10</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:36</t>
+          <t>2025-06-12 09:19:10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 09:21:20</t>
+          <t>2025-06-13 07:30:46</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>23997</v>
+        <v>25641</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5795,11 +5795,11 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-07-05 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-9.389824263043982</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>1</v>
@@ -5807,37 +5807,37 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251050</v>
+        <v>251082</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -5845,22 +5845,22 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5868,15 +5868,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S74" t="n">
         <v>2</v>
@@ -5884,957 +5884,74 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251054</v>
+        <v>252375</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>99.2063492063492</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 08:39:12</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>6250</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>70</v>
-      </c>
-      <c r="N75" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-07-04 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>251081</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>42.42253521126761</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:59:25</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>3012</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>20</v>
-      </c>
-      <c r="M76" t="n">
-        <v>70</v>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>39750</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R76" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S76" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>251594</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>115</v>
-      </c>
-      <c r="D77" t="n">
-        <v>91.07042253521126</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:59:25</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:54:25</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:54:25</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:25:29</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>6466</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>4</v>
-      </c>
-      <c r="M77" t="n">
-        <v>70</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>2025-05-07 00:00:00</t>
-        </is>
-      </c>
-      <c r="R77" s="1" t="n">
-        <v>-5.392703442881944</v>
-      </c>
-      <c r="S77" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>251519</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>45</v>
-      </c>
-      <c r="D78" t="n">
-        <v>185.5633802816901</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:25:29</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2025-05-12 10:10:29</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2025-05-12 10:10:29</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:16:03</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>13175</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>2</v>
-      </c>
-      <c r="M78" t="n">
-        <v>70</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>2025-06-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="R78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>251109</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>105</v>
-      </c>
-      <c r="D79" t="n">
-        <v>266.5915492957747</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:16:03</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:01:03</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:01:03</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2025-05-13 11:27:38</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>18928</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>16</v>
-      </c>
-      <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>2025-04-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="R79" s="1" t="n">
-        <v>-25.47753325508102</v>
-      </c>
-      <c r="S79" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>251520</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>80</v>
-      </c>
-      <c r="D80" t="n">
-        <v>230.1408450704225</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2025-05-13 11:27:38</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:47:38</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:47:38</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2025-05-14 08:37:47</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>16340</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>7</v>
-      </c>
-      <c r="M80" t="n">
-        <v>70</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R80" s="1" t="n">
-        <v>-2.359575508611111</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>250641</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>45</v>
-      </c>
-      <c r="D81" t="n">
-        <v>74.14492753623189</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:45:00</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:45:00</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2025-05-12 08:59:08</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>5116</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>6</v>
-      </c>
-      <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="R81" s="1" t="n">
-        <v>-14.37440619967592</v>
-      </c>
-      <c r="S81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>251246</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>25</v>
-      </c>
-      <c r="D82" t="n">
-        <v>173.9420289855072</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2025-05-12 08:59:08</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:24:08</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2025-05-12 09:24:08</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:18:05</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>12002</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>6</v>
-      </c>
-      <c r="M82" t="n">
-        <v>70</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R82" s="1" t="n">
-        <v>-3.512560386469908</v>
-      </c>
-      <c r="S82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>245350</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>45</v>
-      </c>
-      <c r="D83" t="n">
-        <v>405.3623188405797</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:18:05</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:03:05</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2025-05-12 13:03:05</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2025-05-13 11:48:26</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>27970</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>10</v>
-      </c>
-      <c r="M83" t="n">
-        <v>70</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="R83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S83" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>251580</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>55</v>
-      </c>
-      <c r="D84" t="n">
-        <v>103.6666666666667</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2025-05-13 11:48:26</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:43:26</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:43:26</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:27:06</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>7153</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>4</v>
-      </c>
-      <c r="M84" t="n">
-        <v>70</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>251252</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>35</v>
-      </c>
-      <c r="D85" t="n">
-        <v>218.5942028985507</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:27:06</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:02:06</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:02:06</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:40:42</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>15083</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>6</v>
-      </c>
-      <c r="M85" t="n">
-        <v>70</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>245089</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>40</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1777.753623188406</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:40:42</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:20:42</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2025-05-14 11:20:42</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2025-05-20 08:58:27</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>122665</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>4</v>
-      </c>
-      <c r="M86" t="n">
-        <v>76</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>2025-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="R86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
